--- a/ot-cli-vs-pyspinel.xlsx
+++ b/ot-cli-vs-pyspinel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Walt\pyspinel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9CA527-053A-42AB-B8E0-49B1804E51E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D447EB5-9F0F-4E39-9A5D-323D7B0BF443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-5505" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{54349343-9DFD-4513-8B24-9697481700BB}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Commandes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="1044">
   <si>
     <t>spinel.c</t>
   </si>
@@ -2669,6 +2668,507 @@
   </si>
   <si>
     <t>preferred</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>checktimeout</t>
+  </si>
+  <si>
+    <t>failcounter</t>
+  </si>
+  <si>
+    <t>metrics</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t>async</t>
+  </si>
+  <si>
+    <t>resolve</t>
+  </si>
+  <si>
+    <t>resolve4</t>
+  </si>
+  <si>
+    <t>browse</t>
+  </si>
+  <si>
+    <t>servicehost</t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>upstream</t>
+  </si>
+  <si>
+    <t>compression</t>
+  </si>
+  <si>
+    <t>iid</t>
+  </si>
+  <si>
+    <t>Inagain</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>linklocal</t>
+  </si>
+  <si>
+    <t>mleid</t>
+  </si>
+  <si>
+    <t>rloc</t>
+  </si>
+  <si>
+    <t>llatn</t>
+  </si>
+  <si>
+    <t>rlatn</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>guardtime</t>
+  </si>
+  <si>
+    <t>probe</t>
+  </si>
+  <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>topology</t>
+  </si>
+  <si>
+    <t>childtable</t>
+  </si>
+  <si>
+    <t>childip6</t>
+  </si>
+  <si>
+    <t>routerneighbortable</t>
+  </si>
+  <si>
+    <t>reg</t>
+  </si>
+  <si>
+    <t>cidr</t>
+  </si>
+  <si>
+    <t>mappings</t>
+  </si>
+  <si>
+    <t>linkquality</t>
+  </si>
+  <si>
+    <t>conntime</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>meshlocal</t>
+  </si>
+  <si>
+    <t>stats</t>
+  </si>
+  <si>
+    <t>bootloader</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>leader</t>
+  </si>
+  <si>
+    <t>tmforiginfilter</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>peers</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>swversion</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>validate</t>
+  </si>
+  <si>
+    <t>api</t>
+  </si>
+  <si>
+    <t>altshortaddr</t>
+  </si>
+  <si>
+    <t>retries</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>indirect</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>addr</t>
+  </si>
+  <si>
+    <t>allowlist</t>
+  </si>
+  <si>
+    <t>denylist</t>
+  </si>
+  <si>
+    <t>rss</t>
+  </si>
+  <si>
+    <t>add-lqi</t>
+  </si>
+  <si>
+    <t>parameters</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>wake</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>observe</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>connect</t>
+  </si>
+  <si>
+    <t>isclosed</t>
+  </si>
+  <si>
+    <t>isconnactive</t>
+  </si>
+  <si>
+    <t>isconnected</t>
+  </si>
+  <si>
+    <t>psk</t>
+  </si>
+  <si>
+    <t>x509</t>
+  </si>
+  <si>
+    <t>announce</t>
+  </si>
+  <si>
+    <t>mgmtget</t>
+  </si>
+  <si>
+    <t>mgmtset</t>
+  </si>
+  <si>
+    <t>provisioningurl</t>
+  </si>
+  <si>
+    <t>sessionid</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>activetimestamp</t>
+  </si>
+  <si>
+    <t>channelmask</t>
+  </si>
+  <si>
+    <t>commit</t>
+  </si>
+  <si>
+    <t>init</t>
+  </si>
+  <si>
+    <t>meshlocalprefix</t>
+  </si>
+  <si>
+    <t>mgmtgetcommand</t>
+  </si>
+  <si>
+    <t>mgmtsetcommand</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>pendingtimestamp</t>
+  </si>
+  <si>
+    <t>securitypolicy</t>
+  </si>
+  <si>
+    <t>tlvs</t>
+  </si>
+  <si>
+    <t>wakeupchannel</t>
+  </si>
+  <si>
+    <t>updater</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>maxlength</t>
+  </si>
+  <si>
+    <t>publish</t>
+  </si>
+  <si>
+    <t>steeringdata</t>
+  </si>
+  <si>
+    <t>unpublish</t>
+  </si>
+  <si>
+    <t>dnssrp</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>autostart</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>keyleaseinterval</t>
+  </si>
+  <si>
+    <t>leaseinterval</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>ttl</t>
+  </si>
+  <si>
+    <t>advid</t>
+  </si>
+  <si>
+    <t>ianapen</t>
+  </si>
+  <si>
+    <t>oui24</t>
+  </si>
+  <si>
+    <t>oui36</t>
+  </si>
+  <si>
+    <t>discriminator</t>
+  </si>
+  <si>
+    <t>devid</t>
+  </si>
+  <si>
+    <t>abort</t>
+  </si>
+  <si>
+    <t>benchmark</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>bind</t>
+  </si>
+  <si>
+    <t>deinit</t>
+  </si>
+  <si>
+    <t>sendend</t>
+  </si>
+  <si>
+    <t>stoplistening</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>linksecurity</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>omrprefix</t>
+  </si>
+  <si>
+    <t>onlinkprefix</t>
+  </si>
+  <si>
+    <t>nat64prefix</t>
+  </si>
+  <si>
+    <t>pd</t>
+  </si>
+  <si>
+    <t>prefixtable</t>
+  </si>
+  <si>
+    <t>raoptions</t>
+  </si>
+  <si>
+    <t>rioprf</t>
+  </si>
+  <si>
+    <t>routerprf</t>
+  </si>
+  <si>
+    <t>routers</t>
+  </si>
+  <si>
+    <t>discerner</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>cw</t>
+  </si>
+  <si>
+    <t>frame</t>
+  </si>
+  <si>
+    <t>stream</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>powersettings</t>
+  </si>
+  <si>
+    <t>repeat</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>receive</t>
+  </si>
+  <si>
+    <t>rawpowersetting</t>
+  </si>
+  <si>
+    <t>gpio</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>echo</t>
+  </si>
+  <si>
+    <t>-n</t>
+  </si>
+  <si>
+    <t>netinfo</t>
+  </si>
+  <si>
+    <t>rx</t>
+  </si>
+  <si>
+    <t>rxtx</t>
+  </si>
+  <si>
+    <t>tx</t>
   </si>
 </sst>
 </file>
@@ -2762,7 +3262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -2939,6 +3439,243 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2946,7 +3683,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3013,31 +3750,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -3064,11 +3777,107 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
@@ -3388,7 +4197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6960DC-BA40-4ACB-8919-E7F12A452F2C}">
   <dimension ref="A1:H355"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L200" sqref="L200"/>
     </sheetView>
   </sheetViews>
@@ -3404,19 +4213,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="46"/>
       <c r="C1" s="13"/>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="43" t="s">
         <v>387</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="43" t="s">
         <v>537</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
@@ -3648,7 +4457,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="22"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="34" t="s">
         <v>538</v>
       </c>
     </row>
@@ -3663,7 +4472,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="22"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="34" t="s">
         <v>539</v>
       </c>
     </row>
@@ -3676,11 +4485,11 @@
         <v>17</v>
       </c>
       <c r="D17" s="20"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="42" t="s">
+      <c r="E17" s="29"/>
+      <c r="F17" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="G17" s="39"/>
+      <c r="G17" s="31"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -3693,7 +4502,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="22"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="34" t="s">
         <v>541</v>
       </c>
     </row>
@@ -3720,7 +4529,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="22"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="34" t="s">
         <v>542</v>
       </c>
     </row>
@@ -3735,7 +4544,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="22"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="34" t="s">
         <v>543</v>
       </c>
     </row>
@@ -3750,7 +4559,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="22"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="34" t="s">
         <v>544</v>
       </c>
     </row>
@@ -3765,7 +4574,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="22"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="42" t="s">
+      <c r="G23" s="34" t="s">
         <v>545</v>
       </c>
     </row>
@@ -3780,7 +4589,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="22"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="34" t="s">
         <v>546</v>
       </c>
     </row>
@@ -3795,7 +4604,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="22"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="42" t="s">
+      <c r="G25" s="34" t="s">
         <v>547</v>
       </c>
     </row>
@@ -3810,7 +4619,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="22"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="42" t="s">
+      <c r="G26" s="34" t="s">
         <v>548</v>
       </c>
     </row>
@@ -3825,7 +4634,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="22"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="34" t="s">
         <v>549</v>
       </c>
     </row>
@@ -3839,10 +4648,10 @@
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="42" t="s">
+      <c r="F28" s="34" t="s">
         <v>733</v>
       </c>
-      <c r="G28" s="40"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
@@ -3991,7 +4800,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="22"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="42" t="s">
+      <c r="G37" s="34" t="s">
         <v>550</v>
       </c>
     </row>
@@ -4006,7 +4815,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="22"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="42" t="s">
+      <c r="G38" s="34" t="s">
         <v>551</v>
       </c>
     </row>
@@ -4021,7 +4830,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="22"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="42" t="s">
+      <c r="G39" s="34" t="s">
         <v>552</v>
       </c>
     </row>
@@ -4036,7 +4845,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="22"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="42" t="s">
+      <c r="G40" s="34" t="s">
         <v>553</v>
       </c>
     </row>
@@ -4051,7 +4860,7 @@
       <c r="D41" s="3"/>
       <c r="E41" s="22"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="42" t="s">
+      <c r="G41" s="34" t="s">
         <v>554</v>
       </c>
     </row>
@@ -4066,7 +4875,7 @@
       <c r="D42" s="3"/>
       <c r="E42" s="22"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="34" t="s">
         <v>555</v>
       </c>
     </row>
@@ -4081,7 +4890,7 @@
       <c r="D43" s="3"/>
       <c r="E43" s="22"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="42" t="s">
+      <c r="G43" s="34" t="s">
         <v>556</v>
       </c>
     </row>
@@ -4096,7 +4905,7 @@
       <c r="D44" s="3"/>
       <c r="E44" s="22"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="42" t="s">
+      <c r="G44" s="34" t="s">
         <v>557</v>
       </c>
     </row>
@@ -4112,7 +4921,7 @@
         <v>407</v>
       </c>
       <c r="E45" s="10"/>
-      <c r="F45" s="44" t="s">
+      <c r="F45" s="36" t="s">
         <v>407</v>
       </c>
       <c r="G45" s="10"/>
@@ -4126,11 +4935,11 @@
         <v>49</v>
       </c>
       <c r="D46" s="20"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="42" t="s">
+      <c r="E46" s="29"/>
+      <c r="F46" s="34" t="s">
         <v>558</v>
       </c>
-      <c r="G46" s="39"/>
+      <c r="G46" s="31"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
@@ -4143,7 +4952,7 @@
       <c r="D47" s="3"/>
       <c r="E47" s="22"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="42" t="s">
+      <c r="G47" s="34" t="s">
         <v>560</v>
       </c>
     </row>
@@ -4158,7 +4967,7 @@
       <c r="D48" s="3"/>
       <c r="E48" s="22"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="42" t="s">
+      <c r="G48" s="34" t="s">
         <v>561</v>
       </c>
     </row>
@@ -4173,7 +4982,7 @@
       <c r="D49" s="3"/>
       <c r="E49" s="22"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="42" t="s">
+      <c r="G49" s="34" t="s">
         <v>562</v>
       </c>
     </row>
@@ -4188,7 +4997,7 @@
       <c r="D50" s="3"/>
       <c r="E50" s="22"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="42" t="s">
+      <c r="G50" s="34" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4203,7 +5012,7 @@
       <c r="D51" s="3"/>
       <c r="E51" s="22"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="42" t="s">
+      <c r="G51" s="34" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4218,7 +5027,7 @@
       <c r="D52" s="3"/>
       <c r="E52" s="22"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="42" t="s">
+      <c r="G52" s="34" t="s">
         <v>565</v>
       </c>
     </row>
@@ -4233,7 +5042,7 @@
       <c r="D53" s="3"/>
       <c r="E53" s="22"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="42" t="s">
+      <c r="G53" s="34" t="s">
         <v>566</v>
       </c>
     </row>
@@ -4248,7 +5057,7 @@
       <c r="D54" s="3"/>
       <c r="E54" s="22"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="42" t="s">
+      <c r="G54" s="34" t="s">
         <v>567</v>
       </c>
     </row>
@@ -4263,7 +5072,7 @@
       <c r="D55" s="3"/>
       <c r="E55" s="22"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="42" t="s">
+      <c r="G55" s="34" t="s">
         <v>568</v>
       </c>
     </row>
@@ -4278,7 +5087,7 @@
       <c r="D56" s="3"/>
       <c r="E56" s="22"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="42" t="s">
+      <c r="G56" s="34" t="s">
         <v>569</v>
       </c>
     </row>
@@ -4293,7 +5102,7 @@
       <c r="D57" s="3"/>
       <c r="E57" s="22"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="42" t="s">
+      <c r="G57" s="34" t="s">
         <v>570</v>
       </c>
     </row>
@@ -4308,7 +5117,7 @@
       <c r="D58" s="3"/>
       <c r="E58" s="22"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="42" t="s">
+      <c r="G58" s="34" t="s">
         <v>571</v>
       </c>
     </row>
@@ -4323,7 +5132,7 @@
       <c r="D59" s="3"/>
       <c r="E59" s="22"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="42" t="s">
+      <c r="G59" s="34" t="s">
         <v>572</v>
       </c>
     </row>
@@ -4338,7 +5147,7 @@
       <c r="D60" s="3"/>
       <c r="E60" s="22"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="42" t="s">
+      <c r="G60" s="34" t="s">
         <v>573</v>
       </c>
     </row>
@@ -4352,10 +5161,10 @@
       </c>
       <c r="D61" s="21"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="42" t="s">
+      <c r="F61" s="34" t="s">
         <v>559</v>
       </c>
-      <c r="G61" s="40"/>
+      <c r="G61" s="32"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
@@ -4523,7 +5332,7 @@
         <v>417</v>
       </c>
       <c r="F71" s="3"/>
-      <c r="G71" s="42" t="s">
+      <c r="G71" s="34" t="s">
         <v>574</v>
       </c>
     </row>
@@ -4538,7 +5347,7 @@
       <c r="D72" s="3"/>
       <c r="E72" s="22"/>
       <c r="F72" s="3"/>
-      <c r="G72" s="42" t="s">
+      <c r="G72" s="34" t="s">
         <v>575</v>
       </c>
     </row>
@@ -4553,7 +5362,7 @@
       <c r="D73" s="3"/>
       <c r="E73" s="22"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="42" t="s">
+      <c r="G73" s="34" t="s">
         <v>576</v>
       </c>
     </row>
@@ -4568,7 +5377,7 @@
       <c r="D74" s="3"/>
       <c r="E74" s="22"/>
       <c r="F74" s="3"/>
-      <c r="G74" s="42" t="s">
+      <c r="G74" s="34" t="s">
         <v>577</v>
       </c>
     </row>
@@ -4651,7 +5460,7 @@
       <c r="D79" s="3"/>
       <c r="E79" s="22"/>
       <c r="F79" s="3"/>
-      <c r="G79" s="42" t="s">
+      <c r="G79" s="34" t="s">
         <v>578</v>
       </c>
     </row>
@@ -5006,7 +5815,7 @@
       <c r="D100" s="3"/>
       <c r="E100" s="22"/>
       <c r="F100" s="3"/>
-      <c r="G100" s="42" t="s">
+      <c r="G100" s="34" t="s">
         <v>579</v>
       </c>
     </row>
@@ -5038,7 +5847,7 @@
       <c r="D102" s="3"/>
       <c r="E102" s="22"/>
       <c r="F102" s="3"/>
-      <c r="G102" s="42" t="s">
+      <c r="G102" s="34" t="s">
         <v>580</v>
       </c>
     </row>
@@ -5302,7 +6111,7 @@
         <v>456</v>
       </c>
       <c r="F118" s="3"/>
-      <c r="G118" s="42" t="s">
+      <c r="G118" s="34" t="s">
         <v>581</v>
       </c>
     </row>
@@ -5623,7 +6432,7 @@
       <c r="D137" s="3"/>
       <c r="E137" s="22"/>
       <c r="F137" s="3"/>
-      <c r="G137" s="42" t="s">
+      <c r="G137" s="34" t="s">
         <v>582</v>
       </c>
     </row>
@@ -5638,7 +6447,7 @@
       <c r="D138" s="3"/>
       <c r="E138" s="22"/>
       <c r="F138" s="3"/>
-      <c r="G138" s="42" t="s">
+      <c r="G138" s="34" t="s">
         <v>583</v>
       </c>
     </row>
@@ -5653,7 +6462,7 @@
       <c r="D139" s="3"/>
       <c r="E139" s="22"/>
       <c r="F139" s="3"/>
-      <c r="G139" s="42" t="s">
+      <c r="G139" s="34" t="s">
         <v>584</v>
       </c>
     </row>
@@ -5668,7 +6477,7 @@
       <c r="D140" s="3"/>
       <c r="E140" s="22"/>
       <c r="F140" s="3"/>
-      <c r="G140" s="42" t="s">
+      <c r="G140" s="34" t="s">
         <v>585</v>
       </c>
     </row>
@@ -5683,7 +6492,7 @@
       <c r="D141" s="3"/>
       <c r="E141" s="22"/>
       <c r="F141" s="3"/>
-      <c r="G141" s="42" t="s">
+      <c r="G141" s="34" t="s">
         <v>586</v>
       </c>
     </row>
@@ -5698,7 +6507,7 @@
       <c r="D142" s="3"/>
       <c r="E142" s="22"/>
       <c r="F142" s="3"/>
-      <c r="G142" s="42" t="s">
+      <c r="G142" s="34" t="s">
         <v>587</v>
       </c>
     </row>
@@ -5713,7 +6522,7 @@
       <c r="D143" s="3"/>
       <c r="E143" s="22"/>
       <c r="F143" s="3"/>
-      <c r="G143" s="42" t="s">
+      <c r="G143" s="34" t="s">
         <v>588</v>
       </c>
     </row>
@@ -5728,7 +6537,7 @@
       <c r="D144" s="3"/>
       <c r="E144" s="22"/>
       <c r="F144" s="3"/>
-      <c r="G144" s="42" t="s">
+      <c r="G144" s="34" t="s">
         <v>589</v>
       </c>
     </row>
@@ -5743,7 +6552,7 @@
       <c r="D145" s="3"/>
       <c r="E145" s="22"/>
       <c r="F145" s="3"/>
-      <c r="G145" s="42" t="s">
+      <c r="G145" s="34" t="s">
         <v>590</v>
       </c>
     </row>
@@ -5758,7 +6567,7 @@
       <c r="D146" s="3"/>
       <c r="E146" s="22"/>
       <c r="F146" s="3"/>
-      <c r="G146" s="42" t="s">
+      <c r="G146" s="34" t="s">
         <v>591</v>
       </c>
     </row>
@@ -5773,7 +6582,7 @@
       <c r="D147" s="3"/>
       <c r="E147" s="22"/>
       <c r="F147" s="3"/>
-      <c r="G147" s="42" t="s">
+      <c r="G147" s="34" t="s">
         <v>592</v>
       </c>
     </row>
@@ -5788,7 +6597,7 @@
       <c r="D148" s="3"/>
       <c r="E148" s="22"/>
       <c r="F148" s="3"/>
-      <c r="G148" s="42" t="s">
+      <c r="G148" s="34" t="s">
         <v>593</v>
       </c>
     </row>
@@ -5803,7 +6612,7 @@
       <c r="D149" s="3"/>
       <c r="E149" s="22"/>
       <c r="F149" s="3"/>
-      <c r="G149" s="42" t="s">
+      <c r="G149" s="34" t="s">
         <v>594</v>
       </c>
     </row>
@@ -5818,7 +6627,7 @@
       <c r="D150" s="3"/>
       <c r="E150" s="22"/>
       <c r="F150" s="3"/>
-      <c r="G150" s="42" t="s">
+      <c r="G150" s="34" t="s">
         <v>595</v>
       </c>
     </row>
@@ -5833,7 +6642,7 @@
       <c r="D151" s="3"/>
       <c r="E151" s="22"/>
       <c r="F151" s="3"/>
-      <c r="G151" s="42" t="s">
+      <c r="G151" s="34" t="s">
         <v>596</v>
       </c>
     </row>
@@ -5848,7 +6657,7 @@
       <c r="D152" s="3"/>
       <c r="E152" s="22"/>
       <c r="F152" s="3"/>
-      <c r="G152" s="42" t="s">
+      <c r="G152" s="34" t="s">
         <v>597</v>
       </c>
     </row>
@@ -5863,7 +6672,7 @@
       <c r="D153" s="3"/>
       <c r="E153" s="22"/>
       <c r="F153" s="3"/>
-      <c r="G153" s="42" t="s">
+      <c r="G153" s="34" t="s">
         <v>598</v>
       </c>
     </row>
@@ -5878,7 +6687,7 @@
       <c r="D154" s="3"/>
       <c r="E154" s="22"/>
       <c r="F154" s="3"/>
-      <c r="G154" s="42" t="s">
+      <c r="G154" s="34" t="s">
         <v>599</v>
       </c>
     </row>
@@ -5893,7 +6702,7 @@
       <c r="D155" s="3"/>
       <c r="E155" s="22"/>
       <c r="F155" s="3"/>
-      <c r="G155" s="42" t="s">
+      <c r="G155" s="34" t="s">
         <v>600</v>
       </c>
     </row>
@@ -5908,7 +6717,7 @@
       <c r="D156" s="3"/>
       <c r="E156" s="22"/>
       <c r="F156" s="3"/>
-      <c r="G156" s="42" t="s">
+      <c r="G156" s="34" t="s">
         <v>601</v>
       </c>
     </row>
@@ -5923,7 +6732,7 @@
       <c r="D157" s="3"/>
       <c r="E157" s="22"/>
       <c r="F157" s="3"/>
-      <c r="G157" s="42" t="s">
+      <c r="G157" s="34" t="s">
         <v>602</v>
       </c>
     </row>
@@ -5938,7 +6747,7 @@
       <c r="D158" s="3"/>
       <c r="E158" s="22"/>
       <c r="F158" s="3"/>
-      <c r="G158" s="42" t="s">
+      <c r="G158" s="34" t="s">
         <v>603</v>
       </c>
     </row>
@@ -5953,7 +6762,7 @@
       <c r="D159" s="3"/>
       <c r="E159" s="22"/>
       <c r="F159" s="3"/>
-      <c r="G159" s="42" t="s">
+      <c r="G159" s="34" t="s">
         <v>604</v>
       </c>
     </row>
@@ -5968,7 +6777,7 @@
       <c r="D160" s="3"/>
       <c r="E160" s="22"/>
       <c r="F160" s="3"/>
-      <c r="G160" s="42" t="s">
+      <c r="G160" s="34" t="s">
         <v>605</v>
       </c>
     </row>
@@ -5983,7 +6792,7 @@
       <c r="D161" s="3"/>
       <c r="E161" s="22"/>
       <c r="F161" s="3"/>
-      <c r="G161" s="42" t="s">
+      <c r="G161" s="34" t="s">
         <v>606</v>
       </c>
     </row>
@@ -5998,7 +6807,7 @@
       <c r="D162" s="3"/>
       <c r="E162" s="22"/>
       <c r="F162" s="3"/>
-      <c r="G162" s="42" t="s">
+      <c r="G162" s="34" t="s">
         <v>607</v>
       </c>
     </row>
@@ -6013,7 +6822,7 @@
       <c r="D163" s="3"/>
       <c r="E163" s="22"/>
       <c r="F163" s="3"/>
-      <c r="G163" s="42" t="s">
+      <c r="G163" s="34" t="s">
         <v>608</v>
       </c>
     </row>
@@ -6028,7 +6837,7 @@
       <c r="D164" s="3"/>
       <c r="E164" s="22"/>
       <c r="F164" s="3"/>
-      <c r="G164" s="42" t="s">
+      <c r="G164" s="34" t="s">
         <v>609</v>
       </c>
     </row>
@@ -6043,7 +6852,7 @@
       <c r="D165" s="3"/>
       <c r="E165" s="22"/>
       <c r="F165" s="3"/>
-      <c r="G165" s="42" t="s">
+      <c r="G165" s="34" t="s">
         <v>610</v>
       </c>
     </row>
@@ -6058,7 +6867,7 @@
       <c r="D166" s="3"/>
       <c r="E166" s="22"/>
       <c r="F166" s="3"/>
-      <c r="G166" s="42" t="s">
+      <c r="G166" s="34" t="s">
         <v>611</v>
       </c>
     </row>
@@ -6073,7 +6882,7 @@
       <c r="D167" s="3"/>
       <c r="E167" s="22"/>
       <c r="F167" s="3"/>
-      <c r="G167" s="42" t="s">
+      <c r="G167" s="34" t="s">
         <v>612</v>
       </c>
     </row>
@@ -6088,7 +6897,7 @@
       <c r="D168" s="3"/>
       <c r="E168" s="22"/>
       <c r="F168" s="3"/>
-      <c r="G168" s="42" t="s">
+      <c r="G168" s="34" t="s">
         <v>613</v>
       </c>
     </row>
@@ -6103,7 +6912,7 @@
       <c r="D169" s="3"/>
       <c r="E169" s="22"/>
       <c r="F169" s="3"/>
-      <c r="G169" s="42" t="s">
+      <c r="G169" s="34" t="s">
         <v>614</v>
       </c>
     </row>
@@ -6118,7 +6927,7 @@
       <c r="D170" s="3"/>
       <c r="E170" s="22"/>
       <c r="F170" s="3"/>
-      <c r="G170" s="42" t="s">
+      <c r="G170" s="34" t="s">
         <v>615</v>
       </c>
     </row>
@@ -6133,7 +6942,7 @@
       <c r="D171" s="3"/>
       <c r="E171" s="22"/>
       <c r="F171" s="3"/>
-      <c r="G171" s="42" t="s">
+      <c r="G171" s="34" t="s">
         <v>616</v>
       </c>
     </row>
@@ -6148,7 +6957,7 @@
       <c r="D172" s="3"/>
       <c r="E172" s="22"/>
       <c r="F172" s="3"/>
-      <c r="G172" s="42" t="s">
+      <c r="G172" s="34" t="s">
         <v>617</v>
       </c>
     </row>
@@ -6163,7 +6972,7 @@
       <c r="D173" s="3"/>
       <c r="E173" s="22"/>
       <c r="F173" s="3"/>
-      <c r="G173" s="42" t="s">
+      <c r="G173" s="34" t="s">
         <v>618</v>
       </c>
     </row>
@@ -6178,7 +6987,7 @@
       <c r="D174" s="3"/>
       <c r="E174" s="22"/>
       <c r="F174" s="3"/>
-      <c r="G174" s="42" t="s">
+      <c r="G174" s="34" t="s">
         <v>619</v>
       </c>
     </row>
@@ -6193,7 +7002,7 @@
       <c r="D175" s="3"/>
       <c r="E175" s="22"/>
       <c r="F175" s="3"/>
-      <c r="G175" s="42" t="s">
+      <c r="G175" s="34" t="s">
         <v>620</v>
       </c>
     </row>
@@ -6208,7 +7017,7 @@
       <c r="D176" s="3"/>
       <c r="E176" s="22"/>
       <c r="F176" s="3"/>
-      <c r="G176" s="42" t="s">
+      <c r="G176" s="34" t="s">
         <v>621</v>
       </c>
     </row>
@@ -6223,7 +7032,7 @@
       <c r="D177" s="3"/>
       <c r="E177" s="22"/>
       <c r="F177" s="3"/>
-      <c r="G177" s="42" t="s">
+      <c r="G177" s="34" t="s">
         <v>622</v>
       </c>
     </row>
@@ -6238,7 +7047,7 @@
       <c r="D178" s="3"/>
       <c r="E178" s="22"/>
       <c r="F178" s="3"/>
-      <c r="G178" s="42" t="s">
+      <c r="G178" s="34" t="s">
         <v>623</v>
       </c>
     </row>
@@ -6253,7 +7062,7 @@
       <c r="D179" s="3"/>
       <c r="E179" s="22"/>
       <c r="F179" s="3"/>
-      <c r="G179" s="42" t="s">
+      <c r="G179" s="34" t="s">
         <v>624</v>
       </c>
     </row>
@@ -6268,7 +7077,7 @@
       <c r="D180" s="3"/>
       <c r="E180" s="22"/>
       <c r="F180" s="3"/>
-      <c r="G180" s="42" t="s">
+      <c r="G180" s="34" t="s">
         <v>625</v>
       </c>
     </row>
@@ -6283,7 +7092,7 @@
       <c r="D181" s="3"/>
       <c r="E181" s="22"/>
       <c r="F181" s="3"/>
-      <c r="G181" s="42" t="s">
+      <c r="G181" s="34" t="s">
         <v>626</v>
       </c>
     </row>
@@ -6298,7 +7107,7 @@
       <c r="D182" s="3"/>
       <c r="E182" s="22"/>
       <c r="F182" s="3"/>
-      <c r="G182" s="42" t="s">
+      <c r="G182" s="34" t="s">
         <v>627</v>
       </c>
     </row>
@@ -6313,7 +7122,7 @@
       <c r="D183" s="3"/>
       <c r="E183" s="22"/>
       <c r="F183" s="3"/>
-      <c r="G183" s="42" t="s">
+      <c r="G183" s="34" t="s">
         <v>628</v>
       </c>
     </row>
@@ -6464,7 +7273,7 @@
       <c r="D192" s="3"/>
       <c r="E192" s="22"/>
       <c r="F192" s="3"/>
-      <c r="G192" s="42" t="s">
+      <c r="G192" s="34" t="s">
         <v>629</v>
       </c>
     </row>
@@ -6479,7 +7288,7 @@
       <c r="D193" s="3"/>
       <c r="E193" s="22"/>
       <c r="F193" s="3"/>
-      <c r="G193" s="42" t="s">
+      <c r="G193" s="34" t="s">
         <v>630</v>
       </c>
     </row>
@@ -6493,10 +7302,10 @@
       </c>
       <c r="D194" s="21"/>
       <c r="E194" s="3"/>
-      <c r="F194" s="43" t="s">
+      <c r="F194" s="35" t="s">
         <v>631</v>
       </c>
-      <c r="G194" s="40"/>
+      <c r="G194" s="32"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="16" t="s">
@@ -6730,11 +7539,11 @@
         <v>216</v>
       </c>
       <c r="D210" s="20"/>
-      <c r="E210" s="37"/>
-      <c r="F210" s="42" t="s">
+      <c r="E210" s="29"/>
+      <c r="F210" s="34" t="s">
         <v>632</v>
       </c>
-      <c r="G210" s="39"/>
+      <c r="G210" s="31"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
@@ -6747,7 +7556,7 @@
       <c r="D211" s="3"/>
       <c r="E211" s="22"/>
       <c r="F211" s="3"/>
-      <c r="G211" s="42" t="s">
+      <c r="G211" s="34" t="s">
         <v>633</v>
       </c>
     </row>
@@ -6762,7 +7571,7 @@
       <c r="D212" s="3"/>
       <c r="E212" s="22"/>
       <c r="F212" s="3"/>
-      <c r="G212" s="42" t="s">
+      <c r="G212" s="34" t="s">
         <v>634</v>
       </c>
     </row>
@@ -6777,7 +7586,7 @@
       <c r="D213" s="3"/>
       <c r="E213" s="22"/>
       <c r="F213" s="3"/>
-      <c r="G213" s="42" t="s">
+      <c r="G213" s="34" t="s">
         <v>635</v>
       </c>
     </row>
@@ -6792,7 +7601,7 @@
       <c r="D214" s="3"/>
       <c r="E214" s="22"/>
       <c r="F214" s="3"/>
-      <c r="G214" s="42" t="s">
+      <c r="G214" s="34" t="s">
         <v>636</v>
       </c>
     </row>
@@ -6807,7 +7616,7 @@
       <c r="D215" s="3"/>
       <c r="E215" s="22"/>
       <c r="F215" s="3"/>
-      <c r="G215" s="42" t="s">
+      <c r="G215" s="34" t="s">
         <v>637</v>
       </c>
     </row>
@@ -6822,7 +7631,7 @@
       <c r="D216" s="3"/>
       <c r="E216" s="22"/>
       <c r="F216" s="3"/>
-      <c r="G216" s="42" t="s">
+      <c r="G216" s="34" t="s">
         <v>638</v>
       </c>
     </row>
@@ -6837,7 +7646,7 @@
       <c r="D217" s="3"/>
       <c r="E217" s="22"/>
       <c r="F217" s="3"/>
-      <c r="G217" s="42" t="s">
+      <c r="G217" s="34" t="s">
         <v>639</v>
       </c>
     </row>
@@ -6851,10 +7660,10 @@
       </c>
       <c r="D218" s="21"/>
       <c r="E218" s="3"/>
-      <c r="F218" s="43" t="s">
+      <c r="F218" s="35" t="s">
         <v>640</v>
       </c>
-      <c r="G218" s="40"/>
+      <c r="G218" s="32"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="16" t="s">
@@ -6865,11 +7674,11 @@
         <v>219</v>
       </c>
       <c r="D219" s="20"/>
-      <c r="E219" s="37"/>
-      <c r="F219" s="42" t="s">
+      <c r="E219" s="29"/>
+      <c r="F219" s="34" t="s">
         <v>476</v>
       </c>
-      <c r="G219" s="39"/>
+      <c r="G219" s="31"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
@@ -6882,7 +7691,7 @@
       <c r="D220" s="3"/>
       <c r="E220" s="22"/>
       <c r="F220" s="3"/>
-      <c r="G220" s="42" t="s">
+      <c r="G220" s="34" t="s">
         <v>641</v>
       </c>
     </row>
@@ -6897,7 +7706,7 @@
       <c r="D221" s="3"/>
       <c r="E221" s="22"/>
       <c r="F221" s="3"/>
-      <c r="G221" s="42" t="s">
+      <c r="G221" s="34" t="s">
         <v>642</v>
       </c>
     </row>
@@ -6912,7 +7721,7 @@
       <c r="D222" s="3"/>
       <c r="E222" s="22"/>
       <c r="F222" s="3"/>
-      <c r="G222" s="42" t="s">
+      <c r="G222" s="34" t="s">
         <v>643</v>
       </c>
     </row>
@@ -6927,7 +7736,7 @@
       <c r="D223" s="3"/>
       <c r="E223" s="22"/>
       <c r="F223" s="3"/>
-      <c r="G223" s="42" t="s">
+      <c r="G223" s="34" t="s">
         <v>644</v>
       </c>
     </row>
@@ -6942,7 +7751,7 @@
       <c r="D224" s="3"/>
       <c r="E224" s="22"/>
       <c r="F224" s="3"/>
-      <c r="G224" s="42" t="s">
+      <c r="G224" s="34" t="s">
         <v>645</v>
       </c>
     </row>
@@ -6957,7 +7766,7 @@
       <c r="D225" s="3"/>
       <c r="E225" s="22"/>
       <c r="F225" s="3"/>
-      <c r="G225" s="42" t="s">
+      <c r="G225" s="34" t="s">
         <v>646</v>
       </c>
     </row>
@@ -6972,7 +7781,7 @@
       <c r="D226" s="3"/>
       <c r="E226" s="22"/>
       <c r="F226" s="3"/>
-      <c r="G226" s="42" t="s">
+      <c r="G226" s="34" t="s">
         <v>647</v>
       </c>
     </row>
@@ -6987,7 +7796,7 @@
       <c r="D227" s="3"/>
       <c r="E227" s="22"/>
       <c r="F227" s="3"/>
-      <c r="G227" s="42" t="s">
+      <c r="G227" s="34" t="s">
         <v>648</v>
       </c>
     </row>
@@ -7001,10 +7810,10 @@
       </c>
       <c r="D228" s="21"/>
       <c r="E228" s="3"/>
-      <c r="F228" s="43" t="s">
+      <c r="F228" s="35" t="s">
         <v>649</v>
       </c>
-      <c r="G228" s="40"/>
+      <c r="G228" s="32"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="16" t="s">
@@ -7015,11 +7824,11 @@
         <v>240</v>
       </c>
       <c r="D229" s="20"/>
-      <c r="E229" s="37"/>
-      <c r="F229" s="42" t="s">
+      <c r="E229" s="29"/>
+      <c r="F229" s="34" t="s">
         <v>650</v>
       </c>
-      <c r="G229" s="39"/>
+      <c r="G229" s="31"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
@@ -7032,7 +7841,7 @@
       <c r="D230" s="3"/>
       <c r="E230" s="22"/>
       <c r="F230" s="3"/>
-      <c r="G230" s="42" t="s">
+      <c r="G230" s="34" t="s">
         <v>651</v>
       </c>
     </row>
@@ -7047,7 +7856,7 @@
       <c r="D231" s="3"/>
       <c r="E231" s="22"/>
       <c r="F231" s="3"/>
-      <c r="G231" s="42" t="s">
+      <c r="G231" s="34" t="s">
         <v>652</v>
       </c>
     </row>
@@ -7062,7 +7871,7 @@
       <c r="D232" s="3"/>
       <c r="E232" s="22"/>
       <c r="F232" s="3"/>
-      <c r="G232" s="42" t="s">
+      <c r="G232" s="34" t="s">
         <v>653</v>
       </c>
     </row>
@@ -7077,7 +7886,7 @@
       <c r="D233" s="3"/>
       <c r="E233" s="22"/>
       <c r="F233" s="3"/>
-      <c r="G233" s="42" t="s">
+      <c r="G233" s="34" t="s">
         <v>654</v>
       </c>
     </row>
@@ -7092,7 +7901,7 @@
       <c r="D234" s="3"/>
       <c r="E234" s="22"/>
       <c r="F234" s="3"/>
-      <c r="G234" s="42" t="s">
+      <c r="G234" s="34" t="s">
         <v>655</v>
       </c>
     </row>
@@ -7107,7 +7916,7 @@
       <c r="D235" s="3"/>
       <c r="E235" s="22"/>
       <c r="F235" s="3"/>
-      <c r="G235" s="42" t="s">
+      <c r="G235" s="34" t="s">
         <v>656</v>
       </c>
     </row>
@@ -7122,7 +7931,7 @@
       <c r="D236" s="3"/>
       <c r="E236" s="22"/>
       <c r="F236" s="3"/>
-      <c r="G236" s="42" t="s">
+      <c r="G236" s="34" t="s">
         <v>657</v>
       </c>
     </row>
@@ -7137,7 +7946,7 @@
       <c r="D237" s="3"/>
       <c r="E237" s="22"/>
       <c r="F237" s="3"/>
-      <c r="G237" s="42" t="s">
+      <c r="G237" s="34" t="s">
         <v>658</v>
       </c>
     </row>
@@ -7152,7 +7961,7 @@
       <c r="D238" s="3"/>
       <c r="E238" s="22"/>
       <c r="F238" s="3"/>
-      <c r="G238" s="42" t="s">
+      <c r="G238" s="34" t="s">
         <v>659</v>
       </c>
     </row>
@@ -7167,7 +7976,7 @@
       <c r="D239" s="3"/>
       <c r="E239" s="22"/>
       <c r="F239" s="3"/>
-      <c r="G239" s="42" t="s">
+      <c r="G239" s="34" t="s">
         <v>660</v>
       </c>
     </row>
@@ -7182,7 +7991,7 @@
       <c r="D240" s="3"/>
       <c r="E240" s="22"/>
       <c r="F240" s="3"/>
-      <c r="G240" s="42" t="s">
+      <c r="G240" s="34" t="s">
         <v>661</v>
       </c>
     </row>
@@ -7197,7 +8006,7 @@
       <c r="D241" s="3"/>
       <c r="E241" s="22"/>
       <c r="F241" s="3"/>
-      <c r="G241" s="42" t="s">
+      <c r="G241" s="34" t="s">
         <v>662</v>
       </c>
     </row>
@@ -7212,7 +8021,7 @@
       <c r="D242" s="3"/>
       <c r="E242" s="22"/>
       <c r="F242" s="3"/>
-      <c r="G242" s="42" t="s">
+      <c r="G242" s="34" t="s">
         <v>663</v>
       </c>
     </row>
@@ -7227,7 +8036,7 @@
       <c r="D243" s="3"/>
       <c r="E243" s="22"/>
       <c r="F243" s="3"/>
-      <c r="G243" s="42" t="s">
+      <c r="G243" s="34" t="s">
         <v>664</v>
       </c>
     </row>
@@ -7242,7 +8051,7 @@
       <c r="D244" s="3"/>
       <c r="E244" s="22"/>
       <c r="F244" s="3"/>
-      <c r="G244" s="42" t="s">
+      <c r="G244" s="34" t="s">
         <v>665</v>
       </c>
     </row>
@@ -7257,7 +8066,7 @@
       <c r="D245" s="3"/>
       <c r="E245" s="22"/>
       <c r="F245" s="3"/>
-      <c r="G245" s="42" t="s">
+      <c r="G245" s="34" t="s">
         <v>666</v>
       </c>
     </row>
@@ -7272,7 +8081,7 @@
       <c r="D246" s="3"/>
       <c r="E246" s="22"/>
       <c r="F246" s="3"/>
-      <c r="G246" s="42" t="s">
+      <c r="G246" s="34" t="s">
         <v>667</v>
       </c>
     </row>
@@ -7287,7 +8096,7 @@
       <c r="D247" s="3"/>
       <c r="E247" s="22"/>
       <c r="F247" s="3"/>
-      <c r="G247" s="42" t="s">
+      <c r="G247" s="34" t="s">
         <v>668</v>
       </c>
     </row>
@@ -7302,7 +8111,7 @@
       <c r="D248" s="3"/>
       <c r="E248" s="22"/>
       <c r="F248" s="3"/>
-      <c r="G248" s="42" t="s">
+      <c r="G248" s="34" t="s">
         <v>669</v>
       </c>
     </row>
@@ -7317,7 +8126,7 @@
       <c r="D249" s="3"/>
       <c r="E249" s="22"/>
       <c r="F249" s="3"/>
-      <c r="G249" s="42" t="s">
+      <c r="G249" s="34" t="s">
         <v>670</v>
       </c>
     </row>
@@ -7332,7 +8141,7 @@
       <c r="D250" s="3"/>
       <c r="E250" s="22"/>
       <c r="F250" s="3"/>
-      <c r="G250" s="42" t="s">
+      <c r="G250" s="34" t="s">
         <v>671</v>
       </c>
     </row>
@@ -7347,7 +8156,7 @@
       <c r="D251" s="3"/>
       <c r="E251" s="22"/>
       <c r="F251" s="3"/>
-      <c r="G251" s="42" t="s">
+      <c r="G251" s="34" t="s">
         <v>672</v>
       </c>
     </row>
@@ -7362,7 +8171,7 @@
       <c r="D252" s="3"/>
       <c r="E252" s="22"/>
       <c r="F252" s="3"/>
-      <c r="G252" s="42" t="s">
+      <c r="G252" s="34" t="s">
         <v>673</v>
       </c>
     </row>
@@ -7377,7 +8186,7 @@
       <c r="D253" s="3"/>
       <c r="E253" s="22"/>
       <c r="F253" s="3"/>
-      <c r="G253" s="42" t="s">
+      <c r="G253" s="34" t="s">
         <v>674</v>
       </c>
     </row>
@@ -7392,7 +8201,7 @@
       <c r="D254" s="3"/>
       <c r="E254" s="22"/>
       <c r="F254" s="3"/>
-      <c r="G254" s="42" t="s">
+      <c r="G254" s="34" t="s">
         <v>675</v>
       </c>
     </row>
@@ -7407,7 +8216,7 @@
       <c r="D255" s="3"/>
       <c r="E255" s="22"/>
       <c r="F255" s="3"/>
-      <c r="G255" s="42" t="s">
+      <c r="G255" s="34" t="s">
         <v>676</v>
       </c>
     </row>
@@ -7422,7 +8231,7 @@
       <c r="D256" s="3"/>
       <c r="E256" s="22"/>
       <c r="F256" s="3"/>
-      <c r="G256" s="42" t="s">
+      <c r="G256" s="34" t="s">
         <v>677</v>
       </c>
     </row>
@@ -7437,7 +8246,7 @@
       <c r="D257" s="3"/>
       <c r="E257" s="22"/>
       <c r="F257" s="3"/>
-      <c r="G257" s="42" t="s">
+      <c r="G257" s="34" t="s">
         <v>678</v>
       </c>
     </row>
@@ -7451,10 +8260,10 @@
       </c>
       <c r="D258" s="21"/>
       <c r="E258" s="3"/>
-      <c r="F258" s="43" t="s">
+      <c r="F258" s="35" t="s">
         <v>679</v>
       </c>
-      <c r="G258" s="40"/>
+      <c r="G258" s="32"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="16" t="s">
@@ -7465,11 +8274,11 @@
         <v>273</v>
       </c>
       <c r="D259" s="20"/>
-      <c r="E259" s="37"/>
-      <c r="F259" s="42" t="s">
+      <c r="E259" s="29"/>
+      <c r="F259" s="34" t="s">
         <v>680</v>
       </c>
-      <c r="G259" s="39"/>
+      <c r="G259" s="31"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
@@ -7482,7 +8291,7 @@
       <c r="D260" s="3"/>
       <c r="E260" s="22"/>
       <c r="F260" s="3"/>
-      <c r="G260" s="42" t="s">
+      <c r="G260" s="34" t="s">
         <v>681</v>
       </c>
     </row>
@@ -7497,7 +8306,7 @@
       <c r="D261" s="3"/>
       <c r="E261" s="22"/>
       <c r="F261" s="3"/>
-      <c r="G261" s="42" t="s">
+      <c r="G261" s="34" t="s">
         <v>682</v>
       </c>
     </row>
@@ -7512,7 +8321,7 @@
       <c r="D262" s="3"/>
       <c r="E262" s="22"/>
       <c r="F262" s="3"/>
-      <c r="G262" s="42" t="s">
+      <c r="G262" s="34" t="s">
         <v>683</v>
       </c>
     </row>
@@ -7526,10 +8335,10 @@
       </c>
       <c r="D263" s="21"/>
       <c r="E263" s="3"/>
-      <c r="F263" s="43" t="s">
+      <c r="F263" s="35" t="s">
         <v>684</v>
       </c>
-      <c r="G263" s="40"/>
+      <c r="G263" s="32"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="16" t="s">
@@ -7540,11 +8349,11 @@
         <v>279</v>
       </c>
       <c r="D264" s="20"/>
-      <c r="E264" s="37"/>
-      <c r="F264" s="42" t="s">
+      <c r="E264" s="29"/>
+      <c r="F264" s="34" t="s">
         <v>685</v>
       </c>
-      <c r="G264" s="39"/>
+      <c r="G264" s="31"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
@@ -7557,7 +8366,7 @@
       <c r="D265" s="3"/>
       <c r="E265" s="22"/>
       <c r="F265" s="3"/>
-      <c r="G265" s="42" t="s">
+      <c r="G265" s="34" t="s">
         <v>686</v>
       </c>
     </row>
@@ -7572,7 +8381,7 @@
       <c r="D266" s="3"/>
       <c r="E266" s="22"/>
       <c r="F266" s="3"/>
-      <c r="G266" s="42" t="s">
+      <c r="G266" s="34" t="s">
         <v>687</v>
       </c>
     </row>
@@ -7587,7 +8396,7 @@
       <c r="D267" s="3"/>
       <c r="E267" s="22"/>
       <c r="F267" s="3"/>
-      <c r="G267" s="42" t="s">
+      <c r="G267" s="34" t="s">
         <v>688</v>
       </c>
     </row>
@@ -7601,10 +8410,10 @@
       </c>
       <c r="D268" s="21"/>
       <c r="E268" s="3"/>
-      <c r="F268" s="43" t="s">
+      <c r="F268" s="35" t="s">
         <v>689</v>
       </c>
-      <c r="G268" s="40"/>
+      <c r="G268" s="32"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="16" t="s">
@@ -7615,11 +8424,11 @@
         <v>286</v>
       </c>
       <c r="D269" s="20"/>
-      <c r="E269" s="37"/>
-      <c r="F269" s="42" t="s">
+      <c r="E269" s="29"/>
+      <c r="F269" s="34" t="s">
         <v>690</v>
       </c>
-      <c r="G269" s="39"/>
+      <c r="G269" s="31"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
@@ -7665,10 +8474,10 @@
       </c>
       <c r="D272" s="21"/>
       <c r="E272" s="3"/>
-      <c r="F272" s="42" t="s">
+      <c r="F272" s="34" t="s">
         <v>691</v>
       </c>
-      <c r="G272" s="40"/>
+      <c r="G272" s="32"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="16" t="s">
@@ -7987,7 +8796,7 @@
       <c r="D291" s="3"/>
       <c r="E291" s="25"/>
       <c r="F291" s="3"/>
-      <c r="G291" s="42" t="s">
+      <c r="G291" s="34" t="s">
         <v>692</v>
       </c>
     </row>
@@ -8002,7 +8811,7 @@
       <c r="D292" s="3"/>
       <c r="E292" s="22"/>
       <c r="F292" s="3"/>
-      <c r="G292" s="42" t="s">
+      <c r="G292" s="34" t="s">
         <v>693</v>
       </c>
     </row>
@@ -8017,7 +8826,7 @@
       <c r="D293" s="3"/>
       <c r="E293" s="22"/>
       <c r="F293" s="3"/>
-      <c r="G293" s="42" t="s">
+      <c r="G293" s="34" t="s">
         <v>694</v>
       </c>
     </row>
@@ -8270,7 +9079,7 @@
       <c r="D308" s="3"/>
       <c r="E308" s="22"/>
       <c r="F308" s="3"/>
-      <c r="G308" s="42" t="s">
+      <c r="G308" s="34" t="s">
         <v>695</v>
       </c>
     </row>
@@ -8285,7 +9094,7 @@
       <c r="D309" s="3"/>
       <c r="E309" s="22"/>
       <c r="F309" s="3"/>
-      <c r="G309" s="42" t="s">
+      <c r="G309" s="34" t="s">
         <v>696</v>
       </c>
     </row>
@@ -8300,7 +9109,7 @@
       <c r="D310" s="3"/>
       <c r="E310" s="22"/>
       <c r="F310" s="3"/>
-      <c r="G310" s="42" t="s">
+      <c r="G310" s="34" t="s">
         <v>697</v>
       </c>
     </row>
@@ -8315,7 +9124,7 @@
       <c r="D311" s="3"/>
       <c r="E311" s="22"/>
       <c r="F311" s="3"/>
-      <c r="G311" s="42" t="s">
+      <c r="G311" s="34" t="s">
         <v>698</v>
       </c>
     </row>
@@ -8330,7 +9139,7 @@
       <c r="D312" s="3"/>
       <c r="E312" s="22"/>
       <c r="F312" s="3"/>
-      <c r="G312" s="42" t="s">
+      <c r="G312" s="34" t="s">
         <v>699</v>
       </c>
     </row>
@@ -8345,7 +9154,7 @@
       <c r="D313" s="3"/>
       <c r="E313" s="22"/>
       <c r="F313" s="3"/>
-      <c r="G313" s="42" t="s">
+      <c r="G313" s="34" t="s">
         <v>700</v>
       </c>
     </row>
@@ -8360,7 +9169,7 @@
       <c r="D314" s="3"/>
       <c r="E314" s="22"/>
       <c r="F314" s="3"/>
-      <c r="G314" s="42" t="s">
+      <c r="G314" s="34" t="s">
         <v>701</v>
       </c>
     </row>
@@ -8375,7 +9184,7 @@
       <c r="D315" s="3"/>
       <c r="E315" s="22"/>
       <c r="F315" s="3"/>
-      <c r="G315" s="42" t="s">
+      <c r="G315" s="34" t="s">
         <v>702</v>
       </c>
     </row>
@@ -8390,7 +9199,7 @@
       <c r="D316" s="3"/>
       <c r="E316" s="22"/>
       <c r="F316" s="3"/>
-      <c r="G316" s="42" t="s">
+      <c r="G316" s="34" t="s">
         <v>703</v>
       </c>
     </row>
@@ -8405,7 +9214,7 @@
       <c r="D317" s="3"/>
       <c r="E317" s="22"/>
       <c r="F317" s="3"/>
-      <c r="G317" s="42" t="s">
+      <c r="G317" s="34" t="s">
         <v>704</v>
       </c>
     </row>
@@ -8420,7 +9229,7 @@
       <c r="D318" s="3"/>
       <c r="E318" s="22"/>
       <c r="F318" s="3"/>
-      <c r="G318" s="42" t="s">
+      <c r="G318" s="34" t="s">
         <v>705</v>
       </c>
     </row>
@@ -8435,7 +9244,7 @@
       <c r="D319" s="3"/>
       <c r="E319" s="22"/>
       <c r="F319" s="3"/>
-      <c r="G319" s="42" t="s">
+      <c r="G319" s="34" t="s">
         <v>706</v>
       </c>
     </row>
@@ -8450,7 +9259,7 @@
       <c r="D320" s="3"/>
       <c r="E320" s="22"/>
       <c r="F320" s="3"/>
-      <c r="G320" s="42" t="s">
+      <c r="G320" s="34" t="s">
         <v>707</v>
       </c>
     </row>
@@ -8465,7 +9274,7 @@
       <c r="D321" s="3"/>
       <c r="E321" s="22"/>
       <c r="F321" s="3"/>
-      <c r="G321" s="42" t="s">
+      <c r="G321" s="34" t="s">
         <v>708</v>
       </c>
     </row>
@@ -8480,7 +9289,7 @@
       <c r="D322" s="3"/>
       <c r="E322" s="22"/>
       <c r="F322" s="3"/>
-      <c r="G322" s="42" t="s">
+      <c r="G322" s="34" t="s">
         <v>709</v>
       </c>
     </row>
@@ -8495,7 +9304,7 @@
       <c r="D323" s="3"/>
       <c r="E323" s="22"/>
       <c r="F323" s="3"/>
-      <c r="G323" s="42" t="s">
+      <c r="G323" s="34" t="s">
         <v>710</v>
       </c>
     </row>
@@ -8510,7 +9319,7 @@
       <c r="D324" s="3"/>
       <c r="E324" s="22"/>
       <c r="F324" s="3"/>
-      <c r="G324" s="42" t="s">
+      <c r="G324" s="34" t="s">
         <v>711</v>
       </c>
     </row>
@@ -8576,7 +9385,7 @@
       <c r="D328" s="3"/>
       <c r="E328" s="22"/>
       <c r="F328" s="3"/>
-      <c r="G328" s="42" t="s">
+      <c r="G328" s="34" t="s">
         <v>712</v>
       </c>
     </row>
@@ -8609,7 +9418,7 @@
         <v>533</v>
       </c>
       <c r="E330" s="10"/>
-      <c r="F330" s="44" t="s">
+      <c r="F330" s="36" t="s">
         <v>533</v>
       </c>
       <c r="G330" s="10"/>
@@ -8623,11 +9432,11 @@
         <v>354</v>
       </c>
       <c r="D331" s="20"/>
-      <c r="E331" s="37"/>
-      <c r="F331" s="42" t="s">
+      <c r="E331" s="29"/>
+      <c r="F331" s="34" t="s">
         <v>713</v>
       </c>
-      <c r="G331" s="39"/>
+      <c r="G331" s="31"/>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
@@ -8640,7 +9449,7 @@
       <c r="D332" s="3"/>
       <c r="E332" s="22"/>
       <c r="F332" s="3"/>
-      <c r="G332" s="42" t="s">
+      <c r="G332" s="34" t="s">
         <v>714</v>
       </c>
     </row>
@@ -8655,7 +9464,7 @@
       <c r="D333" s="3"/>
       <c r="E333" s="22"/>
       <c r="F333" s="3"/>
-      <c r="G333" s="42" t="s">
+      <c r="G333" s="34" t="s">
         <v>715</v>
       </c>
     </row>
@@ -8670,7 +9479,7 @@
       <c r="D334" s="3"/>
       <c r="E334" s="22"/>
       <c r="F334" s="3"/>
-      <c r="G334" s="42" t="s">
+      <c r="G334" s="34" t="s">
         <v>716</v>
       </c>
     </row>
@@ -8685,7 +9494,7 @@
       <c r="D335" s="3"/>
       <c r="E335" s="22"/>
       <c r="F335" s="3"/>
-      <c r="G335" s="42" t="s">
+      <c r="G335" s="34" t="s">
         <v>717</v>
       </c>
     </row>
@@ -8700,7 +9509,7 @@
       <c r="D336" s="3"/>
       <c r="E336" s="22"/>
       <c r="F336" s="3"/>
-      <c r="G336" s="42" t="s">
+      <c r="G336" s="34" t="s">
         <v>718</v>
       </c>
     </row>
@@ -8715,7 +9524,7 @@
       <c r="D337" s="3"/>
       <c r="E337" s="22"/>
       <c r="F337" s="3"/>
-      <c r="G337" s="42" t="s">
+      <c r="G337" s="34" t="s">
         <v>719</v>
       </c>
     </row>
@@ -8729,10 +9538,10 @@
       </c>
       <c r="D338" s="21"/>
       <c r="E338" s="3"/>
-      <c r="F338" s="43" t="s">
+      <c r="F338" s="35" t="s">
         <v>720</v>
       </c>
-      <c r="G338" s="40"/>
+      <c r="G338" s="32"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="16" t="s">
@@ -8743,11 +9552,11 @@
         <v>363</v>
       </c>
       <c r="D339" s="20"/>
-      <c r="E339" s="37"/>
-      <c r="F339" s="42" t="s">
+      <c r="E339" s="29"/>
+      <c r="F339" s="34" t="s">
         <v>721</v>
       </c>
-      <c r="G339" s="39"/>
+      <c r="G339" s="31"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
@@ -8760,7 +9569,7 @@
       <c r="D340" s="3"/>
       <c r="E340" s="22"/>
       <c r="F340" s="3"/>
-      <c r="G340" s="42" t="s">
+      <c r="G340" s="34" t="s">
         <v>722</v>
       </c>
     </row>
@@ -8774,10 +9583,10 @@
       </c>
       <c r="D341" s="21"/>
       <c r="E341" s="3"/>
-      <c r="F341" s="42" t="s">
+      <c r="F341" s="34" t="s">
         <v>723</v>
       </c>
-      <c r="G341" s="40"/>
+      <c r="G341" s="32"/>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="16" t="s">
@@ -8824,7 +9633,7 @@
       <c r="D344" s="3"/>
       <c r="E344" s="22"/>
       <c r="F344" s="3"/>
-      <c r="G344" s="42" t="s">
+      <c r="G344" s="34" t="s">
         <v>724</v>
       </c>
     </row>
@@ -8839,7 +9648,7 @@
       <c r="D345" s="3"/>
       <c r="E345" s="22"/>
       <c r="F345" s="3"/>
-      <c r="G345" s="42" t="s">
+      <c r="G345" s="34" t="s">
         <v>725</v>
       </c>
     </row>
@@ -8895,11 +9704,11 @@
         <v>377</v>
       </c>
       <c r="D349" s="20"/>
-      <c r="E349" s="37"/>
-      <c r="F349" s="42" t="s">
+      <c r="E349" s="29"/>
+      <c r="F349" s="34" t="s">
         <v>726</v>
       </c>
-      <c r="G349" s="39"/>
+      <c r="G349" s="31"/>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
@@ -8912,7 +9721,7 @@
       <c r="D350" s="3"/>
       <c r="E350" s="22"/>
       <c r="F350" s="3"/>
-      <c r="G350" s="42" t="s">
+      <c r="G350" s="34" t="s">
         <v>727</v>
       </c>
     </row>
@@ -8927,7 +9736,7 @@
       <c r="D351" s="3"/>
       <c r="E351" s="22"/>
       <c r="F351" s="3"/>
-      <c r="G351" s="42" t="s">
+      <c r="G351" s="34" t="s">
         <v>728</v>
       </c>
     </row>
@@ -8942,7 +9751,7 @@
       <c r="D352" s="3"/>
       <c r="E352" s="22"/>
       <c r="F352" s="3"/>
-      <c r="G352" s="42" t="s">
+      <c r="G352" s="34" t="s">
         <v>729</v>
       </c>
     </row>
@@ -8957,7 +9766,7 @@
       <c r="D353" s="3"/>
       <c r="E353" s="22"/>
       <c r="F353" s="3"/>
-      <c r="G353" s="42" t="s">
+      <c r="G353" s="34" t="s">
         <v>730</v>
       </c>
     </row>
@@ -8972,7 +9781,7 @@
       <c r="D354" s="3"/>
       <c r="E354" s="22"/>
       <c r="F354" s="3"/>
-      <c r="G354" s="42" t="s">
+      <c r="G354" s="34" t="s">
         <v>731</v>
       </c>
     </row>
@@ -8985,11 +9794,11 @@
         <v>385</v>
       </c>
       <c r="D355" s="26"/>
-      <c r="E355" s="38"/>
-      <c r="F355" s="43" t="s">
+      <c r="E355" s="30"/>
+      <c r="F355" s="35" t="s">
         <v>732</v>
       </c>
-      <c r="G355" s="41"/>
+      <c r="G355" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9006,1161 +9815,5854 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91E6629-BE54-40EB-8AB3-DD662E18C97E}">
-  <dimension ref="A1:J148"/>
+  <dimension ref="A1:J454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="L190" sqref="L190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" style="32" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="4" width="10" customWidth="1"/>
+    <col min="1" max="1" width="29" style="28" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
         <v>849</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="78"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
         <v>847</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="79" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
         <v>734</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="38" t="s">
         <v>860</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="39"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="60"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="61"/>
+      <c r="B4" s="40" t="s">
         <v>830</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="40"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48" t="s">
+      <c r="F4" s="82"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="60"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="61"/>
+      <c r="B5" s="40" t="s">
         <v>861</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="40"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48" t="s">
+      <c r="F5" s="82"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="60"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="61"/>
+      <c r="B6" s="40" t="s">
         <v>862</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="40"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48" t="s">
+      <c r="F6" s="82"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="60"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="61"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40" t="s">
         <v>863</v>
       </c>
-      <c r="D7" s="48"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="40"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48" t="s">
+      <c r="F7" s="82"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="60"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="61"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40" t="s">
         <v>853</v>
       </c>
-      <c r="D8" s="48"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="40"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48" t="s">
+      <c r="F8" s="82"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="60"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="61"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40" t="s">
         <v>864</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="40" t="s">
         <v>855</v>
       </c>
       <c r="E9" s="40"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48" t="s">
+      <c r="F9" s="82"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="60"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="61"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40" t="s">
         <v>856</v>
       </c>
       <c r="E10" s="40"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48" t="s">
+      <c r="F10" s="82"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="60"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="61"/>
+      <c r="B11" s="40" t="s">
         <v>750</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="40"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="F11" s="82"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="60"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="59" t="s">
         <v>735</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="39"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="60"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="61"/>
+      <c r="B13" s="40" t="s">
         <v>850</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="40" t="s">
         <v>761</v>
       </c>
-      <c r="D13" s="48"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="40"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48" t="s">
+      <c r="F13" s="82"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="60"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="61"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40" t="s">
         <v>787</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="40" t="s">
         <v>851</v>
       </c>
       <c r="E14" s="40"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="60"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="61"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="40" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="60"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="61"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="40" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48" t="s">
+      <c r="F16" s="82"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="60"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="61"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40" t="s">
         <v>854</v>
       </c>
       <c r="E17" s="40"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48" t="s">
+      <c r="F17" s="82"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="60"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="61"/>
+      <c r="B18" s="40" t="s">
         <v>830</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="40"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="48" t="s">
+      <c r="F18" s="82"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="60"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="62"/>
+      <c r="B19" s="40" t="s">
         <v>855</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="40"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="48" t="s">
+      <c r="F19" s="82"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="60"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="62"/>
+      <c r="B20" s="40" t="s">
         <v>856</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="40"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="48" t="s">
+      <c r="F20" s="82"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="60"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="62"/>
+      <c r="B21" s="40" t="s">
         <v>857</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="40"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="48" t="s">
+      <c r="F21" s="82"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="60"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="62"/>
+      <c r="B22" s="40" t="s">
         <v>858</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="40"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="50" t="s">
+      <c r="F22" s="82"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="60"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="63"/>
+      <c r="B23" s="42" t="s">
         <v>859</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="41"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="60"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="59" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="B24" s="53" t="s">
+        <v>972</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="60"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="61"/>
+      <c r="B25" s="47" t="s">
+        <v>855</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="60"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="61"/>
+      <c r="B26" s="47" t="s">
+        <v>856</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="60"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="61"/>
+      <c r="B27" s="47" t="s">
+        <v>830</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="60"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="61"/>
+      <c r="B28" s="47" t="s">
+        <v>750</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="60"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="61"/>
+      <c r="B29" s="47" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="60"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="61"/>
+      <c r="B30" s="47" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="60"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="61"/>
+      <c r="B31" s="47" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="60"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="61"/>
+      <c r="B32" s="47" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="60"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="61"/>
+      <c r="B33" s="47" t="s">
+        <v>929</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="60"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="61"/>
+      <c r="B34" s="47" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="60"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="61"/>
+      <c r="B35" s="47" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="60"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="61"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="32" t="s">
+        <v>853</v>
+      </c>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="60"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="61"/>
+      <c r="B37" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="60"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="61"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="32" t="s">
+        <v>853</v>
+      </c>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="60"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="61"/>
+      <c r="B39" s="40" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="60"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="61"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="32" t="s">
+        <v>853</v>
+      </c>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="60"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="64"/>
+      <c r="B41" s="42" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C41" s="33"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="60"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="61" t="s">
         <v>737</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="35" t="s">
+      <c r="B42" s="32"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="83" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="41" t="s">
+      <c r="G42" s="40"/>
+      <c r="H42" s="60"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="61"/>
+      <c r="B43" s="33" t="s">
         <v>817</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="35"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="60"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="65" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="60"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="59" t="s">
         <v>739</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="39"/>
-      <c r="F28" s="35" t="s">
+      <c r="B45" s="38"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="83" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="48" t="s">
+      <c r="G45" s="40"/>
+      <c r="H45" s="60"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="61"/>
+      <c r="B46" s="40" t="s">
         <v>865</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="F29" s="35"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="40" t="s">
+      <c r="C46" s="32"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="60"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="61"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="32" t="s">
         <v>866</v>
       </c>
-      <c r="F30" s="35"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="40" t="s">
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="60"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="61"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="32" t="s">
         <v>867</v>
       </c>
-      <c r="F31" s="35"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="40" t="s">
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="60"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="61"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="32" t="s">
         <v>868</v>
       </c>
-      <c r="F32" s="35"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="40" t="s">
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="60"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="61"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="32" t="s">
         <v>869</v>
       </c>
-      <c r="F33" s="35"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="40" t="s">
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="60"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="61"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="32" t="s">
         <v>870</v>
       </c>
-      <c r="F34" s="35"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="40" t="s">
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="60"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="61"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="32" t="s">
         <v>871</v>
       </c>
-      <c r="F35" s="35"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="40" t="s">
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="60"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="61"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="32" t="s">
         <v>872</v>
       </c>
-      <c r="F36" s="35"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="48" t="s">
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="60"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="61"/>
+      <c r="B54" s="40" t="s">
         <v>873</v>
       </c>
-      <c r="C37" s="40"/>
-      <c r="F37" s="35"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="40" t="s">
+      <c r="C54" s="32"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="60"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="61"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="32" t="s">
         <v>874</v>
       </c>
-      <c r="F38" s="35"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="40" t="s">
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="60"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="61"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="32" t="s">
         <v>875</v>
       </c>
-      <c r="F39" s="35"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="48" t="s">
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="60"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="61"/>
+      <c r="B57" s="40" t="s">
         <v>876</v>
       </c>
-      <c r="C40" s="40"/>
-      <c r="F40" s="35"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="50" t="s">
+      <c r="C57" s="32"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="60"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="64"/>
+      <c r="B58" s="42" t="s">
         <v>871</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="F41" s="35"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="33" t="s">
+      <c r="C58" s="33"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="60"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="59" t="s">
         <v>740</v>
       </c>
-      <c r="F42" s="35" t="s">
+      <c r="B59" s="31"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="85" t="s">
         <v>740</v>
       </c>
-      <c r="J42" s="48"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="33" t="s">
+      <c r="G59" s="31"/>
+      <c r="H59" s="60"/>
+      <c r="J59" s="40"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="61"/>
+      <c r="B60" s="49" t="s">
+        <v>877</v>
+      </c>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="86"/>
+      <c r="G60" s="33" t="s">
+        <v>877</v>
+      </c>
+      <c r="H60" s="60"/>
+      <c r="J60" s="40"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="64"/>
+      <c r="B61" s="50" t="s">
+        <v>878</v>
+      </c>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="60"/>
+      <c r="J61" s="40"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="59" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="33" t="s">
+      <c r="B62" s="31"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="82"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="60"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="64"/>
+      <c r="B63" s="33" t="s">
+        <v>879</v>
+      </c>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="60"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="65" t="s">
         <v>742</v>
       </c>
-      <c r="F44" s="35" t="s">
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="83" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
+      <c r="G64" s="40"/>
+      <c r="H64" s="60"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="59" t="s">
         <v>743</v>
       </c>
-      <c r="F45" s="35" t="s">
+      <c r="B65" s="38" t="s">
+        <v>870</v>
+      </c>
+      <c r="C65" s="31"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="83" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
+      <c r="G65" s="40"/>
+      <c r="H65" s="60"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="61"/>
+      <c r="B66" s="40" t="s">
+        <v>880</v>
+      </c>
+      <c r="C66" s="32"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="84"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="60"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="61"/>
+      <c r="B67" s="40" t="s">
+        <v>881</v>
+      </c>
+      <c r="C67" s="32"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="84"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="60"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="64"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="33" t="s">
+        <v>817</v>
+      </c>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="84"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="60"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="65" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
+      <c r="B69" s="40"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="60"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="59" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
+      <c r="B70" s="31" t="s">
+        <v>951</v>
+      </c>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="60"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="61"/>
+      <c r="B71" s="32" t="s">
+        <v>952</v>
+      </c>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="60"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="61"/>
+      <c r="B72" s="32" t="s">
+        <v>919</v>
+      </c>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="60"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="61"/>
+      <c r="B73" s="32" t="s">
+        <v>953</v>
+      </c>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="60"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="61"/>
+      <c r="B74" s="32" t="s">
+        <v>948</v>
+      </c>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="82"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="60"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="61"/>
+      <c r="B75" s="32" t="s">
+        <v>954</v>
+      </c>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="60"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="61"/>
+      <c r="B76" s="32" t="s">
+        <v>955</v>
+      </c>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="82"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="60"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="61"/>
+      <c r="B77" s="32" t="s">
+        <v>956</v>
+      </c>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="60"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="61"/>
+      <c r="B78" s="32" t="s">
+        <v>863</v>
+      </c>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="82"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="60"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="61"/>
+      <c r="B79" s="32" t="s">
+        <v>874</v>
+      </c>
+      <c r="C79" s="40"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="82"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="60"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="64"/>
+      <c r="B80" s="33" t="s">
+        <v>875</v>
+      </c>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="82"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="60"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="61" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="33" t="s">
+      <c r="B81" s="49" t="s">
+        <v>957</v>
+      </c>
+      <c r="C81" s="40"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="82"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="60"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="61"/>
+      <c r="B82" s="49" t="s">
+        <v>952</v>
+      </c>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="82"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="60"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="61"/>
+      <c r="B83" s="49" t="s">
+        <v>861</v>
+      </c>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="82"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="60"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="61"/>
+      <c r="B84" s="49" t="s">
+        <v>919</v>
+      </c>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="82"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="60"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="61"/>
+      <c r="B85" s="49" t="s">
+        <v>958</v>
+      </c>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="82"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="60"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="61"/>
+      <c r="B86" s="49" t="s">
+        <v>959</v>
+      </c>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="82"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="60"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="61"/>
+      <c r="B87" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="60"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="61"/>
+      <c r="B88" s="49" t="s">
+        <v>954</v>
+      </c>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="82"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="60"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="61"/>
+      <c r="B89" s="49" t="s">
+        <v>961</v>
+      </c>
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="82"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="60"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="61"/>
+      <c r="B90" s="49" t="s">
+        <v>955</v>
+      </c>
+      <c r="C90" s="40"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="82"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="60"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="61"/>
+      <c r="B91" s="49" t="s">
+        <v>956</v>
+      </c>
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="40"/>
+      <c r="F91" s="82"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="60"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="61"/>
+      <c r="B92" s="49" t="s">
+        <v>863</v>
+      </c>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="82"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="60"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="61"/>
+      <c r="B93" s="49" t="s">
+        <v>874</v>
+      </c>
+      <c r="C93" s="40"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="82"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="60"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="61"/>
+      <c r="B94" s="49" t="s">
+        <v>875</v>
+      </c>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="82"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="60"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="61"/>
+      <c r="B95" s="49" t="s">
+        <v>962</v>
+      </c>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="82"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="60"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="59" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
+      <c r="B96" s="31"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="82"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="60"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="61"/>
+      <c r="B97" s="32" t="s">
+        <v>856</v>
+      </c>
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="82"/>
+      <c r="G97" s="40"/>
+      <c r="H97" s="60"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="61"/>
+      <c r="B98" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="82"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="60"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="61"/>
+      <c r="B99" s="32" t="s">
+        <v>882</v>
+      </c>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="82"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="60"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="59" t="s">
         <v>748</v>
       </c>
-      <c r="F50" s="35" t="s">
+      <c r="B100" s="53" t="s">
+        <v>963</v>
+      </c>
+      <c r="C100" s="31"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="40"/>
+      <c r="F100" s="85" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
+      <c r="G100" s="31" t="s">
+        <v>924</v>
+      </c>
+      <c r="H100" s="60"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="61"/>
+      <c r="B101" s="47" t="s">
+        <v>924</v>
+      </c>
+      <c r="C101" s="32"/>
+      <c r="D101" s="40"/>
+      <c r="E101" s="40"/>
+      <c r="F101" s="84"/>
+      <c r="G101" s="32" t="s">
+        <v>800</v>
+      </c>
+      <c r="H101" s="60"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="61"/>
+      <c r="B102" s="47" t="s">
+        <v>774</v>
+      </c>
+      <c r="C102" s="32" t="s">
+        <v>852</v>
+      </c>
+      <c r="D102" s="40"/>
+      <c r="E102" s="40"/>
+      <c r="F102" s="84"/>
+      <c r="G102" s="32" t="s">
+        <v>874</v>
+      </c>
+      <c r="H102" s="60"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="61"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="32" t="s">
+        <v>920</v>
+      </c>
+      <c r="D103" s="40"/>
+      <c r="E103" s="40"/>
+      <c r="F103" s="86"/>
+      <c r="G103" s="33" t="s">
+        <v>875</v>
+      </c>
+      <c r="H103" s="60"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="61"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="32" t="s">
+        <v>878</v>
+      </c>
+      <c r="D104" s="40"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="84"/>
+      <c r="G104" s="40"/>
+      <c r="H104" s="60"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="61"/>
+      <c r="B105" s="40" t="s">
+        <v>964</v>
+      </c>
+      <c r="C105" s="32"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="40"/>
+      <c r="F105" s="84"/>
+      <c r="G105" s="40"/>
+      <c r="H105" s="60"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="61"/>
+      <c r="B106" s="40" t="s">
+        <v>965</v>
+      </c>
+      <c r="C106" s="32"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="40"/>
+      <c r="F106" s="84"/>
+      <c r="G106" s="40"/>
+      <c r="H106" s="60"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="61"/>
+      <c r="B107" s="40" t="s">
+        <v>800</v>
+      </c>
+      <c r="C107" s="32"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="40"/>
+      <c r="F107" s="84"/>
+      <c r="G107" s="40"/>
+      <c r="H107" s="60"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="61"/>
+      <c r="B108" s="40" t="s">
+        <v>966</v>
+      </c>
+      <c r="C108" s="32"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="40"/>
+      <c r="F108" s="84"/>
+      <c r="G108" s="40"/>
+      <c r="H108" s="60"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="61"/>
+      <c r="B109" s="40" t="s">
+        <v>967</v>
+      </c>
+      <c r="C109" s="32"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="40"/>
+      <c r="F109" s="84"/>
+      <c r="G109" s="40"/>
+      <c r="H109" s="60"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="61"/>
+      <c r="B110" s="40" t="s">
+        <v>874</v>
+      </c>
+      <c r="C110" s="32"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="40"/>
+      <c r="F110" s="84"/>
+      <c r="G110" s="40"/>
+      <c r="H110" s="60"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="64"/>
+      <c r="B111" s="42" t="s">
+        <v>875</v>
+      </c>
+      <c r="C111" s="33"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="40"/>
+      <c r="F111" s="84"/>
+      <c r="G111" s="40"/>
+      <c r="H111" s="60"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="66" t="s">
         <v>749</v>
       </c>
-      <c r="F51" s="35" t="s">
+      <c r="B112" s="40"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="40"/>
+      <c r="E112" s="40"/>
+      <c r="F112" s="87" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="33" t="s">
+      <c r="G112" s="40"/>
+      <c r="H112" s="60"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="59" t="s">
         <v>750</v>
       </c>
-      <c r="F52" s="35" t="s">
+      <c r="B113" s="31"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="40"/>
+      <c r="E113" s="40"/>
+      <c r="F113" s="85" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="33" t="s">
+      <c r="G113" s="31"/>
+      <c r="H113" s="60"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="64"/>
+      <c r="B114" s="33" t="s">
+        <v>817</v>
+      </c>
+      <c r="C114" s="40"/>
+      <c r="D114" s="40"/>
+      <c r="E114" s="40"/>
+      <c r="F114" s="86"/>
+      <c r="G114" s="33" t="s">
+        <v>817</v>
+      </c>
+      <c r="H114" s="60"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="59" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="33" t="s">
+      <c r="B115" s="31"/>
+      <c r="C115" s="40"/>
+      <c r="D115" s="40"/>
+      <c r="E115" s="40"/>
+      <c r="F115" s="82"/>
+      <c r="G115" s="40"/>
+      <c r="H115" s="60"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="61"/>
+      <c r="B116" s="32" t="s">
+        <v>739</v>
+      </c>
+      <c r="C116" s="40"/>
+      <c r="D116" s="40"/>
+      <c r="E116" s="40"/>
+      <c r="F116" s="82"/>
+      <c r="G116" s="40"/>
+      <c r="H116" s="60"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="61"/>
+      <c r="B117" s="32" t="s">
+        <v>883</v>
+      </c>
+      <c r="C117" s="40"/>
+      <c r="D117" s="40"/>
+      <c r="E117" s="40"/>
+      <c r="F117" s="82"/>
+      <c r="G117" s="40"/>
+      <c r="H117" s="60"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="61"/>
+      <c r="B118" s="32" t="s">
+        <v>884</v>
+      </c>
+      <c r="C118" s="40"/>
+      <c r="D118" s="40"/>
+      <c r="E118" s="40"/>
+      <c r="F118" s="82"/>
+      <c r="G118" s="40"/>
+      <c r="H118" s="60"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="59" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="33" t="s">
+      <c r="B119" s="53" t="s">
+        <v>968</v>
+      </c>
+      <c r="C119" s="31"/>
+      <c r="D119" s="40"/>
+      <c r="E119" s="40"/>
+      <c r="F119" s="82"/>
+      <c r="G119" s="40"/>
+      <c r="H119" s="60"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="61"/>
+      <c r="B120" s="47" t="s">
+        <v>969</v>
+      </c>
+      <c r="C120" s="32"/>
+      <c r="D120" s="40"/>
+      <c r="E120" s="40"/>
+      <c r="F120" s="82"/>
+      <c r="G120" s="40"/>
+      <c r="H120" s="60"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="61"/>
+      <c r="B121" s="47" t="s">
+        <v>739</v>
+      </c>
+      <c r="C121" s="32"/>
+      <c r="D121" s="40"/>
+      <c r="E121" s="40"/>
+      <c r="F121" s="82"/>
+      <c r="G121" s="40"/>
+      <c r="H121" s="60"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="61"/>
+      <c r="B122" s="47" t="s">
+        <v>970</v>
+      </c>
+      <c r="C122" s="32"/>
+      <c r="D122" s="40"/>
+      <c r="E122" s="40"/>
+      <c r="F122" s="82"/>
+      <c r="G122" s="40"/>
+      <c r="H122" s="60"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="61"/>
+      <c r="B123" s="47" t="s">
+        <v>853</v>
+      </c>
+      <c r="C123" s="32"/>
+      <c r="D123" s="40"/>
+      <c r="E123" s="40"/>
+      <c r="F123" s="82"/>
+      <c r="G123" s="40"/>
+      <c r="H123" s="60"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="61"/>
+      <c r="B124" s="47" t="s">
+        <v>971</v>
+      </c>
+      <c r="C124" s="32"/>
+      <c r="D124" s="40"/>
+      <c r="E124" s="40"/>
+      <c r="F124" s="82"/>
+      <c r="G124" s="40"/>
+      <c r="H124" s="60"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="61"/>
+      <c r="B125" s="47" t="s">
+        <v>869</v>
+      </c>
+      <c r="C125" s="32"/>
+      <c r="D125" s="40"/>
+      <c r="E125" s="40"/>
+      <c r="F125" s="82"/>
+      <c r="G125" s="40"/>
+      <c r="H125" s="60"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="61"/>
+      <c r="B126" s="47" t="s">
+        <v>765</v>
+      </c>
+      <c r="C126" s="32"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="40"/>
+      <c r="F126" s="82"/>
+      <c r="G126" s="40"/>
+      <c r="H126" s="60"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="61"/>
+      <c r="B127" s="47" t="s">
+        <v>972</v>
+      </c>
+      <c r="C127" s="32"/>
+      <c r="D127" s="40"/>
+      <c r="E127" s="40"/>
+      <c r="F127" s="82"/>
+      <c r="G127" s="40"/>
+      <c r="H127" s="60"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="61"/>
+      <c r="B128" s="47" t="s">
+        <v>973</v>
+      </c>
+      <c r="C128" s="32"/>
+      <c r="D128" s="40"/>
+      <c r="E128" s="40"/>
+      <c r="F128" s="82"/>
+      <c r="G128" s="40"/>
+      <c r="H128" s="60"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="61"/>
+      <c r="B129" s="47" t="s">
+        <v>974</v>
+      </c>
+      <c r="C129" s="32"/>
+      <c r="D129" s="40"/>
+      <c r="E129" s="40"/>
+      <c r="F129" s="82"/>
+      <c r="G129" s="40"/>
+      <c r="H129" s="60"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="61"/>
+      <c r="B130" s="47" t="s">
+        <v>975</v>
+      </c>
+      <c r="C130" s="32"/>
+      <c r="D130" s="40"/>
+      <c r="E130" s="40"/>
+      <c r="F130" s="82"/>
+      <c r="G130" s="40"/>
+      <c r="H130" s="60"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="61"/>
+      <c r="B131" s="47" t="s">
+        <v>796</v>
+      </c>
+      <c r="C131" s="32"/>
+      <c r="D131" s="40"/>
+      <c r="E131" s="40"/>
+      <c r="F131" s="82"/>
+      <c r="G131" s="40"/>
+      <c r="H131" s="60"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="61"/>
+      <c r="B132" s="47" t="s">
+        <v>797</v>
+      </c>
+      <c r="C132" s="32"/>
+      <c r="D132" s="40"/>
+      <c r="E132" s="40"/>
+      <c r="F132" s="82"/>
+      <c r="G132" s="40"/>
+      <c r="H132" s="60"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="61"/>
+      <c r="B133" s="47" t="s">
+        <v>800</v>
+      </c>
+      <c r="C133" s="32"/>
+      <c r="D133" s="40"/>
+      <c r="E133" s="40"/>
+      <c r="F133" s="82"/>
+      <c r="G133" s="40"/>
+      <c r="H133" s="60"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="61"/>
+      <c r="B134" s="47" t="s">
+        <v>976</v>
+      </c>
+      <c r="C134" s="32"/>
+      <c r="D134" s="40"/>
+      <c r="E134" s="40"/>
+      <c r="F134" s="82"/>
+      <c r="G134" s="40"/>
+      <c r="H134" s="60"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="61"/>
+      <c r="B135" s="47" t="s">
+        <v>977</v>
+      </c>
+      <c r="C135" s="32"/>
+      <c r="D135" s="40"/>
+      <c r="E135" s="40"/>
+      <c r="F135" s="82"/>
+      <c r="G135" s="40"/>
+      <c r="H135" s="60"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="61"/>
+      <c r="B136" s="47" t="s">
+        <v>810</v>
+      </c>
+      <c r="C136" s="32"/>
+      <c r="D136" s="40"/>
+      <c r="E136" s="40"/>
+      <c r="F136" s="82"/>
+      <c r="G136" s="40"/>
+      <c r="H136" s="60"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="61"/>
+      <c r="B137" s="47" t="s">
+        <v>978</v>
+      </c>
+      <c r="C137" s="32"/>
+      <c r="D137" s="40"/>
+      <c r="E137" s="40"/>
+      <c r="F137" s="82"/>
+      <c r="G137" s="40"/>
+      <c r="H137" s="60"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="61"/>
+      <c r="B138" s="47" t="s">
+        <v>863</v>
+      </c>
+      <c r="C138" s="32"/>
+      <c r="D138" s="40"/>
+      <c r="E138" s="40"/>
+      <c r="F138" s="82"/>
+      <c r="G138" s="40"/>
+      <c r="H138" s="60"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="61"/>
+      <c r="B139" s="47" t="s">
+        <v>979</v>
+      </c>
+      <c r="C139" s="32"/>
+      <c r="D139" s="40"/>
+      <c r="E139" s="40"/>
+      <c r="F139" s="82"/>
+      <c r="G139" s="40"/>
+      <c r="H139" s="60"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="61"/>
+      <c r="B140" s="47" t="s">
+        <v>981</v>
+      </c>
+      <c r="C140" s="32"/>
+      <c r="D140" s="40"/>
+      <c r="E140" s="40"/>
+      <c r="F140" s="82"/>
+      <c r="G140" s="40"/>
+      <c r="H140" s="60"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="61"/>
+      <c r="B141" s="40"/>
+      <c r="C141" s="32" t="s">
+        <v>874</v>
+      </c>
+      <c r="D141" s="40"/>
+      <c r="E141" s="40"/>
+      <c r="F141" s="82"/>
+      <c r="G141" s="40"/>
+      <c r="H141" s="60"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="61"/>
+      <c r="B142" s="40"/>
+      <c r="C142" s="32" t="s">
+        <v>951</v>
+      </c>
+      <c r="D142" s="40"/>
+      <c r="E142" s="40"/>
+      <c r="F142" s="82"/>
+      <c r="G142" s="40"/>
+      <c r="H142" s="60"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="64"/>
+      <c r="B143" s="48" t="s">
+        <v>980</v>
+      </c>
+      <c r="C143" s="33"/>
+      <c r="D143" s="40"/>
+      <c r="E143" s="40"/>
+      <c r="F143" s="82"/>
+      <c r="G143" s="40"/>
+      <c r="H143" s="60"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="67" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="33" t="s">
+      <c r="B144" s="40"/>
+      <c r="C144" s="40"/>
+      <c r="D144" s="40"/>
+      <c r="E144" s="40"/>
+      <c r="F144" s="82"/>
+      <c r="G144" s="40"/>
+      <c r="H144" s="60"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="65" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="33" t="s">
+      <c r="B145" s="40"/>
+      <c r="C145" s="40"/>
+      <c r="D145" s="40"/>
+      <c r="E145" s="40"/>
+      <c r="F145" s="82"/>
+      <c r="G145" s="40"/>
+      <c r="H145" s="60"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="59" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="33" t="s">
+      <c r="B146" s="31"/>
+      <c r="C146" s="40"/>
+      <c r="D146" s="40"/>
+      <c r="E146" s="40"/>
+      <c r="F146" s="82"/>
+      <c r="G146" s="40"/>
+      <c r="H146" s="60"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="64"/>
+      <c r="B147" s="33" t="s">
+        <v>885</v>
+      </c>
+      <c r="C147" s="40"/>
+      <c r="D147" s="40"/>
+      <c r="E147" s="40"/>
+      <c r="F147" s="82"/>
+      <c r="G147" s="40"/>
+      <c r="H147" s="60"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="65" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="33" t="s">
+      <c r="B148" s="40"/>
+      <c r="C148" s="40"/>
+      <c r="D148" s="40"/>
+      <c r="E148" s="40"/>
+      <c r="F148" s="82"/>
+      <c r="G148" s="40"/>
+      <c r="H148" s="60"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="59" t="s">
         <v>757</v>
       </c>
-      <c r="F59" s="35" t="s">
+      <c r="B149" s="38"/>
+      <c r="C149" s="38"/>
+      <c r="D149" s="31"/>
+      <c r="E149" s="40"/>
+      <c r="F149" s="83" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
+      <c r="G149" s="40"/>
+      <c r="H149" s="60"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="61"/>
+      <c r="B150" s="40" t="s">
+        <v>874</v>
+      </c>
+      <c r="C150" s="40"/>
+      <c r="D150" s="32"/>
+      <c r="E150" s="40"/>
+      <c r="F150" s="84"/>
+      <c r="G150" s="40"/>
+      <c r="H150" s="60"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="61"/>
+      <c r="B151" s="40" t="s">
+        <v>739</v>
+      </c>
+      <c r="C151" s="40"/>
+      <c r="D151" s="32"/>
+      <c r="E151" s="40"/>
+      <c r="F151" s="84"/>
+      <c r="G151" s="40"/>
+      <c r="H151" s="60"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="61"/>
+      <c r="B152" s="40" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C152" s="40" t="s">
+        <v>874</v>
+      </c>
+      <c r="D152" s="32"/>
+      <c r="E152" s="40"/>
+      <c r="F152" s="84"/>
+      <c r="G152" s="40"/>
+      <c r="H152" s="60"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="61"/>
+      <c r="B153" s="40"/>
+      <c r="C153" s="40" t="s">
+        <v>875</v>
+      </c>
+      <c r="D153" s="32"/>
+      <c r="E153" s="40"/>
+      <c r="F153" s="84"/>
+      <c r="G153" s="40"/>
+      <c r="H153" s="60"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="61"/>
+      <c r="B154" s="40" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C154" s="40"/>
+      <c r="D154" s="32"/>
+      <c r="E154" s="40"/>
+      <c r="F154" s="84"/>
+      <c r="G154" s="40"/>
+      <c r="H154" s="60"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="61"/>
+      <c r="B155" s="40" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C155" s="40" t="s">
+        <v>874</v>
+      </c>
+      <c r="D155" s="32"/>
+      <c r="E155" s="40"/>
+      <c r="F155" s="84"/>
+      <c r="G155" s="40"/>
+      <c r="H155" s="60"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="61"/>
+      <c r="B156" s="40"/>
+      <c r="C156" s="40" t="s">
+        <v>875</v>
+      </c>
+      <c r="D156" s="32"/>
+      <c r="E156" s="40"/>
+      <c r="F156" s="84"/>
+      <c r="G156" s="40"/>
+      <c r="H156" s="60"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="61"/>
+      <c r="B157" s="40" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C157" s="40"/>
+      <c r="D157" s="32"/>
+      <c r="E157" s="40"/>
+      <c r="F157" s="84"/>
+      <c r="G157" s="40"/>
+      <c r="H157" s="60"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="61"/>
+      <c r="B158" s="40" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C158" s="40"/>
+      <c r="D158" s="32"/>
+      <c r="E158" s="40"/>
+      <c r="F158" s="84"/>
+      <c r="G158" s="40"/>
+      <c r="H158" s="60"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="61"/>
+      <c r="B159" s="40" t="s">
+        <v>942</v>
+      </c>
+      <c r="C159" s="40"/>
+      <c r="D159" s="32"/>
+      <c r="E159" s="40"/>
+      <c r="F159" s="84"/>
+      <c r="G159" s="40"/>
+      <c r="H159" s="60"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="61"/>
+      <c r="B160" s="40" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C160" s="40"/>
+      <c r="D160" s="32"/>
+      <c r="E160" s="40"/>
+      <c r="F160" s="84"/>
+      <c r="G160" s="40"/>
+      <c r="H160" s="60"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="61"/>
+      <c r="B161" s="40"/>
+      <c r="C161" s="40" t="s">
+        <v>875</v>
+      </c>
+      <c r="D161" s="32"/>
+      <c r="E161" s="40"/>
+      <c r="F161" s="84"/>
+      <c r="G161" s="40"/>
+      <c r="H161" s="60"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="61"/>
+      <c r="B162" s="40" t="s">
+        <v>812</v>
+      </c>
+      <c r="C162" s="40" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D162" s="32"/>
+      <c r="E162" s="40"/>
+      <c r="F162" s="84"/>
+      <c r="G162" s="40"/>
+      <c r="H162" s="60"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="61"/>
+      <c r="B163" s="40"/>
+      <c r="C163" s="40" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D163" s="32"/>
+      <c r="E163" s="40"/>
+      <c r="F163" s="84"/>
+      <c r="G163" s="40"/>
+      <c r="H163" s="60"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="61"/>
+      <c r="B164" s="40"/>
+      <c r="C164" s="40" t="s">
+        <v>830</v>
+      </c>
+      <c r="D164" s="32"/>
+      <c r="E164" s="40"/>
+      <c r="F164" s="84"/>
+      <c r="G164" s="40"/>
+      <c r="H164" s="60"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="61"/>
+      <c r="B165" s="40" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C165" s="40"/>
+      <c r="D165" s="32"/>
+      <c r="E165" s="40"/>
+      <c r="F165" s="84"/>
+      <c r="G165" s="40"/>
+      <c r="H165" s="60"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="61"/>
+      <c r="B166" s="40"/>
+      <c r="C166" s="40" t="s">
+        <v>855</v>
+      </c>
+      <c r="D166" s="32"/>
+      <c r="E166" s="40"/>
+      <c r="F166" s="84"/>
+      <c r="G166" s="40"/>
+      <c r="H166" s="60"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="61"/>
+      <c r="B167" s="40"/>
+      <c r="C167" s="40" t="s">
+        <v>856</v>
+      </c>
+      <c r="D167" s="32"/>
+      <c r="E167" s="40"/>
+      <c r="F167" s="84"/>
+      <c r="G167" s="40"/>
+      <c r="H167" s="60"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="61"/>
+      <c r="B168" s="40" t="s">
+        <v>922</v>
+      </c>
+      <c r="C168" s="40"/>
+      <c r="D168" s="32"/>
+      <c r="E168" s="40"/>
+      <c r="F168" s="84"/>
+      <c r="G168" s="40"/>
+      <c r="H168" s="60"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="61"/>
+      <c r="B169" s="40"/>
+      <c r="C169" s="40" t="s">
+        <v>853</v>
+      </c>
+      <c r="D169" s="32"/>
+      <c r="E169" s="40"/>
+      <c r="F169" s="84"/>
+      <c r="G169" s="40"/>
+      <c r="H169" s="60"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="61"/>
+      <c r="B170" s="40" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C170" s="40" t="s">
+        <v>919</v>
+      </c>
+      <c r="D170" s="32"/>
+      <c r="E170" s="40"/>
+      <c r="F170" s="84"/>
+      <c r="G170" s="40"/>
+      <c r="H170" s="60"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="61"/>
+      <c r="B171" s="40"/>
+      <c r="C171" s="40" t="s">
+        <v>863</v>
+      </c>
+      <c r="D171" s="32"/>
+      <c r="E171" s="40"/>
+      <c r="F171" s="84"/>
+      <c r="G171" s="40"/>
+      <c r="H171" s="60"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="61"/>
+      <c r="B172" s="40"/>
+      <c r="C172" s="40" t="s">
+        <v>788</v>
+      </c>
+      <c r="D172" s="32"/>
+      <c r="E172" s="40"/>
+      <c r="F172" s="84"/>
+      <c r="G172" s="40"/>
+      <c r="H172" s="60"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="61"/>
+      <c r="B173" s="40"/>
+      <c r="C173" s="40"/>
+      <c r="D173" s="32" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E173" s="40"/>
+      <c r="F173" s="84"/>
+      <c r="G173" s="40"/>
+      <c r="H173" s="60"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="61"/>
+      <c r="B174" s="40"/>
+      <c r="C174" s="40"/>
+      <c r="D174" s="32" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E174" s="40"/>
+      <c r="F174" s="84"/>
+      <c r="G174" s="40"/>
+      <c r="H174" s="60"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="61"/>
+      <c r="B175" s="40" t="s">
+        <v>875</v>
+      </c>
+      <c r="C175" s="40"/>
+      <c r="D175" s="32"/>
+      <c r="E175" s="40"/>
+      <c r="F175" s="84"/>
+      <c r="G175" s="40"/>
+      <c r="H175" s="60"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="61"/>
+      <c r="B176" s="40" t="s">
+        <v>814</v>
+      </c>
+      <c r="C176" s="40" t="s">
+        <v>874</v>
+      </c>
+      <c r="D176" s="32"/>
+      <c r="E176" s="40"/>
+      <c r="F176" s="84"/>
+      <c r="G176" s="40"/>
+      <c r="H176" s="60"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="61"/>
+      <c r="B177" s="40"/>
+      <c r="C177" s="40" t="s">
+        <v>875</v>
+      </c>
+      <c r="D177" s="32"/>
+      <c r="E177" s="40"/>
+      <c r="F177" s="84"/>
+      <c r="G177" s="40"/>
+      <c r="H177" s="60"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="61"/>
+      <c r="B178" s="40"/>
+      <c r="C178" s="40" t="s">
+        <v>739</v>
+      </c>
+      <c r="D178" s="32"/>
+      <c r="E178" s="40"/>
+      <c r="F178" s="84"/>
+      <c r="G178" s="40"/>
+      <c r="H178" s="60"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="61"/>
+      <c r="B179" s="40"/>
+      <c r="C179" s="40" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D179" s="32"/>
+      <c r="E179" s="40"/>
+      <c r="F179" s="84"/>
+      <c r="G179" s="40"/>
+      <c r="H179" s="60"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="61"/>
+      <c r="B180" s="40"/>
+      <c r="C180" s="40" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D180" s="32"/>
+      <c r="E180" s="40"/>
+      <c r="F180" s="84"/>
+      <c r="G180" s="40"/>
+      <c r="H180" s="60"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="64"/>
+      <c r="B181" s="42"/>
+      <c r="C181" s="42"/>
+      <c r="D181" s="54" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E181" s="40"/>
+      <c r="F181" s="84"/>
+      <c r="G181" s="40"/>
+      <c r="H181" s="60"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="66" t="s">
         <v>758</v>
       </c>
-      <c r="F60" s="35" t="s">
+      <c r="B182" s="40"/>
+      <c r="C182" s="40"/>
+      <c r="D182" s="40"/>
+      <c r="E182" s="40"/>
+      <c r="F182" s="83" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="33" t="s">
+      <c r="G182" s="40"/>
+      <c r="H182" s="60"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="59" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
+      <c r="B183" s="38" t="s">
+        <v>858</v>
+      </c>
+      <c r="C183" s="31"/>
+      <c r="D183" s="40"/>
+      <c r="E183" s="40"/>
+      <c r="F183" s="82"/>
+      <c r="G183" s="40"/>
+      <c r="H183" s="60"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="61"/>
+      <c r="B184" s="40" t="s">
+        <v>886</v>
+      </c>
+      <c r="C184" s="32"/>
+      <c r="D184" s="40"/>
+      <c r="E184" s="40"/>
+      <c r="F184" s="82"/>
+      <c r="G184" s="40"/>
+      <c r="H184" s="60"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="61"/>
+      <c r="B185" s="40" t="s">
+        <v>887</v>
+      </c>
+      <c r="C185" s="32"/>
+      <c r="D185" s="40"/>
+      <c r="E185" s="40"/>
+      <c r="F185" s="82"/>
+      <c r="G185" s="40"/>
+      <c r="H185" s="60"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="61"/>
+      <c r="B186" s="40" t="s">
+        <v>888</v>
+      </c>
+      <c r="C186" s="32"/>
+      <c r="D186" s="40"/>
+      <c r="E186" s="40"/>
+      <c r="F186" s="82"/>
+      <c r="G186" s="40"/>
+      <c r="H186" s="60"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="61"/>
+      <c r="B187" s="40" t="s">
+        <v>827</v>
+      </c>
+      <c r="C187" s="32"/>
+      <c r="D187" s="40"/>
+      <c r="E187" s="40"/>
+      <c r="F187" s="82"/>
+      <c r="G187" s="40"/>
+      <c r="H187" s="60"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="61"/>
+      <c r="B188" s="40" t="s">
+        <v>889</v>
+      </c>
+      <c r="C188" s="32"/>
+      <c r="D188" s="40"/>
+      <c r="E188" s="40"/>
+      <c r="F188" s="82"/>
+      <c r="G188" s="40"/>
+      <c r="H188" s="60"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="61"/>
+      <c r="B189" s="40" t="s">
+        <v>890</v>
+      </c>
+      <c r="C189" s="32" t="s">
+        <v>891</v>
+      </c>
+      <c r="D189" s="40"/>
+      <c r="E189" s="40"/>
+      <c r="F189" s="82"/>
+      <c r="G189" s="40"/>
+      <c r="H189" s="60"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="64"/>
+      <c r="B190" s="42" t="s">
+        <v>892</v>
+      </c>
+      <c r="C190" s="33"/>
+      <c r="D190" s="40"/>
+      <c r="E190" s="40"/>
+      <c r="F190" s="82"/>
+      <c r="G190" s="40"/>
+      <c r="H190" s="60"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="65" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="33" t="s">
+      <c r="B191" s="40"/>
+      <c r="C191" s="40"/>
+      <c r="D191" s="40"/>
+      <c r="E191" s="40"/>
+      <c r="F191" s="82"/>
+      <c r="G191" s="40"/>
+      <c r="H191" s="60"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="59" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="33" t="s">
+      <c r="B192" s="38" t="s">
+        <v>893</v>
+      </c>
+      <c r="C192" s="31"/>
+      <c r="D192" s="40"/>
+      <c r="E192" s="40"/>
+      <c r="F192" s="82"/>
+      <c r="G192" s="40"/>
+      <c r="H192" s="60"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="64"/>
+      <c r="B193" s="42"/>
+      <c r="C193" s="33" t="s">
+        <v>853</v>
+      </c>
+      <c r="D193" s="40"/>
+      <c r="E193" s="40"/>
+      <c r="F193" s="82"/>
+      <c r="G193" s="40"/>
+      <c r="H193" s="60"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="68" t="s">
         <v>762</v>
       </c>
-      <c r="F64" s="35" t="s">
+      <c r="B194" s="40"/>
+      <c r="C194" s="40"/>
+      <c r="D194" s="40"/>
+      <c r="E194" s="40"/>
+      <c r="F194" s="83" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="33" t="s">
+      <c r="G194" s="40"/>
+      <c r="H194" s="60"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="68" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="33" t="s">
+      <c r="B195" s="40"/>
+      <c r="C195" s="40"/>
+      <c r="D195" s="40"/>
+      <c r="E195" s="40"/>
+      <c r="F195" s="82"/>
+      <c r="G195" s="40"/>
+      <c r="H195" s="60"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="68" t="s">
         <v>764</v>
       </c>
-      <c r="F66" s="35" t="s">
+      <c r="B196" s="40"/>
+      <c r="C196" s="40"/>
+      <c r="D196" s="40"/>
+      <c r="E196" s="40"/>
+      <c r="F196" s="83" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="33" t="s">
+      <c r="G196" s="40"/>
+      <c r="H196" s="60"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="68" t="s">
         <v>765</v>
       </c>
-      <c r="F67" s="35" t="s">
+      <c r="B197" s="40"/>
+      <c r="C197" s="40"/>
+      <c r="D197" s="40"/>
+      <c r="E197" s="40"/>
+      <c r="F197" s="83" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="33" t="s">
+      <c r="G197" s="40"/>
+      <c r="H197" s="60"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="68" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="33" t="s">
+      <c r="B198" s="40"/>
+      <c r="C198" s="40"/>
+      <c r="D198" s="40"/>
+      <c r="E198" s="40"/>
+      <c r="F198" s="82"/>
+      <c r="G198" s="40"/>
+      <c r="H198" s="60"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="65" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="33" t="s">
+      <c r="B199" s="40"/>
+      <c r="C199" s="40"/>
+      <c r="D199" s="40"/>
+      <c r="E199" s="40"/>
+      <c r="F199" s="82"/>
+      <c r="G199" s="40"/>
+      <c r="H199" s="60"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="59" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="33" t="s">
+      <c r="B200" s="31"/>
+      <c r="C200" s="40"/>
+      <c r="D200" s="40"/>
+      <c r="E200" s="40"/>
+      <c r="F200" s="82"/>
+      <c r="G200" s="40"/>
+      <c r="H200" s="60"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="64"/>
+      <c r="B201" s="33" t="s">
+        <v>894</v>
+      </c>
+      <c r="C201" s="40"/>
+      <c r="D201" s="40"/>
+      <c r="E201" s="40"/>
+      <c r="F201" s="82"/>
+      <c r="G201" s="40"/>
+      <c r="H201" s="60"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="37" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="33" t="s">
+      <c r="B202" s="31" t="s">
+        <v>772</v>
+      </c>
+      <c r="C202" s="40"/>
+      <c r="D202" s="40"/>
+      <c r="E202" s="40"/>
+      <c r="F202" s="82"/>
+      <c r="G202" s="40"/>
+      <c r="H202" s="60"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="39"/>
+      <c r="B203" s="32" t="s">
+        <v>773</v>
+      </c>
+      <c r="C203" s="40"/>
+      <c r="D203" s="40"/>
+      <c r="E203" s="40"/>
+      <c r="F203" s="82"/>
+      <c r="G203" s="40"/>
+      <c r="H203" s="60"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="39"/>
+      <c r="B204" s="49" t="s">
+        <v>791</v>
+      </c>
+      <c r="C204" s="40"/>
+      <c r="D204" s="40"/>
+      <c r="E204" s="40"/>
+      <c r="F204" s="82"/>
+      <c r="G204" s="40"/>
+      <c r="H204" s="60"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="39"/>
+      <c r="B205" s="49" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C205" s="40"/>
+      <c r="D205" s="40"/>
+      <c r="E205" s="40"/>
+      <c r="F205" s="82"/>
+      <c r="G205" s="40"/>
+      <c r="H205" s="60"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="39"/>
+      <c r="B206" s="49" t="s">
+        <v>808</v>
+      </c>
+      <c r="C206" s="40"/>
+      <c r="D206" s="40"/>
+      <c r="E206" s="40"/>
+      <c r="F206" s="82"/>
+      <c r="G206" s="40"/>
+      <c r="H206" s="60"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="39"/>
+      <c r="B207" s="49" t="s">
+        <v>819</v>
+      </c>
+      <c r="C207" s="40"/>
+      <c r="D207" s="40"/>
+      <c r="E207" s="40"/>
+      <c r="F207" s="82"/>
+      <c r="G207" s="40"/>
+      <c r="H207" s="60"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="39"/>
+      <c r="B208" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="C208" s="40"/>
+      <c r="D208" s="40"/>
+      <c r="E208" s="40"/>
+      <c r="F208" s="82"/>
+      <c r="G208" s="40"/>
+      <c r="H208" s="60"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="39"/>
+      <c r="B209" s="49" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C209" s="40"/>
+      <c r="D209" s="40"/>
+      <c r="E209" s="40"/>
+      <c r="F209" s="82"/>
+      <c r="G209" s="40"/>
+      <c r="H209" s="60"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="39"/>
+      <c r="B210" s="49" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C210" s="40"/>
+      <c r="D210" s="40"/>
+      <c r="E210" s="40"/>
+      <c r="F210" s="82"/>
+      <c r="G210" s="40"/>
+      <c r="H210" s="60"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="41"/>
+      <c r="B211" s="50" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C211" s="40"/>
+      <c r="D211" s="40"/>
+      <c r="E211" s="40"/>
+      <c r="F211" s="82"/>
+      <c r="G211" s="40"/>
+      <c r="H211" s="60"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="59" t="s">
         <v>770</v>
       </c>
-      <c r="F72" s="35" t="s">
+      <c r="B212" s="31"/>
+      <c r="C212" s="40"/>
+      <c r="D212" s="40"/>
+      <c r="E212" s="40"/>
+      <c r="F212" s="85" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="33" t="s">
+      <c r="G212" s="31"/>
+      <c r="H212" s="60"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="61"/>
+      <c r="B213" s="32" t="s">
+        <v>895</v>
+      </c>
+      <c r="C213" s="40"/>
+      <c r="D213" s="40"/>
+      <c r="E213" s="40"/>
+      <c r="F213" s="84"/>
+      <c r="G213" s="32" t="s">
+        <v>895</v>
+      </c>
+      <c r="H213" s="60"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="64"/>
+      <c r="B214" s="33" t="s">
+        <v>896</v>
+      </c>
+      <c r="C214" s="40"/>
+      <c r="D214" s="40"/>
+      <c r="E214" s="40"/>
+      <c r="F214" s="86"/>
+      <c r="G214" s="33" t="s">
+        <v>896</v>
+      </c>
+      <c r="H214" s="60"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="65" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="33" t="s">
+      <c r="B215" s="40"/>
+      <c r="C215" s="40"/>
+      <c r="D215" s="40"/>
+      <c r="E215" s="40"/>
+      <c r="F215" s="82"/>
+      <c r="G215" s="40"/>
+      <c r="H215" s="60"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="59" t="s">
         <v>772</v>
       </c>
-      <c r="F74" s="35" t="s">
+      <c r="B216" s="31"/>
+      <c r="C216" s="40"/>
+      <c r="D216" s="40"/>
+      <c r="E216" s="40"/>
+      <c r="F216" s="85" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="33" t="s">
+      <c r="G216" s="31"/>
+      <c r="H216" s="60"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="61"/>
+      <c r="B217" s="32" t="s">
+        <v>852</v>
+      </c>
+      <c r="C217" s="40"/>
+      <c r="D217" s="40"/>
+      <c r="E217" s="40"/>
+      <c r="F217" s="84"/>
+      <c r="G217" s="32" t="s">
+        <v>852</v>
+      </c>
+      <c r="H217" s="60"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="61"/>
+      <c r="B218" s="32" t="s">
+        <v>897</v>
+      </c>
+      <c r="C218" s="40"/>
+      <c r="D218" s="40"/>
+      <c r="E218" s="40"/>
+      <c r="F218" s="86"/>
+      <c r="G218" s="33" t="s">
+        <v>897</v>
+      </c>
+      <c r="H218" s="60"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="61"/>
+      <c r="B219" s="32" t="s">
+        <v>898</v>
+      </c>
+      <c r="C219" s="40"/>
+      <c r="D219" s="40"/>
+      <c r="E219" s="40"/>
+      <c r="F219" s="84"/>
+      <c r="G219" s="40"/>
+      <c r="H219" s="60"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="61"/>
+      <c r="B220" s="32" t="s">
+        <v>899</v>
+      </c>
+      <c r="C220" s="40"/>
+      <c r="D220" s="40"/>
+      <c r="E220" s="40"/>
+      <c r="F220" s="84"/>
+      <c r="G220" s="40"/>
+      <c r="H220" s="60"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="64"/>
+      <c r="B221" s="33" t="s">
+        <v>900</v>
+      </c>
+      <c r="C221" s="40"/>
+      <c r="D221" s="40"/>
+      <c r="E221" s="40"/>
+      <c r="F221" s="84"/>
+      <c r="G221" s="40"/>
+      <c r="H221" s="60"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="59" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="33" t="s">
+      <c r="B222" s="31"/>
+      <c r="C222" s="40"/>
+      <c r="D222" s="40"/>
+      <c r="E222" s="40"/>
+      <c r="F222" s="82"/>
+      <c r="G222" s="40"/>
+      <c r="H222" s="60"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="61"/>
+      <c r="B223" s="32" t="s">
+        <v>852</v>
+      </c>
+      <c r="C223" s="40"/>
+      <c r="D223" s="40"/>
+      <c r="E223" s="40"/>
+      <c r="F223" s="82"/>
+      <c r="G223" s="40"/>
+      <c r="H223" s="60"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="61"/>
+      <c r="B224" s="32" t="s">
+        <v>897</v>
+      </c>
+      <c r="C224" s="40"/>
+      <c r="D224" s="40"/>
+      <c r="E224" s="40"/>
+      <c r="F224" s="82"/>
+      <c r="G224" s="40"/>
+      <c r="H224" s="60"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="61"/>
+      <c r="B225" s="32" t="s">
+        <v>901</v>
+      </c>
+      <c r="C225" s="40"/>
+      <c r="D225" s="40"/>
+      <c r="E225" s="40"/>
+      <c r="F225" s="82"/>
+      <c r="G225" s="40"/>
+      <c r="H225" s="60"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="64"/>
+      <c r="B226" s="33" t="s">
+        <v>902</v>
+      </c>
+      <c r="C226" s="40"/>
+      <c r="D226" s="40"/>
+      <c r="E226" s="40"/>
+      <c r="F226" s="82"/>
+      <c r="G226" s="40"/>
+      <c r="H226" s="60"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="59" t="s">
         <v>774</v>
       </c>
-      <c r="F76" s="35" t="s">
+      <c r="B227" s="51" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C227" s="40"/>
+      <c r="D227" s="40"/>
+      <c r="E227" s="40"/>
+      <c r="F227" s="85" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="33" t="s">
+      <c r="G227" s="31" t="s">
+        <v>874</v>
+      </c>
+      <c r="H227" s="60"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="61"/>
+      <c r="B228" s="49" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C228" s="40"/>
+      <c r="D228" s="40"/>
+      <c r="E228" s="40"/>
+      <c r="F228" s="86"/>
+      <c r="G228" s="33" t="s">
+        <v>875</v>
+      </c>
+      <c r="H228" s="60"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="61"/>
+      <c r="B229" s="49" t="s">
+        <v>874</v>
+      </c>
+      <c r="C229" s="40"/>
+      <c r="D229" s="40"/>
+      <c r="E229" s="40"/>
+      <c r="F229" s="84"/>
+      <c r="G229" s="40"/>
+      <c r="H229" s="60"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="61"/>
+      <c r="B230" s="49" t="s">
+        <v>830</v>
+      </c>
+      <c r="C230" s="40"/>
+      <c r="D230" s="40"/>
+      <c r="E230" s="40"/>
+      <c r="F230" s="84"/>
+      <c r="G230" s="40"/>
+      <c r="H230" s="60"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="64"/>
+      <c r="B231" s="50" t="s">
+        <v>875</v>
+      </c>
+      <c r="C231" s="40"/>
+      <c r="D231" s="40"/>
+      <c r="E231" s="40"/>
+      <c r="F231" s="84"/>
+      <c r="G231" s="40"/>
+      <c r="H231" s="60"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="66" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="33" t="s">
+      <c r="B232" s="40"/>
+      <c r="C232" s="40"/>
+      <c r="D232" s="40"/>
+      <c r="E232" s="40"/>
+      <c r="F232" s="82"/>
+      <c r="G232" s="40"/>
+      <c r="H232" s="60"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="59" t="s">
         <v>776</v>
       </c>
-      <c r="F78" s="35" t="s">
+      <c r="B233" s="31" t="s">
+        <v>903</v>
+      </c>
+      <c r="C233" s="40"/>
+      <c r="D233" s="40"/>
+      <c r="E233" s="40"/>
+      <c r="F233" s="85" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="33" t="s">
+      <c r="G233" s="31" t="s">
+        <v>903</v>
+      </c>
+      <c r="H233" s="60"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="64"/>
+      <c r="B234" s="33" t="s">
+        <v>904</v>
+      </c>
+      <c r="C234" s="40"/>
+      <c r="D234" s="40"/>
+      <c r="E234" s="40"/>
+      <c r="F234" s="86"/>
+      <c r="G234" s="33" t="s">
+        <v>904</v>
+      </c>
+      <c r="H234" s="60"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="68" t="s">
         <v>777</v>
       </c>
-      <c r="F79" s="35" t="s">
+      <c r="B235" s="40"/>
+      <c r="C235" s="40"/>
+      <c r="D235" s="40"/>
+      <c r="E235" s="40"/>
+      <c r="F235" s="83" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="33" t="s">
+      <c r="G235" s="40"/>
+      <c r="H235" s="60"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="65" t="s">
         <v>778</v>
       </c>
-      <c r="F80" s="35" t="s">
+      <c r="B236" s="40"/>
+      <c r="C236" s="40"/>
+      <c r="D236" s="40"/>
+      <c r="E236" s="40"/>
+      <c r="F236" s="83" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="33" t="s">
+      <c r="G236" s="40"/>
+      <c r="H236" s="60"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="59" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="33" t="s">
+      <c r="B237" s="31" t="s">
+        <v>858</v>
+      </c>
+      <c r="C237" s="40"/>
+      <c r="D237" s="40"/>
+      <c r="E237" s="40"/>
+      <c r="F237" s="82"/>
+      <c r="G237" s="40"/>
+      <c r="H237" s="60"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="61"/>
+      <c r="B238" s="32" t="s">
+        <v>905</v>
+      </c>
+      <c r="C238" s="40"/>
+      <c r="D238" s="40"/>
+      <c r="E238" s="40"/>
+      <c r="F238" s="82"/>
+      <c r="G238" s="40"/>
+      <c r="H238" s="60"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="64"/>
+      <c r="B239" s="33" t="s">
+        <v>906</v>
+      </c>
+      <c r="C239" s="40"/>
+      <c r="D239" s="40"/>
+      <c r="E239" s="40"/>
+      <c r="F239" s="82"/>
+      <c r="G239" s="40"/>
+      <c r="H239" s="60"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="59" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="33" t="s">
+      <c r="B240" s="51" t="s">
+        <v>856</v>
+      </c>
+      <c r="C240" s="40"/>
+      <c r="D240" s="40"/>
+      <c r="E240" s="40"/>
+      <c r="F240" s="82"/>
+      <c r="G240" s="40"/>
+      <c r="H240" s="60"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="61"/>
+      <c r="B241" s="49" t="s">
+        <v>855</v>
+      </c>
+      <c r="C241" s="40"/>
+      <c r="D241" s="40"/>
+      <c r="E241" s="40"/>
+      <c r="F241" s="82"/>
+      <c r="G241" s="40"/>
+      <c r="H241" s="60"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="64"/>
+      <c r="B242" s="50" t="s">
+        <v>907</v>
+      </c>
+      <c r="C242" s="40"/>
+      <c r="D242" s="40"/>
+      <c r="E242" s="40"/>
+      <c r="F242" s="82"/>
+      <c r="G242" s="40"/>
+      <c r="H242" s="60"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="65" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="33" t="s">
+      <c r="B243" s="40"/>
+      <c r="C243" s="40"/>
+      <c r="D243" s="40"/>
+      <c r="E243" s="40"/>
+      <c r="F243" s="82"/>
+      <c r="G243" s="40"/>
+      <c r="H243" s="60"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="59" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="33" t="s">
+      <c r="B244" s="31" t="s">
+        <v>908</v>
+      </c>
+      <c r="C244" s="40"/>
+      <c r="D244" s="40"/>
+      <c r="E244" s="40"/>
+      <c r="F244" s="82"/>
+      <c r="G244" s="40"/>
+      <c r="H244" s="60"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="61"/>
+      <c r="B245" s="32" t="s">
+        <v>909</v>
+      </c>
+      <c r="C245" s="40"/>
+      <c r="D245" s="40"/>
+      <c r="E245" s="40"/>
+      <c r="F245" s="82"/>
+      <c r="G245" s="40"/>
+      <c r="H245" s="60"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="59" t="s">
         <v>783</v>
       </c>
-      <c r="F85" s="35" t="s">
+      <c r="B246" s="53" t="s">
+        <v>938</v>
+      </c>
+      <c r="C246" s="31"/>
+      <c r="D246" s="40"/>
+      <c r="E246" s="40"/>
+      <c r="F246" s="85" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="33" t="s">
+      <c r="G246" s="38"/>
+      <c r="H246" s="69"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="61"/>
+      <c r="B247" s="47" t="s">
+        <v>939</v>
+      </c>
+      <c r="C247" s="32" t="s">
+        <v>940</v>
+      </c>
+      <c r="D247" s="40"/>
+      <c r="E247" s="40"/>
+      <c r="F247" s="84"/>
+      <c r="G247" s="40" t="s">
+        <v>939</v>
+      </c>
+      <c r="H247" s="60" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="61"/>
+      <c r="B248" s="40"/>
+      <c r="C248" s="32" t="s">
+        <v>941</v>
+      </c>
+      <c r="D248" s="40"/>
+      <c r="E248" s="40"/>
+      <c r="F248" s="84"/>
+      <c r="G248" s="40"/>
+      <c r="H248" s="60" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="64"/>
+      <c r="B249" s="42" t="s">
+        <v>942</v>
+      </c>
+      <c r="C249" s="33"/>
+      <c r="D249" s="40"/>
+      <c r="E249" s="40"/>
+      <c r="F249" s="86"/>
+      <c r="G249" s="42" t="s">
+        <v>738</v>
+      </c>
+      <c r="H249" s="70"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="59" t="s">
         <v>784</v>
       </c>
-      <c r="F86" s="35" t="s">
+      <c r="B250" s="38"/>
+      <c r="C250" s="31"/>
+      <c r="D250" s="40"/>
+      <c r="E250" s="40"/>
+      <c r="F250" s="85" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="33" t="s">
+      <c r="G250" s="38"/>
+      <c r="H250" s="69"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="61"/>
+      <c r="B251" s="40" t="s">
+        <v>943</v>
+      </c>
+      <c r="C251" s="32"/>
+      <c r="D251" s="40"/>
+      <c r="E251" s="40"/>
+      <c r="F251" s="84"/>
+      <c r="G251" s="40" t="s">
+        <v>943</v>
+      </c>
+      <c r="H251" s="60"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="61"/>
+      <c r="B252" s="40"/>
+      <c r="C252" s="32" t="s">
+        <v>856</v>
+      </c>
+      <c r="D252" s="40"/>
+      <c r="E252" s="40"/>
+      <c r="F252" s="84"/>
+      <c r="G252" s="40"/>
+      <c r="H252" s="60" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="61"/>
+      <c r="B253" s="40"/>
+      <c r="C253" s="32" t="s">
+        <v>944</v>
+      </c>
+      <c r="D253" s="40"/>
+      <c r="E253" s="40"/>
+      <c r="F253" s="84"/>
+      <c r="G253" s="40"/>
+      <c r="H253" s="60" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" s="61"/>
+      <c r="B254" s="40"/>
+      <c r="C254" s="32" t="s">
+        <v>945</v>
+      </c>
+      <c r="D254" s="40"/>
+      <c r="E254" s="40"/>
+      <c r="F254" s="84"/>
+      <c r="G254" s="40"/>
+      <c r="H254" s="60" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" s="61"/>
+      <c r="B255" s="40"/>
+      <c r="C255" s="32" t="s">
+        <v>852</v>
+      </c>
+      <c r="D255" s="40"/>
+      <c r="E255" s="40"/>
+      <c r="F255" s="84"/>
+      <c r="G255" s="40"/>
+      <c r="H255" s="60" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" s="61"/>
+      <c r="B256" s="40"/>
+      <c r="C256" s="32" t="s">
+        <v>920</v>
+      </c>
+      <c r="D256" s="40"/>
+      <c r="E256" s="40"/>
+      <c r="F256" s="84"/>
+      <c r="G256" s="40"/>
+      <c r="H256" s="60" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="61"/>
+      <c r="B257" s="40"/>
+      <c r="C257" s="32" t="s">
+        <v>853</v>
+      </c>
+      <c r="D257" s="40"/>
+      <c r="E257" s="40"/>
+      <c r="F257" s="84"/>
+      <c r="G257" s="40"/>
+      <c r="H257" s="60" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="61"/>
+      <c r="B258" s="40" t="s">
+        <v>946</v>
+      </c>
+      <c r="C258" s="32"/>
+      <c r="D258" s="40"/>
+      <c r="E258" s="40"/>
+      <c r="F258" s="84"/>
+      <c r="G258" s="40" t="s">
+        <v>946</v>
+      </c>
+      <c r="H258" s="60"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="61"/>
+      <c r="B259" s="40"/>
+      <c r="C259" s="32" t="s">
+        <v>852</v>
+      </c>
+      <c r="D259" s="40"/>
+      <c r="E259" s="40"/>
+      <c r="F259" s="84"/>
+      <c r="G259" s="40"/>
+      <c r="H259" s="60" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" s="61"/>
+      <c r="B260" s="40"/>
+      <c r="C260" s="32" t="s">
+        <v>947</v>
+      </c>
+      <c r="D260" s="40"/>
+      <c r="E260" s="40"/>
+      <c r="F260" s="84"/>
+      <c r="G260" s="40"/>
+      <c r="H260" s="60" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="61"/>
+      <c r="B261" s="40"/>
+      <c r="C261" s="32" t="s">
+        <v>920</v>
+      </c>
+      <c r="D261" s="40"/>
+      <c r="E261" s="40"/>
+      <c r="F261" s="86"/>
+      <c r="G261" s="42"/>
+      <c r="H261" s="70" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="64"/>
+      <c r="B262" s="42"/>
+      <c r="C262" s="33" t="s">
+        <v>853</v>
+      </c>
+      <c r="D262" s="40"/>
+      <c r="E262" s="40"/>
+      <c r="F262" s="84"/>
+      <c r="G262" s="40"/>
+      <c r="H262" s="60"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="61" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="33" t="s">
+      <c r="B263" s="32" t="s">
+        <v>910</v>
+      </c>
+      <c r="C263" s="40"/>
+      <c r="D263" s="40"/>
+      <c r="E263" s="40"/>
+      <c r="F263" s="82"/>
+      <c r="G263" s="40"/>
+      <c r="H263" s="60"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" s="61"/>
+      <c r="B264" s="32" t="s">
+        <v>911</v>
+      </c>
+      <c r="C264" s="40"/>
+      <c r="D264" s="40"/>
+      <c r="E264" s="40"/>
+      <c r="F264" s="82"/>
+      <c r="G264" s="40"/>
+      <c r="H264" s="60"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" s="61"/>
+      <c r="B265" s="32" t="s">
+        <v>912</v>
+      </c>
+      <c r="C265" s="40"/>
+      <c r="D265" s="40"/>
+      <c r="E265" s="40"/>
+      <c r="F265" s="82"/>
+      <c r="G265" s="40"/>
+      <c r="H265" s="60"/>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" s="64"/>
+      <c r="B266" s="33" t="s">
+        <v>913</v>
+      </c>
+      <c r="C266" s="40"/>
+      <c r="D266" s="40"/>
+      <c r="E266" s="40"/>
+      <c r="F266" s="82"/>
+      <c r="G266" s="40"/>
+      <c r="H266" s="60"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" s="65" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="33" t="s">
+      <c r="B267" s="40"/>
+      <c r="C267" s="40"/>
+      <c r="D267" s="40"/>
+      <c r="E267" s="40"/>
+      <c r="F267" s="82"/>
+      <c r="G267" s="40"/>
+      <c r="H267" s="60"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" s="71" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="33" t="s">
+      <c r="B268" s="52" t="s">
+        <v>914</v>
+      </c>
+      <c r="C268" s="40"/>
+      <c r="D268" s="40"/>
+      <c r="E268" s="40"/>
+      <c r="F268" s="82"/>
+      <c r="G268" s="40"/>
+      <c r="H268" s="60"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" s="65" t="s">
         <v>788</v>
       </c>
-      <c r="F90" s="35" t="s">
+      <c r="B269" s="40"/>
+      <c r="C269" s="40"/>
+      <c r="D269" s="40"/>
+      <c r="E269" s="40"/>
+      <c r="F269" s="83" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="33" t="s">
+      <c r="G269" s="40"/>
+      <c r="H269" s="60"/>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" s="59" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="33" t="s">
+      <c r="B270" s="38"/>
+      <c r="C270" s="31"/>
+      <c r="D270" s="40"/>
+      <c r="E270" s="40"/>
+      <c r="F270" s="82"/>
+      <c r="G270" s="40"/>
+      <c r="H270" s="60"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" s="61"/>
+      <c r="B271" s="40" t="s">
+        <v>791</v>
+      </c>
+      <c r="C271" s="32"/>
+      <c r="D271" s="40"/>
+      <c r="E271" s="40"/>
+      <c r="F271" s="82"/>
+      <c r="G271" s="40"/>
+      <c r="H271" s="60"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" s="64"/>
+      <c r="B272" s="42"/>
+      <c r="C272" s="33" t="s">
+        <v>877</v>
+      </c>
+      <c r="D272" s="40"/>
+      <c r="E272" s="40"/>
+      <c r="F272" s="82"/>
+      <c r="G272" s="40"/>
+      <c r="H272" s="60"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" s="59" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="33" t="s">
+      <c r="B273" s="38" t="s">
+        <v>915</v>
+      </c>
+      <c r="C273" s="31"/>
+      <c r="D273" s="40"/>
+      <c r="E273" s="40"/>
+      <c r="F273" s="82"/>
+      <c r="G273" s="40"/>
+      <c r="H273" s="60"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" s="61"/>
+      <c r="B274" s="40" t="s">
+        <v>856</v>
+      </c>
+      <c r="C274" s="32"/>
+      <c r="D274" s="40"/>
+      <c r="E274" s="40"/>
+      <c r="F274" s="82"/>
+      <c r="G274" s="40"/>
+      <c r="H274" s="60"/>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="61"/>
+      <c r="B275" s="40" t="s">
+        <v>855</v>
+      </c>
+      <c r="C275" s="32"/>
+      <c r="D275" s="40"/>
+      <c r="E275" s="40"/>
+      <c r="F275" s="82"/>
+      <c r="G275" s="40"/>
+      <c r="H275" s="60"/>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="61"/>
+      <c r="B276" s="40" t="s">
+        <v>830</v>
+      </c>
+      <c r="C276" s="32"/>
+      <c r="D276" s="40"/>
+      <c r="E276" s="40"/>
+      <c r="F276" s="82"/>
+      <c r="G276" s="40"/>
+      <c r="H276" s="60"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" s="61"/>
+      <c r="B277" s="40" t="s">
+        <v>916</v>
+      </c>
+      <c r="C277" s="32"/>
+      <c r="D277" s="40"/>
+      <c r="E277" s="40"/>
+      <c r="F277" s="82"/>
+      <c r="G277" s="40"/>
+      <c r="H277" s="60"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" s="61"/>
+      <c r="B278" s="40" t="s">
+        <v>750</v>
+      </c>
+      <c r="C278" s="32"/>
+      <c r="D278" s="40"/>
+      <c r="E278" s="40"/>
+      <c r="F278" s="82"/>
+      <c r="G278" s="40"/>
+      <c r="H278" s="60"/>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" s="61"/>
+      <c r="B279" s="40" t="s">
+        <v>917</v>
+      </c>
+      <c r="C279" s="32"/>
+      <c r="D279" s="40"/>
+      <c r="E279" s="40"/>
+      <c r="F279" s="82"/>
+      <c r="G279" s="40"/>
+      <c r="H279" s="60"/>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" s="61"/>
+      <c r="B280" s="40" t="s">
+        <v>877</v>
+      </c>
+      <c r="C280" s="32"/>
+      <c r="D280" s="40"/>
+      <c r="E280" s="40"/>
+      <c r="F280" s="82"/>
+      <c r="G280" s="40"/>
+      <c r="H280" s="60"/>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" s="61"/>
+      <c r="B281" s="40" t="s">
+        <v>878</v>
+      </c>
+      <c r="C281" s="32"/>
+      <c r="D281" s="40"/>
+      <c r="E281" s="40"/>
+      <c r="F281" s="82"/>
+      <c r="G281" s="40"/>
+      <c r="H281" s="60"/>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" s="61"/>
+      <c r="B282" s="40" t="s">
+        <v>918</v>
+      </c>
+      <c r="C282" s="32"/>
+      <c r="D282" s="40"/>
+      <c r="E282" s="40"/>
+      <c r="F282" s="82"/>
+      <c r="G282" s="40"/>
+      <c r="H282" s="60"/>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" s="64"/>
+      <c r="B283" s="42"/>
+      <c r="C283" s="33" t="s">
+        <v>877</v>
+      </c>
+      <c r="D283" s="40"/>
+      <c r="E283" s="40"/>
+      <c r="F283" s="82"/>
+      <c r="G283" s="40"/>
+      <c r="H283" s="60"/>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" s="59" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="33" t="s">
+      <c r="B284" s="53" t="s">
+        <v>917</v>
+      </c>
+      <c r="C284" s="31"/>
+      <c r="D284" s="40"/>
+      <c r="E284" s="40"/>
+      <c r="F284" s="82"/>
+      <c r="G284" s="40"/>
+      <c r="H284" s="60"/>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" s="61"/>
+      <c r="B285" s="47" t="s">
+        <v>877</v>
+      </c>
+      <c r="C285" s="32"/>
+      <c r="D285" s="40"/>
+      <c r="E285" s="40"/>
+      <c r="F285" s="82"/>
+      <c r="G285" s="40"/>
+      <c r="H285" s="60"/>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" s="61"/>
+      <c r="B286" s="47" t="s">
+        <v>878</v>
+      </c>
+      <c r="C286" s="32"/>
+      <c r="D286" s="40"/>
+      <c r="E286" s="40"/>
+      <c r="F286" s="82"/>
+      <c r="G286" s="40"/>
+      <c r="H286" s="60"/>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287" s="61"/>
+      <c r="B287" s="47" t="s">
+        <v>918</v>
+      </c>
+      <c r="C287" s="32"/>
+      <c r="D287" s="40"/>
+      <c r="E287" s="40"/>
+      <c r="F287" s="82"/>
+      <c r="G287" s="40"/>
+      <c r="H287" s="60"/>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288" s="64"/>
+      <c r="B288" s="42"/>
+      <c r="C288" s="33" t="s">
+        <v>877</v>
+      </c>
+      <c r="D288" s="40"/>
+      <c r="E288" s="40"/>
+      <c r="F288" s="82"/>
+      <c r="G288" s="40"/>
+      <c r="H288" s="60"/>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289" s="59" t="s">
         <v>792</v>
       </c>
-      <c r="F94" s="35" t="s">
+      <c r="B289" s="53" t="s">
+        <v>982</v>
+      </c>
+      <c r="C289" s="31"/>
+      <c r="D289" s="40"/>
+      <c r="E289" s="40"/>
+      <c r="F289" s="88" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="33" t="s">
+      <c r="G289" s="52" t="s">
+        <v>857</v>
+      </c>
+      <c r="H289" s="60"/>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" s="61"/>
+      <c r="B290" s="40"/>
+      <c r="C290" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="D290" s="40"/>
+      <c r="E290" s="40"/>
+      <c r="F290" s="84"/>
+      <c r="G290" s="40"/>
+      <c r="H290" s="60"/>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" s="61"/>
+      <c r="B291" s="47" t="s">
+        <v>983</v>
+      </c>
+      <c r="C291" s="32"/>
+      <c r="D291" s="40"/>
+      <c r="E291" s="40"/>
+      <c r="F291" s="84"/>
+      <c r="G291" s="40"/>
+      <c r="H291" s="60"/>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" s="61"/>
+      <c r="B292" s="47" t="s">
+        <v>984</v>
+      </c>
+      <c r="C292" s="32"/>
+      <c r="D292" s="40"/>
+      <c r="E292" s="40"/>
+      <c r="F292" s="84"/>
+      <c r="G292" s="40"/>
+      <c r="H292" s="60"/>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" s="61"/>
+      <c r="B293" s="40"/>
+      <c r="C293" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="D293" s="40"/>
+      <c r="E293" s="40"/>
+      <c r="F293" s="84"/>
+      <c r="G293" s="40"/>
+      <c r="H293" s="60"/>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294" s="61"/>
+      <c r="B294" s="47" t="s">
+        <v>985</v>
+      </c>
+      <c r="C294" s="32"/>
+      <c r="D294" s="40"/>
+      <c r="E294" s="40"/>
+      <c r="F294" s="84"/>
+      <c r="G294" s="40"/>
+      <c r="H294" s="60"/>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295" s="61"/>
+      <c r="B295" s="40"/>
+      <c r="C295" s="32" t="s">
+        <v>988</v>
+      </c>
+      <c r="D295" s="40"/>
+      <c r="E295" s="40"/>
+      <c r="F295" s="84"/>
+      <c r="G295" s="40"/>
+      <c r="H295" s="60"/>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296" s="61"/>
+      <c r="B296" s="40"/>
+      <c r="C296" s="32" t="s">
+        <v>808</v>
+      </c>
+      <c r="D296" s="40"/>
+      <c r="E296" s="40"/>
+      <c r="F296" s="84"/>
+      <c r="G296" s="40"/>
+      <c r="H296" s="60"/>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297" s="61"/>
+      <c r="B297" s="40"/>
+      <c r="C297" s="32" t="s">
+        <v>819</v>
+      </c>
+      <c r="D297" s="40"/>
+      <c r="E297" s="40"/>
+      <c r="F297" s="84"/>
+      <c r="G297" s="40"/>
+      <c r="H297" s="60"/>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298" s="61"/>
+      <c r="B298" s="40"/>
+      <c r="C298" s="32" t="s">
+        <v>989</v>
+      </c>
+      <c r="D298" s="40"/>
+      <c r="E298" s="40"/>
+      <c r="F298" s="84"/>
+      <c r="G298" s="40"/>
+      <c r="H298" s="60"/>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299" s="61"/>
+      <c r="B299" s="47" t="s">
+        <v>857</v>
+      </c>
+      <c r="C299" s="32"/>
+      <c r="D299" s="40"/>
+      <c r="E299" s="40"/>
+      <c r="F299" s="84"/>
+      <c r="G299" s="40"/>
+      <c r="H299" s="60"/>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A300" s="61"/>
+      <c r="B300" s="47" t="s">
+        <v>907</v>
+      </c>
+      <c r="C300" s="32"/>
+      <c r="D300" s="40"/>
+      <c r="E300" s="40"/>
+      <c r="F300" s="84"/>
+      <c r="G300" s="40"/>
+      <c r="H300" s="60"/>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301" s="61"/>
+      <c r="B301" s="47" t="s">
+        <v>986</v>
+      </c>
+      <c r="C301" s="32" t="s">
+        <v>990</v>
+      </c>
+      <c r="D301" s="40"/>
+      <c r="E301" s="40"/>
+      <c r="F301" s="84"/>
+      <c r="G301" s="40"/>
+      <c r="H301" s="60"/>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A302" s="61"/>
+      <c r="B302" s="47" t="s">
+        <v>987</v>
+      </c>
+      <c r="C302" s="32"/>
+      <c r="D302" s="40"/>
+      <c r="E302" s="40"/>
+      <c r="F302" s="84"/>
+      <c r="G302" s="40"/>
+      <c r="H302" s="60"/>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A303" s="64"/>
+      <c r="B303" s="42"/>
+      <c r="C303" s="33" t="s">
+        <v>988</v>
+      </c>
+      <c r="D303" s="40"/>
+      <c r="E303" s="40"/>
+      <c r="F303" s="84"/>
+      <c r="G303" s="40"/>
+      <c r="H303" s="60"/>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A304" s="66" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="33" t="s">
+      <c r="B304" s="40"/>
+      <c r="C304" s="40"/>
+      <c r="D304" s="40"/>
+      <c r="E304" s="40"/>
+      <c r="F304" s="82"/>
+      <c r="G304" s="40"/>
+      <c r="H304" s="60"/>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305" s="59" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="33" t="s">
+      <c r="B305" s="31" t="s">
+        <v>919</v>
+      </c>
+      <c r="C305" s="40"/>
+      <c r="D305" s="40"/>
+      <c r="E305" s="40"/>
+      <c r="F305" s="82"/>
+      <c r="G305" s="40"/>
+      <c r="H305" s="60"/>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A306" s="64"/>
+      <c r="B306" s="33" t="s">
+        <v>817</v>
+      </c>
+      <c r="C306" s="40"/>
+      <c r="D306" s="40"/>
+      <c r="E306" s="40"/>
+      <c r="F306" s="82"/>
+      <c r="G306" s="40"/>
+      <c r="H306" s="60"/>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A307" s="68" t="s">
         <v>795</v>
       </c>
-      <c r="F97" s="35" t="s">
+      <c r="B307" s="40"/>
+      <c r="C307" s="40"/>
+      <c r="D307" s="40"/>
+      <c r="E307" s="40"/>
+      <c r="F307" s="83" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="33" t="s">
+      <c r="G307" s="40"/>
+      <c r="H307" s="60"/>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A308" s="68" t="s">
         <v>796</v>
       </c>
-      <c r="F98" s="35" t="s">
+      <c r="B308" s="40"/>
+      <c r="C308" s="40"/>
+      <c r="D308" s="40"/>
+      <c r="E308" s="40"/>
+      <c r="F308" s="83" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="33" t="s">
+      <c r="G308" s="40"/>
+      <c r="H308" s="60"/>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A309" s="68" t="s">
         <v>797</v>
       </c>
-      <c r="F99" s="35" t="s">
+      <c r="B309" s="40"/>
+      <c r="C309" s="40"/>
+      <c r="D309" s="40"/>
+      <c r="E309" s="40"/>
+      <c r="F309" s="83" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="33" t="s">
+      <c r="G309" s="40"/>
+      <c r="H309" s="60"/>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A310" s="68" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="33" t="s">
+      <c r="B310" s="40"/>
+      <c r="C310" s="40"/>
+      <c r="D310" s="40"/>
+      <c r="E310" s="40"/>
+      <c r="F310" s="82"/>
+      <c r="G310" s="40"/>
+      <c r="H310" s="60"/>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A311" s="68" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="33" t="s">
+      <c r="B311" s="40"/>
+      <c r="C311" s="40"/>
+      <c r="D311" s="40"/>
+      <c r="E311" s="40"/>
+      <c r="F311" s="82"/>
+      <c r="G311" s="40"/>
+      <c r="H311" s="60"/>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A312" s="68" t="s">
         <v>800</v>
       </c>
-      <c r="F102" s="35" t="s">
+      <c r="B312" s="40"/>
+      <c r="C312" s="40"/>
+      <c r="D312" s="40"/>
+      <c r="E312" s="40"/>
+      <c r="F312" s="83" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="33" t="s">
+      <c r="G312" s="40"/>
+      <c r="H312" s="60"/>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A313" s="68" t="s">
         <v>801</v>
       </c>
-      <c r="F103" s="35" t="s">
+      <c r="B313" s="40"/>
+      <c r="C313" s="40"/>
+      <c r="D313" s="40"/>
+      <c r="E313" s="40"/>
+      <c r="F313" s="83" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="33" t="s">
+      <c r="G313" s="40"/>
+      <c r="H313" s="60"/>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A314" s="65" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="33" t="s">
+      <c r="B314" s="40"/>
+      <c r="C314" s="40"/>
+      <c r="D314" s="40"/>
+      <c r="E314" s="40"/>
+      <c r="F314" s="82"/>
+      <c r="G314" s="40"/>
+      <c r="H314" s="60"/>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A315" s="59" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="33" t="s">
+      <c r="B315" s="31"/>
+      <c r="C315" s="40"/>
+      <c r="D315" s="40"/>
+      <c r="E315" s="40"/>
+      <c r="F315" s="82"/>
+      <c r="G315" s="40"/>
+      <c r="H315" s="60"/>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A316" s="64"/>
+      <c r="B316" s="33" t="s">
+        <v>876</v>
+      </c>
+      <c r="C316" s="40"/>
+      <c r="D316" s="40"/>
+      <c r="E316" s="40"/>
+      <c r="F316" s="82"/>
+      <c r="G316" s="40"/>
+      <c r="H316" s="60"/>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A317" s="59" t="s">
         <v>804</v>
       </c>
-      <c r="F106" s="35" t="s">
+      <c r="B317" s="31"/>
+      <c r="C317" s="40"/>
+      <c r="D317" s="40"/>
+      <c r="E317" s="40"/>
+      <c r="F317" s="83" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="33" t="s">
+      <c r="G317" s="40"/>
+      <c r="H317" s="60"/>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A318" s="64"/>
+      <c r="B318" s="33" t="s">
+        <v>875</v>
+      </c>
+      <c r="C318" s="40"/>
+      <c r="D318" s="40"/>
+      <c r="E318" s="40"/>
+      <c r="F318" s="84"/>
+      <c r="G318" s="40"/>
+      <c r="H318" s="60"/>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A319" s="68" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="33" t="s">
+      <c r="B319" s="40"/>
+      <c r="C319" s="40"/>
+      <c r="D319" s="40"/>
+      <c r="E319" s="40"/>
+      <c r="F319" s="82"/>
+      <c r="G319" s="40"/>
+      <c r="H319" s="60"/>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A320" s="68" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="33" t="s">
+      <c r="B320" s="40"/>
+      <c r="C320" s="40"/>
+      <c r="D320" s="40"/>
+      <c r="E320" s="40"/>
+      <c r="F320" s="82"/>
+      <c r="G320" s="40"/>
+      <c r="H320" s="60"/>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A321" s="65" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="33" t="s">
+      <c r="B321" s="40"/>
+      <c r="C321" s="40"/>
+      <c r="D321" s="40"/>
+      <c r="E321" s="40"/>
+      <c r="F321" s="82"/>
+      <c r="G321" s="40"/>
+      <c r="H321" s="60"/>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A322" s="59" t="s">
         <v>808</v>
       </c>
-      <c r="F110" s="35" t="s">
+      <c r="B322" s="31"/>
+      <c r="C322" s="40"/>
+      <c r="D322" s="40"/>
+      <c r="E322" s="40"/>
+      <c r="F322" s="85" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="33" t="s">
+      <c r="G322" s="31" t="s">
+        <v>852</v>
+      </c>
+      <c r="H322" s="60"/>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A323" s="61"/>
+      <c r="B323" s="32" t="s">
+        <v>852</v>
+      </c>
+      <c r="C323" s="40"/>
+      <c r="D323" s="40"/>
+      <c r="E323" s="40"/>
+      <c r="F323" s="84"/>
+      <c r="G323" s="32" t="s">
+        <v>920</v>
+      </c>
+      <c r="H323" s="60"/>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A324" s="61"/>
+      <c r="B324" s="32" t="s">
+        <v>920</v>
+      </c>
+      <c r="C324" s="40"/>
+      <c r="D324" s="40"/>
+      <c r="E324" s="40"/>
+      <c r="F324" s="86"/>
+      <c r="G324" s="33" t="s">
+        <v>921</v>
+      </c>
+      <c r="H324" s="60"/>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A325" s="64"/>
+      <c r="B325" s="33" t="s">
+        <v>921</v>
+      </c>
+      <c r="C325" s="40"/>
+      <c r="D325" s="40"/>
+      <c r="E325" s="40"/>
+      <c r="F325" s="84"/>
+      <c r="G325" s="40"/>
+      <c r="H325" s="60"/>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A326" s="59" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="33" t="s">
+      <c r="B326" s="31"/>
+      <c r="C326" s="40"/>
+      <c r="D326" s="40"/>
+      <c r="E326" s="40"/>
+      <c r="F326" s="82"/>
+      <c r="G326" s="40"/>
+      <c r="H326" s="60"/>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A327" s="61"/>
+      <c r="B327" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="C327" s="40"/>
+      <c r="D327" s="40"/>
+      <c r="E327" s="40"/>
+      <c r="F327" s="82"/>
+      <c r="G327" s="40"/>
+      <c r="H327" s="60"/>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A328" s="64"/>
+      <c r="B328" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="C328" s="40"/>
+      <c r="D328" s="40"/>
+      <c r="E328" s="40"/>
+      <c r="F328" s="82"/>
+      <c r="G328" s="40"/>
+      <c r="H328" s="60"/>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A329" s="67" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="33" t="s">
+      <c r="B329" s="40"/>
+      <c r="C329" s="40"/>
+      <c r="D329" s="40"/>
+      <c r="E329" s="40"/>
+      <c r="F329" s="82"/>
+      <c r="G329" s="40"/>
+      <c r="H329" s="60"/>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A330" s="65" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="33" t="s">
+      <c r="B330" s="40"/>
+      <c r="C330" s="40"/>
+      <c r="D330" s="40"/>
+      <c r="E330" s="40"/>
+      <c r="F330" s="82"/>
+      <c r="G330" s="40"/>
+      <c r="H330" s="60"/>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A331" s="59" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="33" t="s">
+      <c r="B331" s="38" t="s">
+        <v>855</v>
+      </c>
+      <c r="C331" s="31"/>
+      <c r="D331" s="40"/>
+      <c r="E331" s="40"/>
+      <c r="F331" s="82"/>
+      <c r="G331" s="40"/>
+      <c r="H331" s="60"/>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A332" s="61"/>
+      <c r="B332" s="40" t="s">
+        <v>856</v>
+      </c>
+      <c r="C332" s="32"/>
+      <c r="D332" s="40"/>
+      <c r="E332" s="40"/>
+      <c r="F332" s="82"/>
+      <c r="G332" s="40"/>
+      <c r="H332" s="60"/>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A333" s="61"/>
+      <c r="B333" s="40" t="s">
+        <v>922</v>
+      </c>
+      <c r="C333" s="32"/>
+      <c r="D333" s="40"/>
+      <c r="E333" s="40"/>
+      <c r="F333" s="82"/>
+      <c r="G333" s="40"/>
+      <c r="H333" s="60"/>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A334" s="64"/>
+      <c r="B334" s="42"/>
+      <c r="C334" s="33" t="s">
+        <v>853</v>
+      </c>
+      <c r="D334" s="40"/>
+      <c r="E334" s="40"/>
+      <c r="F334" s="82"/>
+      <c r="G334" s="40"/>
+      <c r="H334" s="60"/>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A335" s="59" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="33" t="s">
+      <c r="B335" s="31"/>
+      <c r="C335" s="40"/>
+      <c r="D335" s="40"/>
+      <c r="E335" s="40"/>
+      <c r="F335" s="82"/>
+      <c r="G335" s="40"/>
+      <c r="H335" s="60"/>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A336" s="61"/>
+      <c r="B336" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="C336" s="40"/>
+      <c r="D336" s="40"/>
+      <c r="E336" s="40"/>
+      <c r="F336" s="82"/>
+      <c r="G336" s="40"/>
+      <c r="H336" s="60"/>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A337" s="61"/>
+      <c r="B337" s="32" t="s">
+        <v>856</v>
+      </c>
+      <c r="C337" s="40"/>
+      <c r="D337" s="40"/>
+      <c r="E337" s="40"/>
+      <c r="F337" s="82"/>
+      <c r="G337" s="40"/>
+      <c r="H337" s="60"/>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A338" s="59" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="33" t="s">
+      <c r="B338" s="31"/>
+      <c r="C338" s="40"/>
+      <c r="D338" s="40"/>
+      <c r="E338" s="40"/>
+      <c r="F338" s="82"/>
+      <c r="G338" s="40"/>
+      <c r="H338" s="60"/>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A339" s="64"/>
+      <c r="B339" s="33" t="s">
+        <v>845</v>
+      </c>
+      <c r="C339" s="40"/>
+      <c r="D339" s="40"/>
+      <c r="E339" s="40"/>
+      <c r="F339" s="82"/>
+      <c r="G339" s="40"/>
+      <c r="H339" s="60"/>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A340" s="68" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="33" t="s">
+      <c r="B340" s="40"/>
+      <c r="C340" s="40"/>
+      <c r="D340" s="40"/>
+      <c r="E340" s="40"/>
+      <c r="F340" s="82"/>
+      <c r="G340" s="40"/>
+      <c r="H340" s="60"/>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A341" s="65" t="s">
         <v>816</v>
       </c>
-      <c r="F118" s="35" t="s">
+      <c r="B341" s="40"/>
+      <c r="C341" s="40"/>
+      <c r="D341" s="40"/>
+      <c r="E341" s="40"/>
+      <c r="F341" s="83" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="33" t="s">
+      <c r="G341" s="40"/>
+      <c r="H341" s="60"/>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A342" s="59" t="s">
         <v>817</v>
       </c>
-      <c r="F119" s="35" t="s">
+      <c r="B342" s="31"/>
+      <c r="C342" s="40"/>
+      <c r="D342" s="40"/>
+      <c r="E342" s="40"/>
+      <c r="F342" s="83" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="33" t="s">
+      <c r="G342" s="40"/>
+      <c r="H342" s="60"/>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A343" s="64"/>
+      <c r="B343" s="33" t="s">
+        <v>923</v>
+      </c>
+      <c r="C343" s="40"/>
+      <c r="D343" s="40"/>
+      <c r="E343" s="40"/>
+      <c r="F343" s="84"/>
+      <c r="G343" s="40"/>
+      <c r="H343" s="60"/>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A344" s="65" t="s">
         <v>818</v>
       </c>
-      <c r="F120" s="35" t="s">
+      <c r="B344" s="40"/>
+      <c r="C344" s="40"/>
+      <c r="D344" s="40"/>
+      <c r="E344" s="40"/>
+      <c r="F344" s="87" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="33" t="s">
+      <c r="G344" s="40"/>
+      <c r="H344" s="60"/>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A345" s="59" t="s">
         <v>819</v>
       </c>
-      <c r="F121" s="35" t="s">
+      <c r="B345" s="31"/>
+      <c r="C345" s="40"/>
+      <c r="D345" s="40"/>
+      <c r="E345" s="40"/>
+      <c r="F345" s="85" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="33" t="s">
+      <c r="G345" s="31"/>
+      <c r="H345" s="60"/>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A346" s="61"/>
+      <c r="B346" s="32" t="s">
+        <v>852</v>
+      </c>
+      <c r="C346" s="40"/>
+      <c r="D346" s="40"/>
+      <c r="E346" s="40"/>
+      <c r="F346" s="84"/>
+      <c r="G346" s="32" t="s">
+        <v>852</v>
+      </c>
+      <c r="H346" s="60"/>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A347" s="64"/>
+      <c r="B347" s="33" t="s">
+        <v>920</v>
+      </c>
+      <c r="C347" s="40"/>
+      <c r="D347" s="40"/>
+      <c r="E347" s="40"/>
+      <c r="F347" s="86"/>
+      <c r="G347" s="33" t="s">
+        <v>920</v>
+      </c>
+      <c r="H347" s="60"/>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A348" s="59" t="s">
         <v>820</v>
       </c>
-      <c r="F122" s="35" t="s">
+      <c r="B348" s="31"/>
+      <c r="C348" s="40"/>
+      <c r="D348" s="40"/>
+      <c r="E348" s="40"/>
+      <c r="F348" s="85" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="33" t="s">
+      <c r="G348" s="31"/>
+      <c r="H348" s="60"/>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A349" s="61"/>
+      <c r="B349" s="32" t="s">
+        <v>878</v>
+      </c>
+      <c r="C349" s="40"/>
+      <c r="D349" s="40"/>
+      <c r="E349" s="40"/>
+      <c r="F349" s="86"/>
+      <c r="G349" s="33" t="s">
+        <v>877</v>
+      </c>
+      <c r="H349" s="60"/>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A350" s="64"/>
+      <c r="B350" s="33" t="s">
+        <v>877</v>
+      </c>
+      <c r="C350" s="40"/>
+      <c r="D350" s="40"/>
+      <c r="E350" s="40"/>
+      <c r="F350" s="84"/>
+      <c r="G350" s="40"/>
+      <c r="H350" s="60"/>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A351" s="65" t="s">
         <v>821</v>
       </c>
-      <c r="F123" s="35" t="s">
+      <c r="B351" s="40"/>
+      <c r="C351" s="40"/>
+      <c r="D351" s="40"/>
+      <c r="E351" s="40"/>
+      <c r="F351" s="83" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="33" t="s">
+      <c r="G351" s="40"/>
+      <c r="H351" s="60"/>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A352" s="59" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="33" t="s">
+      <c r="B352" s="31"/>
+      <c r="C352" s="40"/>
+      <c r="D352" s="40"/>
+      <c r="E352" s="40"/>
+      <c r="F352" s="82"/>
+      <c r="G352" s="40"/>
+      <c r="H352" s="60"/>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A353" s="61"/>
+      <c r="B353" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="C353" s="40"/>
+      <c r="D353" s="40"/>
+      <c r="E353" s="40"/>
+      <c r="F353" s="82"/>
+      <c r="G353" s="40"/>
+      <c r="H353" s="60"/>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A354" s="64"/>
+      <c r="B354" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="C354" s="40"/>
+      <c r="D354" s="40"/>
+      <c r="E354" s="40"/>
+      <c r="F354" s="82"/>
+      <c r="G354" s="40"/>
+      <c r="H354" s="60"/>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A355" s="68" t="s">
         <v>823</v>
       </c>
-      <c r="F125" s="35" t="s">
+      <c r="B355" s="40"/>
+      <c r="C355" s="40"/>
+      <c r="D355" s="40"/>
+      <c r="E355" s="40"/>
+      <c r="F355" s="83" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="33" t="s">
+      <c r="G355" s="40"/>
+      <c r="H355" s="60"/>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A356" s="68" t="s">
         <v>824</v>
       </c>
-      <c r="F126" s="35" t="s">
+      <c r="B356" s="40"/>
+      <c r="C356" s="40"/>
+      <c r="D356" s="40"/>
+      <c r="E356" s="40"/>
+      <c r="F356" s="83" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="33" t="s">
+      <c r="G356" s="40"/>
+      <c r="H356" s="60"/>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A357" s="65" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="33" t="s">
+      <c r="B357" s="40"/>
+      <c r="C357" s="40"/>
+      <c r="D357" s="40"/>
+      <c r="E357" s="40"/>
+      <c r="F357" s="82"/>
+      <c r="G357" s="40"/>
+      <c r="H357" s="60"/>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A358" s="59" t="s">
         <v>826</v>
       </c>
-      <c r="F128" s="35" t="s">
+      <c r="B358" s="31"/>
+      <c r="C358" s="40"/>
+      <c r="D358" s="40"/>
+      <c r="E358" s="40"/>
+      <c r="F358" s="83" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="33" t="s">
+      <c r="G358" s="40"/>
+      <c r="H358" s="60"/>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A359" s="64"/>
+      <c r="B359" s="33" t="s">
+        <v>924</v>
+      </c>
+      <c r="C359" s="40"/>
+      <c r="D359" s="40"/>
+      <c r="E359" s="40"/>
+      <c r="F359" s="84"/>
+      <c r="G359" s="40"/>
+      <c r="H359" s="60"/>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A360" s="59" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="33" t="s">
+      <c r="B360" s="31"/>
+      <c r="C360" s="40"/>
+      <c r="D360" s="40"/>
+      <c r="E360" s="40"/>
+      <c r="F360" s="82"/>
+      <c r="G360" s="40"/>
+      <c r="H360" s="60"/>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A361" s="61"/>
+      <c r="B361" s="32" t="s">
+        <v>852</v>
+      </c>
+      <c r="C361" s="40"/>
+      <c r="D361" s="40"/>
+      <c r="E361" s="40"/>
+      <c r="F361" s="82"/>
+      <c r="G361" s="40"/>
+      <c r="H361" s="60"/>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A362" s="64"/>
+      <c r="B362" s="33" t="s">
+        <v>920</v>
+      </c>
+      <c r="C362" s="40"/>
+      <c r="D362" s="40"/>
+      <c r="E362" s="40"/>
+      <c r="F362" s="82"/>
+      <c r="G362" s="40"/>
+      <c r="H362" s="60"/>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A363" s="65" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="33" t="s">
+      <c r="B363" s="40"/>
+      <c r="C363" s="40"/>
+      <c r="D363" s="40"/>
+      <c r="E363" s="40"/>
+      <c r="F363" s="82"/>
+      <c r="G363" s="40"/>
+      <c r="H363" s="60"/>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A364" s="71" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="33" t="s">
+      <c r="B364" s="52" t="s">
+        <v>925</v>
+      </c>
+      <c r="C364" s="40"/>
+      <c r="D364" s="40"/>
+      <c r="E364" s="40"/>
+      <c r="F364" s="82"/>
+      <c r="G364" s="40"/>
+      <c r="H364" s="60"/>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A365" s="59" t="s">
         <v>830</v>
       </c>
-      <c r="F132" s="35" t="s">
+      <c r="B365" s="31"/>
+      <c r="C365" s="40"/>
+      <c r="D365" s="40"/>
+      <c r="E365" s="40"/>
+      <c r="F365" s="83" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="33" t="s">
+      <c r="G365" s="40"/>
+      <c r="H365" s="60"/>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A366" s="61"/>
+      <c r="B366" s="32" t="s">
+        <v>926</v>
+      </c>
+      <c r="C366" s="40"/>
+      <c r="D366" s="40"/>
+      <c r="E366" s="40"/>
+      <c r="F366" s="84"/>
+      <c r="G366" s="40"/>
+      <c r="H366" s="60"/>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A367" s="59" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="33" t="s">
+      <c r="B367" s="53" t="s">
+        <v>991</v>
+      </c>
+      <c r="C367" s="31"/>
+      <c r="D367" s="40"/>
+      <c r="E367" s="40"/>
+      <c r="F367" s="82"/>
+      <c r="G367" s="40"/>
+      <c r="H367" s="60"/>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A368" s="61"/>
+      <c r="B368" s="47" t="s">
+        <v>864</v>
+      </c>
+      <c r="C368" s="32"/>
+      <c r="D368" s="40"/>
+      <c r="E368" s="40"/>
+      <c r="F368" s="82"/>
+      <c r="G368" s="40"/>
+      <c r="H368" s="60"/>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A369" s="61"/>
+      <c r="B369" s="47" t="s">
+        <v>992</v>
+      </c>
+      <c r="C369" s="32"/>
+      <c r="D369" s="40"/>
+      <c r="E369" s="40"/>
+      <c r="F369" s="82"/>
+      <c r="G369" s="40"/>
+      <c r="H369" s="60"/>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A370" s="61"/>
+      <c r="B370" s="40"/>
+      <c r="C370" s="32" t="s">
+        <v>932</v>
+      </c>
+      <c r="D370" s="40"/>
+      <c r="E370" s="40"/>
+      <c r="F370" s="82"/>
+      <c r="G370" s="40"/>
+      <c r="H370" s="60"/>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A371" s="61"/>
+      <c r="B371" s="40"/>
+      <c r="C371" s="32" t="s">
+        <v>993</v>
+      </c>
+      <c r="D371" s="40"/>
+      <c r="E371" s="40"/>
+      <c r="F371" s="82"/>
+      <c r="G371" s="40"/>
+      <c r="H371" s="60"/>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A372" s="61"/>
+      <c r="B372" s="40"/>
+      <c r="C372" s="32" t="s">
+        <v>830</v>
+      </c>
+      <c r="D372" s="40"/>
+      <c r="E372" s="40"/>
+      <c r="F372" s="82"/>
+      <c r="G372" s="40"/>
+      <c r="H372" s="60"/>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A373" s="61"/>
+      <c r="B373" s="40"/>
+      <c r="C373" s="32" t="s">
+        <v>920</v>
+      </c>
+      <c r="D373" s="40"/>
+      <c r="E373" s="40"/>
+      <c r="F373" s="82"/>
+      <c r="G373" s="40"/>
+      <c r="H373" s="60"/>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A374" s="61"/>
+      <c r="B374" s="40"/>
+      <c r="C374" s="32" t="s">
+        <v>853</v>
+      </c>
+      <c r="D374" s="40"/>
+      <c r="E374" s="40"/>
+      <c r="F374" s="82"/>
+      <c r="G374" s="40"/>
+      <c r="H374" s="60"/>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A375" s="61"/>
+      <c r="B375" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="C375" s="32"/>
+      <c r="D375" s="40"/>
+      <c r="E375" s="40"/>
+      <c r="F375" s="82"/>
+      <c r="G375" s="40"/>
+      <c r="H375" s="60"/>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A376" s="61"/>
+      <c r="B376" s="40" t="s">
+        <v>995</v>
+      </c>
+      <c r="C376" s="32"/>
+      <c r="D376" s="40"/>
+      <c r="E376" s="40"/>
+      <c r="F376" s="82"/>
+      <c r="G376" s="40"/>
+      <c r="H376" s="60"/>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A377" s="61"/>
+      <c r="B377" s="40" t="s">
+        <v>890</v>
+      </c>
+      <c r="C377" s="32"/>
+      <c r="D377" s="40"/>
+      <c r="E377" s="40"/>
+      <c r="F377" s="82"/>
+      <c r="G377" s="40"/>
+      <c r="H377" s="60"/>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A378" s="61"/>
+      <c r="B378" s="40"/>
+      <c r="C378" s="32" t="s">
+        <v>993</v>
+      </c>
+      <c r="D378" s="40"/>
+      <c r="E378" s="40"/>
+      <c r="F378" s="82"/>
+      <c r="G378" s="40"/>
+      <c r="H378" s="60"/>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A379" s="61"/>
+      <c r="B379" s="40"/>
+      <c r="C379" s="32" t="s">
+        <v>860</v>
+      </c>
+      <c r="D379" s="40"/>
+      <c r="E379" s="40"/>
+      <c r="F379" s="82"/>
+      <c r="G379" s="40"/>
+      <c r="H379" s="60"/>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A380" s="61"/>
+      <c r="B380" s="40" t="s">
+        <v>827</v>
+      </c>
+      <c r="C380" s="32"/>
+      <c r="D380" s="40"/>
+      <c r="E380" s="40"/>
+      <c r="F380" s="82"/>
+      <c r="G380" s="40"/>
+      <c r="H380" s="60"/>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A381" s="61"/>
+      <c r="B381" s="40"/>
+      <c r="C381" s="32" t="s">
+        <v>852</v>
+      </c>
+      <c r="D381" s="40"/>
+      <c r="E381" s="40"/>
+      <c r="F381" s="82"/>
+      <c r="G381" s="40"/>
+      <c r="H381" s="60"/>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A382" s="61"/>
+      <c r="B382" s="40"/>
+      <c r="C382" s="32" t="s">
+        <v>920</v>
+      </c>
+      <c r="D382" s="40"/>
+      <c r="E382" s="40"/>
+      <c r="F382" s="82"/>
+      <c r="G382" s="40"/>
+      <c r="H382" s="60"/>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A383" s="61"/>
+      <c r="B383" s="40"/>
+      <c r="C383" s="32" t="s">
+        <v>853</v>
+      </c>
+      <c r="D383" s="40"/>
+      <c r="E383" s="40"/>
+      <c r="F383" s="82"/>
+      <c r="G383" s="40"/>
+      <c r="H383" s="60"/>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A384" s="61"/>
+      <c r="B384" s="40"/>
+      <c r="C384" s="32" t="s">
+        <v>996</v>
+      </c>
+      <c r="D384" s="40"/>
+      <c r="E384" s="40"/>
+      <c r="F384" s="82"/>
+      <c r="G384" s="40"/>
+      <c r="H384" s="60"/>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A385" s="61"/>
+      <c r="B385" s="40" t="s">
+        <v>874</v>
+      </c>
+      <c r="C385" s="32"/>
+      <c r="D385" s="40"/>
+      <c r="E385" s="40"/>
+      <c r="F385" s="82"/>
+      <c r="G385" s="40"/>
+      <c r="H385" s="60"/>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A386" s="61"/>
+      <c r="B386" s="40" t="s">
+        <v>830</v>
+      </c>
+      <c r="C386" s="32"/>
+      <c r="D386" s="40"/>
+      <c r="E386" s="40"/>
+      <c r="F386" s="82"/>
+      <c r="G386" s="40"/>
+      <c r="H386" s="60"/>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A387" s="61"/>
+      <c r="B387" s="40" t="s">
+        <v>875</v>
+      </c>
+      <c r="C387" s="32"/>
+      <c r="D387" s="40"/>
+      <c r="E387" s="40"/>
+      <c r="F387" s="82"/>
+      <c r="G387" s="40"/>
+      <c r="H387" s="60"/>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A388" s="64"/>
+      <c r="B388" s="42" t="s">
+        <v>997</v>
+      </c>
+      <c r="C388" s="33"/>
+      <c r="D388" s="40"/>
+      <c r="E388" s="40"/>
+      <c r="F388" s="82"/>
+      <c r="G388" s="40"/>
+      <c r="H388" s="60"/>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A389" s="59" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="33" t="s">
+      <c r="B389" s="53" t="s">
+        <v>998</v>
+      </c>
+      <c r="C389" s="31"/>
+      <c r="D389" s="40"/>
+      <c r="E389" s="40"/>
+      <c r="F389" s="82"/>
+      <c r="G389" s="40"/>
+      <c r="H389" s="60"/>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A390" s="61"/>
+      <c r="B390" s="40"/>
+      <c r="C390" s="32" t="s">
+        <v>999</v>
+      </c>
+      <c r="D390" s="40"/>
+      <c r="E390" s="40"/>
+      <c r="F390" s="82"/>
+      <c r="G390" s="40"/>
+      <c r="H390" s="60"/>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A391" s="61"/>
+      <c r="B391" s="40"/>
+      <c r="C391" s="32" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D391" s="40"/>
+      <c r="E391" s="40"/>
+      <c r="F391" s="82"/>
+      <c r="G391" s="40"/>
+      <c r="H391" s="60"/>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A392" s="61"/>
+      <c r="B392" s="40"/>
+      <c r="C392" s="32" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D392" s="40"/>
+      <c r="E392" s="40"/>
+      <c r="F392" s="82"/>
+      <c r="G392" s="40"/>
+      <c r="H392" s="60"/>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A393" s="61"/>
+      <c r="B393" s="40"/>
+      <c r="C393" s="32" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D393" s="40"/>
+      <c r="E393" s="40"/>
+      <c r="F393" s="82"/>
+      <c r="G393" s="40"/>
+      <c r="H393" s="60"/>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A394" s="61"/>
+      <c r="B394" s="40"/>
+      <c r="C394" s="32" t="s">
+        <v>853</v>
+      </c>
+      <c r="D394" s="40"/>
+      <c r="E394" s="40"/>
+      <c r="F394" s="82"/>
+      <c r="G394" s="40"/>
+      <c r="H394" s="60"/>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A395" s="61"/>
+      <c r="B395" s="40" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C395" s="32"/>
+      <c r="D395" s="40"/>
+      <c r="E395" s="40"/>
+      <c r="F395" s="82"/>
+      <c r="G395" s="40"/>
+      <c r="H395" s="60"/>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A396" s="61"/>
+      <c r="B396" s="40"/>
+      <c r="C396" s="32" t="s">
+        <v>853</v>
+      </c>
+      <c r="D396" s="40"/>
+      <c r="E396" s="40"/>
+      <c r="F396" s="82"/>
+      <c r="G396" s="40"/>
+      <c r="H396" s="60"/>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A397" s="61"/>
+      <c r="B397" s="40" t="s">
+        <v>874</v>
+      </c>
+      <c r="C397" s="32"/>
+      <c r="D397" s="40"/>
+      <c r="E397" s="40"/>
+      <c r="F397" s="82"/>
+      <c r="G397" s="40"/>
+      <c r="H397" s="60"/>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A398" s="64"/>
+      <c r="B398" s="42" t="s">
+        <v>875</v>
+      </c>
+      <c r="C398" s="33"/>
+      <c r="D398" s="40"/>
+      <c r="E398" s="40"/>
+      <c r="F398" s="82"/>
+      <c r="G398" s="40"/>
+      <c r="H398" s="60"/>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A399" s="59" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="33" t="s">
+      <c r="B399" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C399" s="31"/>
+      <c r="D399" s="40"/>
+      <c r="E399" s="40"/>
+      <c r="F399" s="82"/>
+      <c r="G399" s="40"/>
+      <c r="H399" s="60"/>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A400" s="61"/>
+      <c r="B400" s="47" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C400" s="32" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D400" s="40"/>
+      <c r="E400" s="40"/>
+      <c r="F400" s="82"/>
+      <c r="G400" s="40"/>
+      <c r="H400" s="60"/>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A401" s="61"/>
+      <c r="B401" s="40"/>
+      <c r="C401" s="32" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D401" s="40"/>
+      <c r="E401" s="40"/>
+      <c r="F401" s="82"/>
+      <c r="G401" s="40"/>
+      <c r="H401" s="60"/>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A402" s="61"/>
+      <c r="B402" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C402" s="32"/>
+      <c r="D402" s="40"/>
+      <c r="E402" s="40"/>
+      <c r="F402" s="82"/>
+      <c r="G402" s="40"/>
+      <c r="H402" s="60"/>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A403" s="61"/>
+      <c r="B403" s="40" t="s">
+        <v>957</v>
+      </c>
+      <c r="C403" s="32"/>
+      <c r="D403" s="40"/>
+      <c r="E403" s="40"/>
+      <c r="F403" s="82"/>
+      <c r="G403" s="40"/>
+      <c r="H403" s="60"/>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A404" s="61"/>
+      <c r="B404" s="40" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C404" s="32"/>
+      <c r="D404" s="40"/>
+      <c r="E404" s="40"/>
+      <c r="F404" s="82"/>
+      <c r="G404" s="40"/>
+      <c r="H404" s="60"/>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A405" s="61"/>
+      <c r="B405" s="40" t="s">
+        <v>972</v>
+      </c>
+      <c r="C405" s="32"/>
+      <c r="D405" s="40"/>
+      <c r="E405" s="40"/>
+      <c r="F405" s="82"/>
+      <c r="G405" s="40"/>
+      <c r="H405" s="60"/>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A406" s="61"/>
+      <c r="B406" s="40" t="s">
+        <v>949</v>
+      </c>
+      <c r="C406" s="32"/>
+      <c r="D406" s="40"/>
+      <c r="E406" s="40"/>
+      <c r="F406" s="82"/>
+      <c r="G406" s="40"/>
+      <c r="H406" s="60"/>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A407" s="61"/>
+      <c r="B407" s="40" t="s">
+        <v>942</v>
+      </c>
+      <c r="C407" s="32"/>
+      <c r="D407" s="40"/>
+      <c r="E407" s="40"/>
+      <c r="F407" s="82"/>
+      <c r="G407" s="40"/>
+      <c r="H407" s="60"/>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A408" s="61"/>
+      <c r="B408" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C408" s="32"/>
+      <c r="D408" s="40"/>
+      <c r="E408" s="40"/>
+      <c r="F408" s="82"/>
+      <c r="G408" s="40"/>
+      <c r="H408" s="60"/>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A409" s="64"/>
+      <c r="B409" s="42" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C409" s="33"/>
+      <c r="D409" s="40"/>
+      <c r="E409" s="40"/>
+      <c r="F409" s="82"/>
+      <c r="G409" s="40"/>
+      <c r="H409" s="60"/>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A410" s="64" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="33" t="s">
+      <c r="B410" s="33" t="s">
+        <v>927</v>
+      </c>
+      <c r="C410" s="40"/>
+      <c r="D410" s="40"/>
+      <c r="E410" s="40"/>
+      <c r="F410" s="82"/>
+      <c r="G410" s="40"/>
+      <c r="H410" s="60"/>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A411" s="59" t="s">
         <v>835</v>
       </c>
-      <c r="F137" s="35" t="s">
+      <c r="B411" s="31" t="s">
+        <v>874</v>
+      </c>
+      <c r="C411" s="40"/>
+      <c r="D411" s="40"/>
+      <c r="E411" s="40"/>
+      <c r="F411" s="85" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="33" t="s">
+      <c r="G411" s="31" t="s">
+        <v>874</v>
+      </c>
+      <c r="H411" s="60"/>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A412" s="61"/>
+      <c r="B412" s="32" t="s">
+        <v>875</v>
+      </c>
+      <c r="C412" s="40"/>
+      <c r="D412" s="40"/>
+      <c r="E412" s="40"/>
+      <c r="F412" s="86"/>
+      <c r="G412" s="33" t="s">
+        <v>875</v>
+      </c>
+      <c r="H412" s="60"/>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A413" s="64"/>
+      <c r="B413" s="33" t="s">
+        <v>845</v>
+      </c>
+      <c r="C413" s="40"/>
+      <c r="D413" s="40"/>
+      <c r="E413" s="40"/>
+      <c r="F413" s="84"/>
+      <c r="G413" s="40"/>
+      <c r="H413" s="60"/>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A414" s="59" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="33" t="s">
+      <c r="B414" s="31"/>
+      <c r="C414" s="40"/>
+      <c r="D414" s="40"/>
+      <c r="E414" s="40"/>
+      <c r="F414" s="82"/>
+      <c r="G414" s="40"/>
+      <c r="H414" s="60"/>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A415" s="61"/>
+      <c r="B415" s="32" t="s">
+        <v>879</v>
+      </c>
+      <c r="C415" s="40"/>
+      <c r="D415" s="40"/>
+      <c r="E415" s="40"/>
+      <c r="F415" s="82"/>
+      <c r="G415" s="40"/>
+      <c r="H415" s="60"/>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A416" s="61"/>
+      <c r="B416" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="C416" s="40"/>
+      <c r="D416" s="40"/>
+      <c r="E416" s="40"/>
+      <c r="F416" s="82"/>
+      <c r="G416" s="40"/>
+      <c r="H416" s="60"/>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A417" s="59" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="33" t="s">
+      <c r="B417" s="38"/>
+      <c r="C417" s="31"/>
+      <c r="D417" s="40"/>
+      <c r="E417" s="40"/>
+      <c r="F417" s="82"/>
+      <c r="G417" s="40"/>
+      <c r="H417" s="60"/>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A418" s="61"/>
+      <c r="B418" s="40" t="s">
+        <v>855</v>
+      </c>
+      <c r="C418" s="32"/>
+      <c r="D418" s="40"/>
+      <c r="E418" s="40"/>
+      <c r="F418" s="82"/>
+      <c r="G418" s="40"/>
+      <c r="H418" s="60"/>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A419" s="61"/>
+      <c r="B419" s="40" t="s">
+        <v>856</v>
+      </c>
+      <c r="C419" s="32"/>
+      <c r="D419" s="40"/>
+      <c r="E419" s="40"/>
+      <c r="F419" s="82"/>
+      <c r="G419" s="40"/>
+      <c r="H419" s="60"/>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A420" s="61"/>
+      <c r="B420" s="40" t="s">
+        <v>928</v>
+      </c>
+      <c r="C420" s="32"/>
+      <c r="D420" s="40"/>
+      <c r="E420" s="40"/>
+      <c r="F420" s="82"/>
+      <c r="G420" s="40"/>
+      <c r="H420" s="60"/>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A421" s="61"/>
+      <c r="B421" s="40"/>
+      <c r="C421" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="D421" s="40"/>
+      <c r="E421" s="40"/>
+      <c r="F421" s="82"/>
+      <c r="G421" s="40"/>
+      <c r="H421" s="60"/>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A422" s="61"/>
+      <c r="B422" s="40"/>
+      <c r="C422" s="32" t="s">
+        <v>856</v>
+      </c>
+      <c r="D422" s="40"/>
+      <c r="E422" s="40"/>
+      <c r="F422" s="82"/>
+      <c r="G422" s="40"/>
+      <c r="H422" s="60"/>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A423" s="61"/>
+      <c r="B423" s="40" t="s">
+        <v>929</v>
+      </c>
+      <c r="C423" s="32"/>
+      <c r="D423" s="40"/>
+      <c r="E423" s="40"/>
+      <c r="F423" s="82"/>
+      <c r="G423" s="40"/>
+      <c r="H423" s="60"/>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A424" s="61"/>
+      <c r="B424" s="40" t="s">
+        <v>750</v>
+      </c>
+      <c r="C424" s="32"/>
+      <c r="D424" s="40"/>
+      <c r="E424" s="40"/>
+      <c r="F424" s="82"/>
+      <c r="G424" s="40"/>
+      <c r="H424" s="60"/>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A425" s="61"/>
+      <c r="B425" s="40"/>
+      <c r="C425" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="D425" s="40"/>
+      <c r="E425" s="40"/>
+      <c r="F425" s="82"/>
+      <c r="G425" s="40"/>
+      <c r="H425" s="60"/>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A426" s="64"/>
+      <c r="B426" s="42" t="s">
+        <v>860</v>
+      </c>
+      <c r="C426" s="33"/>
+      <c r="D426" s="40"/>
+      <c r="E426" s="40"/>
+      <c r="F426" s="82"/>
+      <c r="G426" s="40"/>
+      <c r="H426" s="60"/>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A427" s="59" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="33" t="s">
+      <c r="B427" s="51" t="s">
+        <v>855</v>
+      </c>
+      <c r="C427" s="40"/>
+      <c r="D427" s="40"/>
+      <c r="E427" s="40"/>
+      <c r="F427" s="82"/>
+      <c r="G427" s="40"/>
+      <c r="H427" s="60"/>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A428" s="64"/>
+      <c r="B428" s="50" t="s">
+        <v>856</v>
+      </c>
+      <c r="C428" s="40"/>
+      <c r="D428" s="40"/>
+      <c r="E428" s="40"/>
+      <c r="F428" s="82"/>
+      <c r="G428" s="40"/>
+      <c r="H428" s="60"/>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A429" s="65" t="s">
         <v>839</v>
       </c>
-      <c r="F141" s="35" t="s">
+      <c r="B429" s="40"/>
+      <c r="C429" s="40"/>
+      <c r="D429" s="40"/>
+      <c r="E429" s="40"/>
+      <c r="F429" s="83" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="33" t="s">
+      <c r="G429" s="40"/>
+      <c r="H429" s="60"/>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A430" s="59" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="33" t="s">
+      <c r="B430" s="38" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C430" s="31"/>
+      <c r="D430" s="40"/>
+      <c r="E430" s="40"/>
+      <c r="F430" s="82"/>
+      <c r="G430" s="40"/>
+      <c r="H430" s="60"/>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A431" s="61"/>
+      <c r="B431" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C431" s="32"/>
+      <c r="D431" s="40"/>
+      <c r="E431" s="40"/>
+      <c r="F431" s="82"/>
+      <c r="G431" s="40"/>
+      <c r="H431" s="60"/>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A432" s="61"/>
+      <c r="B432" s="40" t="s">
+        <v>957</v>
+      </c>
+      <c r="C432" s="32"/>
+      <c r="D432" s="40"/>
+      <c r="E432" s="40"/>
+      <c r="F432" s="82"/>
+      <c r="G432" s="40"/>
+      <c r="H432" s="60"/>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A433" s="61"/>
+      <c r="B433" s="40" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C433" s="32"/>
+      <c r="D433" s="40"/>
+      <c r="E433" s="40"/>
+      <c r="F433" s="82"/>
+      <c r="G433" s="40"/>
+      <c r="H433" s="60"/>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A434" s="61"/>
+      <c r="B434" s="40"/>
+      <c r="C434" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="D434" s="40"/>
+      <c r="E434" s="40"/>
+      <c r="F434" s="82"/>
+      <c r="G434" s="40"/>
+      <c r="H434" s="60"/>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A435" s="61"/>
+      <c r="B435" s="40"/>
+      <c r="C435" s="32" t="s">
+        <v>856</v>
+      </c>
+      <c r="D435" s="40"/>
+      <c r="E435" s="40"/>
+      <c r="F435" s="82"/>
+      <c r="G435" s="40"/>
+      <c r="H435" s="60"/>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A436" s="61"/>
+      <c r="B436" s="40" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C436" s="32"/>
+      <c r="D436" s="40"/>
+      <c r="E436" s="40"/>
+      <c r="F436" s="82"/>
+      <c r="G436" s="40"/>
+      <c r="H436" s="60"/>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A437" s="64"/>
+      <c r="B437" s="42" t="s">
+        <v>942</v>
+      </c>
+      <c r="C437" s="33"/>
+      <c r="D437" s="40"/>
+      <c r="E437" s="40"/>
+      <c r="F437" s="82"/>
+      <c r="G437" s="40"/>
+      <c r="H437" s="60"/>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A438" s="59" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="33" t="s">
+      <c r="B438" s="38" t="s">
+        <v>852</v>
+      </c>
+      <c r="C438" s="31"/>
+      <c r="D438" s="40"/>
+      <c r="E438" s="40"/>
+      <c r="F438" s="82"/>
+      <c r="G438" s="40"/>
+      <c r="H438" s="60"/>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A439" s="61"/>
+      <c r="B439" s="40" t="s">
+        <v>920</v>
+      </c>
+      <c r="C439" s="32"/>
+      <c r="D439" s="40"/>
+      <c r="E439" s="40"/>
+      <c r="F439" s="82"/>
+      <c r="G439" s="40"/>
+      <c r="H439" s="60"/>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A440" s="61"/>
+      <c r="B440" s="40"/>
+      <c r="C440" s="32" t="s">
+        <v>930</v>
+      </c>
+      <c r="D440" s="40"/>
+      <c r="E440" s="40"/>
+      <c r="F440" s="82"/>
+      <c r="G440" s="40"/>
+      <c r="H440" s="60"/>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A441" s="64"/>
+      <c r="B441" s="42" t="s">
+        <v>919</v>
+      </c>
+      <c r="C441" s="33"/>
+      <c r="D441" s="40"/>
+      <c r="E441" s="40"/>
+      <c r="F441" s="82"/>
+      <c r="G441" s="40"/>
+      <c r="H441" s="60"/>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A442" s="59" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="33" t="s">
+      <c r="B442" s="31"/>
+      <c r="C442" s="40"/>
+      <c r="D442" s="40"/>
+      <c r="E442" s="40"/>
+      <c r="F442" s="82"/>
+      <c r="G442" s="40"/>
+      <c r="H442" s="60"/>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A443" s="64"/>
+      <c r="B443" s="33" t="s">
+        <v>931</v>
+      </c>
+      <c r="C443" s="40"/>
+      <c r="D443" s="40"/>
+      <c r="E443" s="40"/>
+      <c r="F443" s="82"/>
+      <c r="G443" s="40"/>
+      <c r="H443" s="60"/>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A444" s="59" t="s">
         <v>843</v>
       </c>
-      <c r="F145" s="35" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="33" t="s">
+      <c r="B444" s="51" t="s">
+        <v>932</v>
+      </c>
+      <c r="C444" s="40"/>
+      <c r="D444" s="40"/>
+      <c r="E444" s="40"/>
+      <c r="F444" s="84"/>
+      <c r="G444" s="40"/>
+      <c r="H444" s="60"/>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A445" s="61"/>
+      <c r="B445" s="49" t="s">
+        <v>933</v>
+      </c>
+      <c r="C445" s="40"/>
+      <c r="D445" s="40"/>
+      <c r="E445" s="40"/>
+      <c r="F445" s="84"/>
+      <c r="G445" s="40"/>
+      <c r="H445" s="60"/>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A446" s="64"/>
+      <c r="B446" s="50" t="s">
+        <v>934</v>
+      </c>
+      <c r="C446" s="40"/>
+      <c r="D446" s="40"/>
+      <c r="E446" s="40"/>
+      <c r="F446" s="84"/>
+      <c r="G446" s="40"/>
+      <c r="H446" s="60"/>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A447" s="59" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="33" t="s">
+      <c r="B447" s="51" t="s">
+        <v>935</v>
+      </c>
+      <c r="C447" s="40"/>
+      <c r="D447" s="40"/>
+      <c r="E447" s="40"/>
+      <c r="F447" s="82"/>
+      <c r="G447" s="40"/>
+      <c r="H447" s="60"/>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A448" s="64"/>
+      <c r="B448" s="50" t="s">
+        <v>936</v>
+      </c>
+      <c r="C448" s="40"/>
+      <c r="D448" s="40"/>
+      <c r="E448" s="40"/>
+      <c r="F448" s="82"/>
+      <c r="G448" s="40"/>
+      <c r="H448" s="60"/>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A449" s="59" t="s">
         <v>845</v>
       </c>
-      <c r="F147" s="35" t="s">
+      <c r="B449" s="31"/>
+      <c r="C449" s="40"/>
+      <c r="D449" s="40"/>
+      <c r="E449" s="40"/>
+      <c r="F449" s="83" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="33" t="s">
+      <c r="G449" s="40"/>
+      <c r="H449" s="60"/>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A450" s="64"/>
+      <c r="B450" s="33" t="s">
+        <v>937</v>
+      </c>
+      <c r="C450" s="40"/>
+      <c r="D450" s="40"/>
+      <c r="E450" s="40"/>
+      <c r="F450" s="84"/>
+      <c r="G450" s="40"/>
+      <c r="H450" s="60"/>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A451" s="59" t="s">
         <v>846</v>
       </c>
+      <c r="B451" s="51" t="s">
+        <v>739</v>
+      </c>
+      <c r="C451" s="40"/>
+      <c r="D451" s="40"/>
+      <c r="E451" s="40"/>
+      <c r="F451" s="82"/>
+      <c r="G451" s="40"/>
+      <c r="H451" s="60"/>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A452" s="62"/>
+      <c r="B452" s="49" t="s">
+        <v>948</v>
+      </c>
+      <c r="C452" s="40"/>
+      <c r="D452" s="40"/>
+      <c r="E452" s="40"/>
+      <c r="F452" s="82"/>
+      <c r="G452" s="40"/>
+      <c r="H452" s="60"/>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A453" s="62"/>
+      <c r="B453" s="49" t="s">
+        <v>949</v>
+      </c>
+      <c r="C453" s="40"/>
+      <c r="D453" s="40"/>
+      <c r="E453" s="40"/>
+      <c r="F453" s="82"/>
+      <c r="G453" s="40"/>
+      <c r="H453" s="60"/>
+    </row>
+    <row r="454" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A454" s="72"/>
+      <c r="B454" s="73" t="s">
+        <v>950</v>
+      </c>
+      <c r="C454" s="74"/>
+      <c r="D454" s="75"/>
+      <c r="E454" s="75"/>
+      <c r="F454" s="89"/>
+      <c r="G454" s="75"/>
+      <c r="H454" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" location="ba" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - ba" xr:uid="{8D5600A4-3E18-4697-BA38-549D2E0395D9}"/>
     <hyperlink ref="A12" r:id="rId2" location="bbr" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - bbr" xr:uid="{58B22775-3EAB-40AB-A137-675B0F249766}"/>
     <hyperlink ref="A24" r:id="rId3" display="https://github.com/openthread/openthread/blob/main/src/cli/README_BR.md" xr:uid="{C6C731B7-D5F9-4B23-B256-CFFEB3ECC517}"/>
-    <hyperlink ref="A25" r:id="rId4" location="bufferinfo" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - bufferinfo" xr:uid="{7BB4C334-9D82-4A67-9F6E-38A537B63732}"/>
-    <hyperlink ref="A27" r:id="rId5" location="ccathreshold" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - ccathreshold" xr:uid="{4C1AD860-7276-47A5-A9DD-884305451FCF}"/>
-    <hyperlink ref="A28" r:id="rId6" location="channel" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - channel" xr:uid="{79901B17-AD83-4D87-94F5-23D5E5A5E600}"/>
-    <hyperlink ref="A42" r:id="rId7" location="child-list" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - child-list" xr:uid="{4A8AB617-3FC6-4796-9779-296CC2C4597A}"/>
-    <hyperlink ref="A43" r:id="rId8" location="childip" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - childip" xr:uid="{0A806AD5-037F-4B60-9903-D9BB0FBAA04E}"/>
-    <hyperlink ref="A44" r:id="rId9" location="childmax" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - childmax" xr:uid="{4FBF34D0-860B-43C3-8C46-5BBA2FF23F13}"/>
-    <hyperlink ref="A45" r:id="rId10" location="childsupervision-interval" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - childsupervision-interval" xr:uid="{1A875965-1143-4253-B61F-2AF6F15BFFF4}"/>
-    <hyperlink ref="A46" r:id="rId11" location="childtimeout" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - childtimeout" xr:uid="{243D88A8-26E3-4897-B21D-8B14A2BA36A0}"/>
-    <hyperlink ref="A47" r:id="rId12" display="https://github.com/openthread/openthread/blob/main/src/cli/README_COAP.md" xr:uid="{C2854D17-48CE-4F7B-867D-F75ED3A88C70}"/>
-    <hyperlink ref="A48" r:id="rId13" display="https://github.com/openthread/openthread/blob/main/src/cli/README_COAPS.md" xr:uid="{46EDF370-3654-4A72-A7E4-1F62A0BABC11}"/>
-    <hyperlink ref="A49" r:id="rId14" location="coex" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - coex" xr:uid="{B122F81F-3851-4F0F-BA90-2EFB6B705B74}"/>
-    <hyperlink ref="A50" r:id="rId15" display="https://github.com/openthread/openthread/blob/main/src/cli/README_COMMISSIONER.md" xr:uid="{0660644E-566B-4938-86AE-9371D7ABA509}"/>
-    <hyperlink ref="A51" r:id="rId16" location="contextreusedelay" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - contextreusedelay" xr:uid="{467E2672-3FAD-4C3F-9751-1255B25FA6DD}"/>
-    <hyperlink ref="A52" r:id="rId17" location="counters" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - counters" xr:uid="{09B04CC8-8F82-4367-93D4-5E4A0B50FDCB}"/>
-    <hyperlink ref="A53" r:id="rId18" location="csl" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - csl" xr:uid="{F69FA219-E6F4-4F39-BB17-C719EE6B97E1}"/>
-    <hyperlink ref="A54" r:id="rId19" display="https://github.com/openthread/openthread/blob/main/src/cli/README_DATASET.md" xr:uid="{6BE624B4-44EB-40B4-BEC6-79EE34D6F01F}"/>
-    <hyperlink ref="A55" r:id="rId20" location="debug" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - debug" xr:uid="{50F643D6-361C-4DA5-83FF-E0A21533CC2F}"/>
-    <hyperlink ref="A56" r:id="rId21" location="delaytimermin" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - delaytimermin" xr:uid="{ACD9CAF6-FD8D-445B-AE94-E1662768DD5B}"/>
-    <hyperlink ref="A57" r:id="rId22" location="detach" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - detach" xr:uid="{F19E366F-FF0B-4631-905D-B1249590912B}"/>
-    <hyperlink ref="A58" r:id="rId23" location="deviceprops" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - deviceprops" xr:uid="{B3B3AA7E-313A-4A66-A00B-0E3065C1A923}"/>
-    <hyperlink ref="A59" r:id="rId24" location="diag" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - diag" xr:uid="{666617B4-02C4-4496-8150-5D95223E3644}"/>
-    <hyperlink ref="A60" r:id="rId25" location="discover-channel" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - discover-channel" xr:uid="{1750CD7B-AE21-4A9C-93AF-36DF2883D9C3}"/>
-    <hyperlink ref="A61" r:id="rId26" location="dns-config" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - dns-config" xr:uid="{D2CF6850-F08A-4053-A7B8-035A76F61690}"/>
-    <hyperlink ref="A62" r:id="rId27" location="domainname" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - domainname" xr:uid="{32064DD1-9626-4CBA-97E8-363C194048E4}"/>
-    <hyperlink ref="A63" r:id="rId28" location="dua-iid" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - dua-iid" xr:uid="{636C0A55-329D-4F24-9B50-4C92EFA2028F}"/>
-    <hyperlink ref="A64" r:id="rId29" location="eidcache" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - eidcache" xr:uid="{AD452F60-E72D-4F03-B294-08BF37E135C0}"/>
-    <hyperlink ref="A65" r:id="rId30" location="eui64" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - eui64" xr:uid="{40EFBC65-8D8B-43E1-8220-B0B1A2BBE284}"/>
-    <hyperlink ref="A66" r:id="rId31" location="extaddr" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - extaddr" xr:uid="{F38018AF-8E08-4AA6-AE18-5FE583C5A593}"/>
-    <hyperlink ref="A67" r:id="rId32" location="extpanid" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - extpanid" xr:uid="{47FF21E8-C6E9-49A5-9B76-EBCCC120689E}"/>
-    <hyperlink ref="A68" r:id="rId33" location="factoryreset" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - factoryreset" xr:uid="{03D5697C-4E89-4D59-8F49-7EFB42C96E4B}"/>
-    <hyperlink ref="A69" r:id="rId34" location="fake" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - fake" xr:uid="{73FA7D8C-5952-4652-8E78-F3174BC813BA}"/>
-    <hyperlink ref="A70" r:id="rId35" location="fem" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - fem" xr:uid="{E68F0D33-2F3E-45A2-BBEA-6043ECF89F76}"/>
-    <hyperlink ref="A71" r:id="rId36" display="https://github.com/openthread/openthread/blob/main/src/cli/README_HISTORY.md" xr:uid="{F17D543F-5836-4C67-B237-EA24EC0065AD}"/>
-    <hyperlink ref="A72" r:id="rId37" location="ifconfig" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - ifconfig" xr:uid="{8CCB64A0-3301-4AE2-81D6-032B5E3960D6}"/>
-    <hyperlink ref="A73" r:id="rId38" location="instanceid" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - instanceid" xr:uid="{45586D23-D4A3-4F7B-BC32-E759581CFFE9}"/>
-    <hyperlink ref="A74" r:id="rId39" location="ipaddr" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - ipaddr" xr:uid="{EA16BE0B-F624-4B20-8BE4-BBAEC86A9B33}"/>
-    <hyperlink ref="A75" r:id="rId40" location="ipmaddr" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - ipmaddr" xr:uid="{B7424E05-228D-45C3-87B7-97D44591B80B}"/>
-    <hyperlink ref="A76" r:id="rId41" display="https://github.com/openthread/openthread/blob/main/src/cli/README_JOINER.md" xr:uid="{CBA3AB7A-0A20-4E85-AA26-D731558734A9}"/>
-    <hyperlink ref="A77" r:id="rId42" location="joinerport-port" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - joinerport-port" xr:uid="{53ECDFC5-3816-4901-A7D8-EDD544A04247}"/>
-    <hyperlink ref="A78" r:id="rId43" location="keysequence-counter" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - keysequence-counter" xr:uid="{2B10C1B3-7E2E-4836-9519-BC0DE86BCB91}"/>
-    <hyperlink ref="A79" r:id="rId44" location="leaderdata" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - leaderdata" xr:uid="{D21CEB03-00BC-4B73-A2F4-BDF77C6FB4D2}"/>
-    <hyperlink ref="A80" r:id="rId45" location="leaderweight" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - leaderweight" xr:uid="{168C30E4-6D7F-4F70-9BEE-64483B160DE4}"/>
-    <hyperlink ref="A81" r:id="rId46" location="linkmetrics-config-async-ipaddr-enhanced-ack-clear" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - linkmetrics-config-async-ipaddr-enhanced-ack-clear" xr:uid="{FF7DA7B7-10A7-4C26-A564-C804907066CD}"/>
-    <hyperlink ref="A82" r:id="rId47" location="linkmetricsmgr-disable" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - linkmetricsmgr-disable" xr:uid="{F8A005C5-6F11-48D2-8B9A-3136C2D92BD2}"/>
-    <hyperlink ref="A83" r:id="rId48" location="locate" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - locate" xr:uid="{791C9B0F-BEA0-4F72-9633-1E4337A0C3AF}"/>
-    <hyperlink ref="A84" r:id="rId49" location="log-filename-filename" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - log-filename-filename" xr:uid="{4086F69E-ED36-42E6-BE46-00BFECDE4E39}"/>
-    <hyperlink ref="A85" r:id="rId50" location="mac-altshortaddr" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - mac-altshortaddr" xr:uid="{819631CA-7F7C-4BD4-8791-EFEA9ECFD5C5}"/>
-    <hyperlink ref="A86" r:id="rId51" location="macfilter" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - macfilter" xr:uid="{AAC55C36-B3BC-45B0-B130-AE58EFC22452}"/>
-    <hyperlink ref="A87" r:id="rId52" location="meshdiag-topology-ip6-addrs-children" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - meshdiag-topology-ip6-addrs-children" xr:uid="{7476D9CB-A5C6-4547-BB12-511C9069C1BF}"/>
-    <hyperlink ref="A88" r:id="rId53" location="mliid-iid" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - mliid-iid" xr:uid="{AA44855F-A51C-4D11-8019-A5A5D01A6415}"/>
-    <hyperlink ref="A89" r:id="rId54" location="mlr-reg-ipaddr--timeout" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - mlr-reg-ipaddr--timeout" xr:uid="{F0CB3544-B443-4D25-A20C-84649F12288C}"/>
-    <hyperlink ref="A90" r:id="rId55" location="mode" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - mode" xr:uid="{A488F151-BD9C-4D00-A862-2CB93E37A9F2}"/>
-    <hyperlink ref="A91" r:id="rId56" location="multiradio" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - multiradio" xr:uid="{CBD9C93D-5D16-437D-9D1D-A6CAB2BEC514}"/>
-    <hyperlink ref="A92" r:id="rId57" location="nat64-cidr" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - nat64-cidr" xr:uid="{465CC395-3FAC-49B0-A465-71ADD3B44C94}"/>
-    <hyperlink ref="A93" r:id="rId58" location="neighbor-list" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - neighbor-list" xr:uid="{613A85B7-974B-4B7D-89DA-EEAA289B9F66}"/>
-    <hyperlink ref="A94" r:id="rId59" display="https://github.com/openthread/openthread/blob/main/src/cli/README_NETDATA.md" xr:uid="{2AC6F2B2-06D3-4868-8514-DAB80F6E2D0A}"/>
-    <hyperlink ref="A95" r:id="rId60" location="netstat" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - netstat" xr:uid="{FB4EDC7A-9BA1-4B4D-9098-A21E2F153C38}"/>
-    <hyperlink ref="A96" r:id="rId61" location="networkdiagnostic-get-addr-type-" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - networkdiagnostic-get-addr-type-" xr:uid="{0A7F8400-F5F2-4FB7-9B4D-D84D167A85B1}"/>
-    <hyperlink ref="A97" r:id="rId62" location="networkidtimeout" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - networkidtimeout" xr:uid="{081E9C6D-D28E-4E17-8150-19CF53957BA3}"/>
-    <hyperlink ref="A98" r:id="rId63" location="networkkey" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - networkkey" xr:uid="{003822D5-1AB8-4DC6-975E-B8E6D4DF1221}"/>
-    <hyperlink ref="A99" r:id="rId64" location="networkname" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - networkname" xr:uid="{1890DBF7-406F-420F-94AC-5DDD4558FF1A}"/>
-    <hyperlink ref="A100" r:id="rId65" location="networktime" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - networktime" xr:uid="{8330AC2A-53E3-444A-AFC2-D9ED668A44A4}"/>
-    <hyperlink ref="A101" r:id="rId66" location="nexthop" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - nexthop" xr:uid="{379A1AB3-A694-4A99-9D7C-11333A4AEFCA}"/>
-    <hyperlink ref="A102" r:id="rId67" location="panid" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - panid" xr:uid="{BDA8F794-71EF-4333-9C23-FEB730E8FF11}"/>
-    <hyperlink ref="A103" r:id="rId68" location="parent" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - parent" xr:uid="{44CBAF1E-A441-4F68-89B4-68CC8967010A}"/>
-    <hyperlink ref="A104" r:id="rId69" location="parentpriority" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - parentpriority" xr:uid="{4E414727-D4BE-44E6-A0DC-915C5D672FD0}"/>
-    <hyperlink ref="A105" r:id="rId70" location="partitionid" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - partitionid" xr:uid="{55A84B9E-E126-4D1A-9CDF-D508C62048CA}"/>
-    <hyperlink ref="A106" r:id="rId71" location="ping-async--i-source--m-ipaddr-size-count-interval-hoplimit-timeout" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - ping-async--i-source--m-ipaddr-size-count-interval-hoplimit-timeout" xr:uid="{DF6D73AB-28BA-4F83-B394-9F6A67E68F1F}"/>
-    <hyperlink ref="A107" r:id="rId72" location="platform" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - platform" xr:uid="{76795569-F56F-4540-8B8C-0025EC16468E}"/>
-    <hyperlink ref="A108" r:id="rId73" location="pollperiod-pollperiod" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - pollperiod-pollperiod" xr:uid="{B037F3AF-2A27-422A-ADC8-7B4F8BAE00B7}"/>
-    <hyperlink ref="A109" r:id="rId74" location="preferrouterid-routerid" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - preferrouterid-routerid" xr:uid="{F4801704-A604-4208-B6EE-1D44B338C3CC}"/>
-    <hyperlink ref="A110" r:id="rId75" location="prefix" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - prefix" xr:uid="{D7B3FDD8-868D-45AC-8342-833752B8E875}"/>
-    <hyperlink ref="A111" r:id="rId76" location="promiscuous" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - promiscuous" xr:uid="{DD596849-45BB-4B7D-9E1F-82F999C9E3F8}"/>
-    <hyperlink ref="A112" r:id="rId77" location="pskc" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - pskc" xr:uid="{11805B6E-9587-40D8-B954-9E2EF4E99D6B}"/>
-    <hyperlink ref="A113" r:id="rId78" location="pskcref" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - pskcref" xr:uid="{E042616D-C67E-4109-A6FA-9A7F3BBCCFAF}"/>
-    <hyperlink ref="A114" r:id="rId79" location="radio-enable" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - radio-enable" xr:uid="{712F51C3-055A-49B6-9E5C-923B3FD3B573}"/>
-    <hyperlink ref="A115" r:id="rId80" location="radiofilter" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - radiofilter" xr:uid="{665CF900-701F-46E5-A7A2-B0B91BDD3057}"/>
-    <hyperlink ref="A116" r:id="rId81" location="rcp" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - rcp" xr:uid="{14E58AF4-9C37-499A-BB20-E03647CB9751}"/>
-    <hyperlink ref="A117" r:id="rId82" location="region" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - region" xr:uid="{2A195F62-E8A6-41CC-88CC-90385CC947AD}"/>
-    <hyperlink ref="A118" r:id="rId83" location="releaserouterid-routerid" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - releaserouterid-routerid" xr:uid="{1D02F9C2-7D82-4CF0-B0F7-986294A93F28}"/>
-    <hyperlink ref="A119" r:id="rId84" location="reset" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - reset" xr:uid="{61AF6F78-EE50-4680-935B-70C09D3D3BAB}"/>
-    <hyperlink ref="A120" r:id="rId85" location="rloc16" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - rloc16" xr:uid="{1ABEF7ED-525D-4B80-9DD5-D4F499A16895}"/>
-    <hyperlink ref="A121" r:id="rId86" location="route" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - route" xr:uid="{A4C66B78-C213-468E-A585-5B3BFC564A89}"/>
-    <hyperlink ref="A122" r:id="rId87" location="router-list" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - router-list" xr:uid="{495F4EC9-D734-46DB-8C45-0DF3A9B7E668}"/>
-    <hyperlink ref="A123" r:id="rId88" location="routerdowngradethreshold" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - routerdowngradethreshold" xr:uid="{BD4C2ECE-0234-4B7C-BDFD-6FCA11B3B6B4}"/>
-    <hyperlink ref="A124" r:id="rId89" location="routereligible" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - routereligible" xr:uid="{927D9976-63B0-4819-951B-C7F523BB7C23}"/>
-    <hyperlink ref="A125" r:id="rId90" location="routerselectionjitter" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - routerselectionjitter" xr:uid="{FE1E1634-23D6-46A9-87F0-08FD94453D7A}"/>
-    <hyperlink ref="A126" r:id="rId91" location="routerupgradethreshold" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - routerupgradethreshold" xr:uid="{93AB5568-F812-4189-B206-D2ED20392CD6}"/>
-    <hyperlink ref="A127" r:id="rId92" location="childrouterlinks" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - childrouterlinks" xr:uid="{92046006-575F-4BB8-8C11-90F61F60BF96}"/>
-    <hyperlink ref="A128" r:id="rId93" location="scan-channel" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - scan-channel" xr:uid="{A1EA6A61-AFE7-412F-971C-6A3823609668}"/>
-    <hyperlink ref="A129" r:id="rId94" location="service" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - service" xr:uid="{92DC6DF7-42A7-4502-A1B6-00BCD61B14AD}"/>
-    <hyperlink ref="A130" r:id="rId95" location="singleton" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - singleton" xr:uid="{52D06AA2-8E8E-417A-B138-D1AAAAC75E71}"/>
-    <hyperlink ref="A131" r:id="rId96" location="sntp-query-sntp-server-ip-sntp-server-port" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - sntp-query-sntp-server-ip-sntp-server-port" xr:uid="{617A5C9C-93E9-443A-A39C-341CA2B36CAB}"/>
-    <hyperlink ref="A132" r:id="rId97" location="state" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - state" xr:uid="{6379CACF-7584-4DAE-9119-3050CECEFE4F}"/>
-    <hyperlink ref="A133" r:id="rId98" display="https://github.com/openthread/openthread/blob/main/src/cli/README_SRP.md" xr:uid="{4BBA6645-5963-49F3-929D-61AED3FE7756}"/>
-    <hyperlink ref="A134" r:id="rId99" display="https://github.com/openthread/openthread/blob/main/src/cli/README_TCAT.md" xr:uid="{CF23333E-7222-4D9F-A464-EA58FDEBD7FE}"/>
-    <hyperlink ref="A135" r:id="rId100" display="https://github.com/openthread/openthread/blob/main/src/cli/README_TCP.md" xr:uid="{E6FBFD48-8CC5-4AF0-84BC-9634E72CA37F}"/>
-    <hyperlink ref="A136" r:id="rId101" location="test-tmforiginfilter-enabledisable" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - test-tmforiginfilter-enabledisable" xr:uid="{6A35A8CA-5D50-451F-88B9-D4A2355A775F}"/>
-    <hyperlink ref="A137" r:id="rId102" location="thread-start" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - thread-start" xr:uid="{0F531279-A968-43AD-B92F-52081F19C5E5}"/>
-    <hyperlink ref="A138" r:id="rId103" location="timeinqueue" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - timeinqueue" xr:uid="{3EC4485C-FF51-4C80-898E-1CD312641D1D}"/>
-    <hyperlink ref="A139" r:id="rId104" location="trel" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - trel" xr:uid="{A5D09C73-AB36-4A03-A40D-FD27620D27E2}"/>
-    <hyperlink ref="A140" r:id="rId105" location="tvcheck-enable" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - tvcheck-enable" xr:uid="{D1FDC76A-4885-4264-A99B-C433455BBA78}"/>
-    <hyperlink ref="A141" r:id="rId106" location="txpower" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - txpower" xr:uid="{E6546295-8864-4FF1-BB47-D695955C4E7C}"/>
-    <hyperlink ref="A142" r:id="rId107" display="https://github.com/openthread/openthread/blob/main/src/cli/README_UDP.md" xr:uid="{2BF5AE92-9EA3-4490-B0AA-F4BE6242860A}"/>
-    <hyperlink ref="A143" r:id="rId108" location="unsecureport-add-port" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - unsecureport-add-port" xr:uid="{C54C04BC-8D27-4889-81DB-32A20CFC897B}"/>
-    <hyperlink ref="A144" r:id="rId109" location="uptime" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - uptime" xr:uid="{D1672B14-C990-4D6F-919A-369148906ECE}"/>
-    <hyperlink ref="A145" r:id="rId110" location="vendor-name" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - vendor-name" xr:uid="{41C4E3F9-C17A-44C7-933E-6719F8E55B81}"/>
-    <hyperlink ref="A146" r:id="rId111" location="verhoeff-calculate" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - verhoeff-calculate" xr:uid="{D6FBC52E-E885-4157-9A3E-8A80834FCE69}"/>
-    <hyperlink ref="A147" r:id="rId112" location="version" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - version" xr:uid="{14FE1D62-8D78-4C5E-A13C-0E5FDA6DDEDA}"/>
-    <hyperlink ref="A148" r:id="rId113" location="wakeup-channel" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - wakeup-channel" xr:uid="{6F26D8A5-DC8B-45D9-BFE8-7EEFCA8961E3}"/>
+    <hyperlink ref="A42" r:id="rId4" location="bufferinfo" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - bufferinfo" xr:uid="{7BB4C334-9D82-4A67-9F6E-38A537B63732}"/>
+    <hyperlink ref="A44" r:id="rId5" location="ccathreshold" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - ccathreshold" xr:uid="{4C1AD860-7276-47A5-A9DD-884305451FCF}"/>
+    <hyperlink ref="A45" r:id="rId6" location="channel" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - channel" xr:uid="{79901B17-AD83-4D87-94F5-23D5E5A5E600}"/>
+    <hyperlink ref="A59" r:id="rId7" location="child-list" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - child-list" xr:uid="{4A8AB617-3FC6-4796-9779-296CC2C4597A}"/>
+    <hyperlink ref="A62" r:id="rId8" location="childip" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - childip" xr:uid="{0A806AD5-037F-4B60-9903-D9BB0FBAA04E}"/>
+    <hyperlink ref="A64" r:id="rId9" location="childmax" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - childmax" xr:uid="{4FBF34D0-860B-43C3-8C46-5BBA2FF23F13}"/>
+    <hyperlink ref="A65" r:id="rId10" location="childsupervision-interval" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - childsupervision-interval" xr:uid="{1A875965-1143-4253-B61F-2AF6F15BFFF4}"/>
+    <hyperlink ref="A69" r:id="rId11" location="childtimeout" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - childtimeout" xr:uid="{243D88A8-26E3-4897-B21D-8B14A2BA36A0}"/>
+    <hyperlink ref="A70" r:id="rId12" display="https://github.com/openthread/openthread/blob/main/src/cli/README_COAP.md" xr:uid="{C2854D17-48CE-4F7B-867D-F75ED3A88C70}"/>
+    <hyperlink ref="A81" r:id="rId13" display="https://github.com/openthread/openthread/blob/main/src/cli/README_COAPS.md" xr:uid="{46EDF370-3654-4A72-A7E4-1F62A0BABC11}"/>
+    <hyperlink ref="A96" r:id="rId14" location="coex" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - coex" xr:uid="{B122F81F-3851-4F0F-BA90-2EFB6B705B74}"/>
+    <hyperlink ref="A100" r:id="rId15" display="https://github.com/openthread/openthread/blob/main/src/cli/README_COMMISSIONER.md" xr:uid="{0660644E-566B-4938-86AE-9371D7ABA509}"/>
+    <hyperlink ref="A112" r:id="rId16" location="contextreusedelay" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - contextreusedelay" xr:uid="{467E2672-3FAD-4C3F-9751-1255B25FA6DD}"/>
+    <hyperlink ref="A113" r:id="rId17" location="counters" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - counters" xr:uid="{09B04CC8-8F82-4367-93D4-5E4A0B50FDCB}"/>
+    <hyperlink ref="A115" r:id="rId18" location="csl" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - csl" xr:uid="{F69FA219-E6F4-4F39-BB17-C719EE6B97E1}"/>
+    <hyperlink ref="A119" r:id="rId19" display="https://github.com/openthread/openthread/blob/main/src/cli/README_DATASET.md" xr:uid="{6BE624B4-44EB-40B4-BEC6-79EE34D6F01F}"/>
+    <hyperlink ref="A144" r:id="rId20" location="debug" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - debug" xr:uid="{50F643D6-361C-4DA5-83FF-E0A21533CC2F}"/>
+    <hyperlink ref="A145" r:id="rId21" location="delaytimermin" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - delaytimermin" xr:uid="{ACD9CAF6-FD8D-445B-AE94-E1662768DD5B}"/>
+    <hyperlink ref="A146" r:id="rId22" location="detach" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - detach" xr:uid="{F19E366F-FF0B-4631-905D-B1249590912B}"/>
+    <hyperlink ref="A148" r:id="rId23" location="deviceprops" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - deviceprops" xr:uid="{B3B3AA7E-313A-4A66-A00B-0E3065C1A923}"/>
+    <hyperlink ref="A149" r:id="rId24" location="diag" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - diag" xr:uid="{666617B4-02C4-4496-8150-5D95223E3644}"/>
+    <hyperlink ref="A182" r:id="rId25" location="discover-channel" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - discover-channel" xr:uid="{1750CD7B-AE21-4A9C-93AF-36DF2883D9C3}"/>
+    <hyperlink ref="A183" r:id="rId26" location="dns-config" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - dns-config" xr:uid="{D2CF6850-F08A-4053-A7B8-035A76F61690}"/>
+    <hyperlink ref="A191" r:id="rId27" location="domainname" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - domainname" xr:uid="{32064DD1-9626-4CBA-97E8-363C194048E4}"/>
+    <hyperlink ref="A192" r:id="rId28" location="dua-iid" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - dua-iid" xr:uid="{636C0A55-329D-4F24-9B50-4C92EFA2028F}"/>
+    <hyperlink ref="A194" r:id="rId29" location="eidcache" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - eidcache" xr:uid="{AD452F60-E72D-4F03-B294-08BF37E135C0}"/>
+    <hyperlink ref="A195" r:id="rId30" location="eui64" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - eui64" xr:uid="{40EFBC65-8D8B-43E1-8220-B0B1A2BBE284}"/>
+    <hyperlink ref="A196" r:id="rId31" location="extaddr" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - extaddr" xr:uid="{F38018AF-8E08-4AA6-AE18-5FE583C5A593}"/>
+    <hyperlink ref="A197" r:id="rId32" location="extpanid" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - extpanid" xr:uid="{47FF21E8-C6E9-49A5-9B76-EBCCC120689E}"/>
+    <hyperlink ref="A198" r:id="rId33" location="factoryreset" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - factoryreset" xr:uid="{03D5697C-4E89-4D59-8F49-7EFB42C96E4B}"/>
+    <hyperlink ref="A199" r:id="rId34" location="fake" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - fake" xr:uid="{73FA7D8C-5952-4652-8E78-F3174BC813BA}"/>
+    <hyperlink ref="A200" r:id="rId35" location="fem" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - fem" xr:uid="{E68F0D33-2F3E-45A2-BBEA-6043ECF89F76}"/>
+    <hyperlink ref="A202" r:id="rId36" display="https://github.com/openthread/openthread/blob/main/src/cli/README_HISTORY.md" xr:uid="{F17D543F-5836-4C67-B237-EA24EC0065AD}"/>
+    <hyperlink ref="A212" r:id="rId37" location="ifconfig" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - ifconfig" xr:uid="{8CCB64A0-3301-4AE2-81D6-032B5E3960D6}"/>
+    <hyperlink ref="A215" r:id="rId38" location="instanceid" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - instanceid" xr:uid="{45586D23-D4A3-4F7B-BC32-E759581CFFE9}"/>
+    <hyperlink ref="A216" r:id="rId39" location="ipaddr" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - ipaddr" xr:uid="{EA16BE0B-F624-4B20-8BE4-BBAEC86A9B33}"/>
+    <hyperlink ref="A222" r:id="rId40" location="ipmaddr" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - ipmaddr" xr:uid="{B7424E05-228D-45C3-87B7-97D44591B80B}"/>
+    <hyperlink ref="A227" r:id="rId41" display="https://github.com/openthread/openthread/blob/main/src/cli/README_JOINER.md" xr:uid="{CBA3AB7A-0A20-4E85-AA26-D731558734A9}"/>
+    <hyperlink ref="A232" r:id="rId42" location="joinerport-port" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - joinerport-port" xr:uid="{53ECDFC5-3816-4901-A7D8-EDD544A04247}"/>
+    <hyperlink ref="A233" r:id="rId43" location="keysequence-counter" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - keysequence-counter" xr:uid="{2B10C1B3-7E2E-4836-9519-BC0DE86BCB91}"/>
+    <hyperlink ref="A235" r:id="rId44" location="leaderdata" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - leaderdata" xr:uid="{D21CEB03-00BC-4B73-A2F4-BDF77C6FB4D2}"/>
+    <hyperlink ref="A236" r:id="rId45" location="leaderweight" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - leaderweight" xr:uid="{168C30E4-6D7F-4F70-9BEE-64483B160DE4}"/>
+    <hyperlink ref="A237" r:id="rId46" location="linkmetrics-config-async-ipaddr-enhanced-ack-clear" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - linkmetrics-config-async-ipaddr-enhanced-ack-clear" xr:uid="{FF7DA7B7-10A7-4C26-A564-C804907066CD}"/>
+    <hyperlink ref="A240" r:id="rId47" location="linkmetricsmgr-disable" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - linkmetricsmgr-disable" xr:uid="{F8A005C5-6F11-48D2-8B9A-3136C2D92BD2}"/>
+    <hyperlink ref="A243" r:id="rId48" location="locate" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - locate" xr:uid="{791C9B0F-BEA0-4F72-9633-1E4337A0C3AF}"/>
+    <hyperlink ref="A244" r:id="rId49" location="log-filename-filename" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - log-filename-filename" xr:uid="{4086F69E-ED36-42E6-BE46-00BFECDE4E39}"/>
+    <hyperlink ref="A246" r:id="rId50" location="mac-altshortaddr" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - mac-altshortaddr" xr:uid="{819631CA-7F7C-4BD4-8791-EFEA9ECFD5C5}"/>
+    <hyperlink ref="A250" r:id="rId51" location="macfilter" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - macfilter" xr:uid="{AAC55C36-B3BC-45B0-B130-AE58EFC22452}"/>
+    <hyperlink ref="A263" r:id="rId52" location="meshdiag-topology-ip6-addrs-children" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - meshdiag-topology-ip6-addrs-children" xr:uid="{7476D9CB-A5C6-4547-BB12-511C9069C1BF}"/>
+    <hyperlink ref="A267" r:id="rId53" location="mliid-iid" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - mliid-iid" xr:uid="{AA44855F-A51C-4D11-8019-A5A5D01A6415}"/>
+    <hyperlink ref="A268" r:id="rId54" location="mlr-reg-ipaddr--timeout" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - mlr-reg-ipaddr--timeout" xr:uid="{F0CB3544-B443-4D25-A20C-84649F12288C}"/>
+    <hyperlink ref="A269" r:id="rId55" location="mode" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - mode" xr:uid="{A488F151-BD9C-4D00-A862-2CB93E37A9F2}"/>
+    <hyperlink ref="A270" r:id="rId56" location="multiradio" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - multiradio" xr:uid="{CBD9C93D-5D16-437D-9D1D-A6CAB2BEC514}"/>
+    <hyperlink ref="A273" r:id="rId57" location="nat64-cidr" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - nat64-cidr" xr:uid="{465CC395-3FAC-49B0-A465-71ADD3B44C94}"/>
+    <hyperlink ref="A284" r:id="rId58" location="neighbor-list" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - neighbor-list" xr:uid="{613A85B7-974B-4B7D-89DA-EEAA289B9F66}"/>
+    <hyperlink ref="A289" r:id="rId59" display="https://github.com/openthread/openthread/blob/main/src/cli/README_NETDATA.md" xr:uid="{2AC6F2B2-06D3-4868-8514-DAB80F6E2D0A}"/>
+    <hyperlink ref="A304" r:id="rId60" location="netstat" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - netstat" xr:uid="{FB4EDC7A-9BA1-4B4D-9098-A21E2F153C38}"/>
+    <hyperlink ref="A305" r:id="rId61" location="networkdiagnostic-get-addr-type-" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - networkdiagnostic-get-addr-type-" xr:uid="{0A7F8400-F5F2-4FB7-9B4D-D84D167A85B1}"/>
+    <hyperlink ref="A307" r:id="rId62" location="networkidtimeout" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - networkidtimeout" xr:uid="{081E9C6D-D28E-4E17-8150-19CF53957BA3}"/>
+    <hyperlink ref="A308" r:id="rId63" location="networkkey" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - networkkey" xr:uid="{003822D5-1AB8-4DC6-975E-B8E6D4DF1221}"/>
+    <hyperlink ref="A309" r:id="rId64" location="networkname" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - networkname" xr:uid="{1890DBF7-406F-420F-94AC-5DDD4558FF1A}"/>
+    <hyperlink ref="A310" r:id="rId65" location="networktime" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - networktime" xr:uid="{8330AC2A-53E3-444A-AFC2-D9ED668A44A4}"/>
+    <hyperlink ref="A311" r:id="rId66" location="nexthop" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - nexthop" xr:uid="{379A1AB3-A694-4A99-9D7C-11333A4AEFCA}"/>
+    <hyperlink ref="A312" r:id="rId67" location="panid" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - panid" xr:uid="{BDA8F794-71EF-4333-9C23-FEB730E8FF11}"/>
+    <hyperlink ref="A313" r:id="rId68" location="parent" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - parent" xr:uid="{44CBAF1E-A441-4F68-89B4-68CC8967010A}"/>
+    <hyperlink ref="A314" r:id="rId69" location="parentpriority" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - parentpriority" xr:uid="{4E414727-D4BE-44E6-A0DC-915C5D672FD0}"/>
+    <hyperlink ref="A315" r:id="rId70" location="partitionid" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - partitionid" xr:uid="{55A84B9E-E126-4D1A-9CDF-D508C62048CA}"/>
+    <hyperlink ref="A317" r:id="rId71" location="ping-async--i-source--m-ipaddr-size-count-interval-hoplimit-timeout" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - ping-async--i-source--m-ipaddr-size-count-interval-hoplimit-timeout" xr:uid="{DF6D73AB-28BA-4F83-B394-9F6A67E68F1F}"/>
+    <hyperlink ref="A319" r:id="rId72" location="platform" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - platform" xr:uid="{76795569-F56F-4540-8B8C-0025EC16468E}"/>
+    <hyperlink ref="A320" r:id="rId73" location="pollperiod-pollperiod" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - pollperiod-pollperiod" xr:uid="{B037F3AF-2A27-422A-ADC8-7B4F8BAE00B7}"/>
+    <hyperlink ref="A321" r:id="rId74" location="preferrouterid-routerid" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - preferrouterid-routerid" xr:uid="{F4801704-A604-4208-B6EE-1D44B338C3CC}"/>
+    <hyperlink ref="A322" r:id="rId75" location="prefix" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - prefix" xr:uid="{D7B3FDD8-868D-45AC-8342-833752B8E875}"/>
+    <hyperlink ref="A326" r:id="rId76" location="promiscuous" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - promiscuous" xr:uid="{DD596849-45BB-4B7D-9E1F-82F999C9E3F8}"/>
+    <hyperlink ref="A329" r:id="rId77" location="pskc" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - pskc" xr:uid="{11805B6E-9587-40D8-B954-9E2EF4E99D6B}"/>
+    <hyperlink ref="A330" r:id="rId78" location="pskcref" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - pskcref" xr:uid="{E042616D-C67E-4109-A6FA-9A7F3BBCCFAF}"/>
+    <hyperlink ref="A331" r:id="rId79" location="radio-enable" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - radio-enable" xr:uid="{712F51C3-055A-49B6-9E5C-923B3FD3B573}"/>
+    <hyperlink ref="A335" r:id="rId80" location="radiofilter" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - radiofilter" xr:uid="{665CF900-701F-46E5-A7A2-B0B91BDD3057}"/>
+    <hyperlink ref="A338" r:id="rId81" location="rcp" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - rcp" xr:uid="{14E58AF4-9C37-499A-BB20-E03647CB9751}"/>
+    <hyperlink ref="A340" r:id="rId82" location="region" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - region" xr:uid="{2A195F62-E8A6-41CC-88CC-90385CC947AD}"/>
+    <hyperlink ref="A341" r:id="rId83" location="releaserouterid-routerid" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - releaserouterid-routerid" xr:uid="{1D02F9C2-7D82-4CF0-B0F7-986294A93F28}"/>
+    <hyperlink ref="A342" r:id="rId84" location="reset" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - reset" xr:uid="{61AF6F78-EE50-4680-935B-70C09D3D3BAB}"/>
+    <hyperlink ref="A344" r:id="rId85" location="rloc16" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - rloc16" xr:uid="{1ABEF7ED-525D-4B80-9DD5-D4F499A16895}"/>
+    <hyperlink ref="A345" r:id="rId86" location="route" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - route" xr:uid="{A4C66B78-C213-468E-A585-5B3BFC564A89}"/>
+    <hyperlink ref="A348" r:id="rId87" location="router-list" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - router-list" xr:uid="{495F4EC9-D734-46DB-8C45-0DF3A9B7E668}"/>
+    <hyperlink ref="A351" r:id="rId88" location="routerdowngradethreshold" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - routerdowngradethreshold" xr:uid="{BD4C2ECE-0234-4B7C-BDFD-6FCA11B3B6B4}"/>
+    <hyperlink ref="A352" r:id="rId89" location="routereligible" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - routereligible" xr:uid="{927D9976-63B0-4819-951B-C7F523BB7C23}"/>
+    <hyperlink ref="A355" r:id="rId90" location="routerselectionjitter" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - routerselectionjitter" xr:uid="{FE1E1634-23D6-46A9-87F0-08FD94453D7A}"/>
+    <hyperlink ref="A356" r:id="rId91" location="routerupgradethreshold" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - routerupgradethreshold" xr:uid="{93AB5568-F812-4189-B206-D2ED20392CD6}"/>
+    <hyperlink ref="A357" r:id="rId92" location="childrouterlinks" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - childrouterlinks" xr:uid="{92046006-575F-4BB8-8C11-90F61F60BF96}"/>
+    <hyperlink ref="A358" r:id="rId93" location="scan-channel" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - scan-channel" xr:uid="{A1EA6A61-AFE7-412F-971C-6A3823609668}"/>
+    <hyperlink ref="A360" r:id="rId94" location="service" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - service" xr:uid="{92DC6DF7-42A7-4502-A1B6-00BCD61B14AD}"/>
+    <hyperlink ref="A363" r:id="rId95" location="singleton" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - singleton" xr:uid="{52D06AA2-8E8E-417A-B138-D1AAAAC75E71}"/>
+    <hyperlink ref="A364" r:id="rId96" location="sntp-query-sntp-server-ip-sntp-server-port" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - sntp-query-sntp-server-ip-sntp-server-port" xr:uid="{617A5C9C-93E9-443A-A39C-341CA2B36CAB}"/>
+    <hyperlink ref="A365" r:id="rId97" location="state" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - state" xr:uid="{6379CACF-7584-4DAE-9119-3050CECEFE4F}"/>
+    <hyperlink ref="A367" r:id="rId98" display="https://github.com/openthread/openthread/blob/main/src/cli/README_SRP.md" xr:uid="{4BBA6645-5963-49F3-929D-61AED3FE7756}"/>
+    <hyperlink ref="A389" r:id="rId99" display="https://github.com/openthread/openthread/blob/main/src/cli/README_TCAT.md" xr:uid="{CF23333E-7222-4D9F-A464-EA58FDEBD7FE}"/>
+    <hyperlink ref="A399" r:id="rId100" display="https://github.com/openthread/openthread/blob/main/src/cli/README_TCP.md" xr:uid="{E6FBFD48-8CC5-4AF0-84BC-9634E72CA37F}"/>
+    <hyperlink ref="A410" r:id="rId101" location="test-tmforiginfilter-enabledisable" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - test-tmforiginfilter-enabledisable" xr:uid="{6A35A8CA-5D50-451F-88B9-D4A2355A775F}"/>
+    <hyperlink ref="A411" r:id="rId102" location="thread-start" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - thread-start" xr:uid="{0F531279-A968-43AD-B92F-52081F19C5E5}"/>
+    <hyperlink ref="A414" r:id="rId103" location="timeinqueue" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - timeinqueue" xr:uid="{3EC4485C-FF51-4C80-898E-1CD312641D1D}"/>
+    <hyperlink ref="A417" r:id="rId104" location="trel" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - trel" xr:uid="{A5D09C73-AB36-4A03-A40D-FD27620D27E2}"/>
+    <hyperlink ref="A427" r:id="rId105" location="tvcheck-enable" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - tvcheck-enable" xr:uid="{D1FDC76A-4885-4264-A99B-C433455BBA78}"/>
+    <hyperlink ref="A429" r:id="rId106" location="txpower" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - txpower" xr:uid="{E6546295-8864-4FF1-BB47-D695955C4E7C}"/>
+    <hyperlink ref="A430" r:id="rId107" display="https://github.com/openthread/openthread/blob/main/src/cli/README_UDP.md" xr:uid="{2BF5AE92-9EA3-4490-B0AA-F4BE6242860A}"/>
+    <hyperlink ref="A438" r:id="rId108" location="unsecureport-add-port" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - unsecureport-add-port" xr:uid="{C54C04BC-8D27-4889-81DB-32A20CFC897B}"/>
+    <hyperlink ref="A442" r:id="rId109" location="uptime" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - uptime" xr:uid="{D1672B14-C990-4D6F-919A-369148906ECE}"/>
+    <hyperlink ref="A444" r:id="rId110" location="vendor-name" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - vendor-name" xr:uid="{41C4E3F9-C17A-44C7-933E-6719F8E55B81}"/>
+    <hyperlink ref="A447" r:id="rId111" location="verhoeff-calculate" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - verhoeff-calculate" xr:uid="{D6FBC52E-E885-4157-9A3E-8A80834FCE69}"/>
+    <hyperlink ref="A449" r:id="rId112" location="version" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - version" xr:uid="{14FE1D62-8D78-4C5E-A13C-0E5FDA6DDEDA}"/>
+    <hyperlink ref="A451" r:id="rId113" location="wakeup-channel" display="https://github.com/openthread/openthread/blob/main/src/cli/README.md - wakeup-channel" xr:uid="{6F26D8A5-DC8B-45D9-BFE8-7EEFCA8961E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
